--- a/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9446083331502563</v>
+        <v>0.9446083331502548</v>
       </c>
       <c r="D2">
-        <v>1.020831341250488</v>
+        <v>1.020831341250487</v>
       </c>
       <c r="E2">
-        <v>0.9570969188237205</v>
+        <v>0.9570969188237191</v>
       </c>
       <c r="F2">
-        <v>0.9888410426272652</v>
+        <v>0.9888410426272642</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041007121573434</v>
+        <v>1.041007121573433</v>
       </c>
       <c r="J2">
-        <v>0.9685821812794293</v>
+        <v>0.9685821812794277</v>
       </c>
       <c r="K2">
-        <v>1.032007894744713</v>
+        <v>1.032007894744712</v>
       </c>
       <c r="L2">
-        <v>0.9691881876305464</v>
+        <v>0.969188187630545</v>
       </c>
       <c r="M2">
-        <v>1.000458060154999</v>
+        <v>1.000458060154998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,13 +462,13 @@
         <v>0.9576849557955942</v>
       </c>
       <c r="D3">
-        <v>1.025668793225249</v>
+        <v>1.02566879322525</v>
       </c>
       <c r="E3">
-        <v>0.9682434228357624</v>
+        <v>0.9682434228357628</v>
       </c>
       <c r="F3">
-        <v>0.9984385399749565</v>
+        <v>0.9984385399749562</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.044010184235075</v>
       </c>
       <c r="J3">
-        <v>0.9793996296128232</v>
+        <v>0.9793996296128233</v>
       </c>
       <c r="K3">
         <v>1.035983442726013</v>
       </c>
       <c r="L3">
-        <v>0.9792994340816591</v>
+        <v>0.9792994340816595</v>
       </c>
       <c r="M3">
-        <v>1.009091439038537</v>
+        <v>1.009091439038536</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.965719157806035</v>
+        <v>0.9657191578060333</v>
       </c>
       <c r="D4">
         <v>1.028664102337592</v>
       </c>
       <c r="E4">
-        <v>0.9751004258760756</v>
+        <v>0.9751004258760737</v>
       </c>
       <c r="F4">
-        <v>1.004359431659211</v>
+        <v>1.00435943165921</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045843757375395</v>
       </c>
       <c r="J4">
-        <v>0.9860423672538243</v>
+        <v>0.9860423672538227</v>
       </c>
       <c r="K4">
-        <v>1.038428460650693</v>
+        <v>1.038428460650692</v>
       </c>
       <c r="L4">
-        <v>0.985508956121814</v>
+        <v>0.9855089561218121</v>
       </c>
       <c r="M4">
-        <v>1.014405525395931</v>
+        <v>1.01440552539593</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9690043564148494</v>
+        <v>0.9690043564148496</v>
       </c>
       <c r="D5">
         <v>1.029893637073127</v>
       </c>
       <c r="E5">
-        <v>0.9779060382035468</v>
+        <v>0.9779060382035469</v>
       </c>
       <c r="F5">
         <v>1.006785490844867</v>
@@ -553,16 +553,16 @@
         <v>1.04659039835682</v>
       </c>
       <c r="J5">
-        <v>0.9887575498233413</v>
+        <v>0.9887575498233414</v>
       </c>
       <c r="K5">
         <v>1.039428276532538</v>
       </c>
       <c r="L5">
-        <v>0.9880471357075051</v>
+        <v>0.9880471357075054</v>
       </c>
       <c r="M5">
-        <v>1.01658014174059</v>
+        <v>1.016580141740591</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9695507974276162</v>
+        <v>0.9695507974276174</v>
       </c>
       <c r="D6">
-        <v>1.030098408274181</v>
+        <v>1.030098408274182</v>
       </c>
       <c r="E6">
-        <v>0.9783728039216329</v>
+        <v>0.9783728039216337</v>
       </c>
       <c r="F6">
         <v>1.00718929992975</v>
@@ -591,16 +591,16 @@
         <v>1.046714397722255</v>
       </c>
       <c r="J6">
-        <v>0.9892091104236684</v>
+        <v>0.9892091104236693</v>
       </c>
       <c r="K6">
-        <v>1.039594568035726</v>
+        <v>1.039594568035727</v>
       </c>
       <c r="L6">
-        <v>0.988469262324968</v>
+        <v>0.9884692623249688</v>
       </c>
       <c r="M6">
-        <v>1.016941935812028</v>
+        <v>1.016941935812029</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9657634058599107</v>
+        <v>0.9657634058599102</v>
       </c>
       <c r="D7">
-        <v>1.028680644979421</v>
+        <v>1.02868064497942</v>
       </c>
       <c r="E7">
-        <v>0.9751382077505381</v>
+        <v>0.9751382077505378</v>
       </c>
       <c r="F7">
-        <v>1.004392089185825</v>
+        <v>1.004392089185824</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045853826616694</v>
       </c>
       <c r="J7">
-        <v>0.9860789422271287</v>
+        <v>0.9860789422271282</v>
       </c>
       <c r="K7">
         <v>1.038441927586651</v>
       </c>
       <c r="L7">
-        <v>0.9855431465278173</v>
+        <v>0.985543146527817</v>
       </c>
       <c r="M7">
-        <v>1.014434809270477</v>
+        <v>1.014434809270476</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9491226029976266</v>
+        <v>0.9491226029976263</v>
       </c>
       <c r="D8">
-        <v>1.022495791981235</v>
+        <v>1.022495791981234</v>
       </c>
       <c r="E8">
-        <v>0.9609428189026052</v>
+        <v>0.9609428189026049</v>
       </c>
       <c r="F8">
-        <v>0.9921485135106648</v>
+        <v>0.9921485135106641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042046055113703</v>
+        <v>1.042046055113702</v>
       </c>
       <c r="J8">
-        <v>0.9723171352662117</v>
+        <v>0.9723171352662114</v>
       </c>
       <c r="K8">
         <v>1.033379427126333</v>
       </c>
       <c r="L8">
-        <v>0.9726791903421128</v>
+        <v>0.9726791903421124</v>
       </c>
       <c r="M8">
-        <v>1.003435899112826</v>
+        <v>1.003435899112825</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9159724343763291</v>
+        <v>0.9159724343763298</v>
       </c>
       <c r="D9">
-        <v>1.010421517791234</v>
+        <v>1.010421517791235</v>
       </c>
       <c r="E9">
-        <v>0.9327567853476998</v>
+        <v>0.9327567853477005</v>
       </c>
       <c r="F9">
-        <v>0.9680147188557628</v>
+        <v>0.9680147188557636</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.034383189469877</v>
       </c>
       <c r="J9">
-        <v>0.9448861795377121</v>
+        <v>0.9448861795377126</v>
       </c>
       <c r="K9">
-        <v>1.023347746053248</v>
+        <v>1.023347746053249</v>
       </c>
       <c r="L9">
-        <v>0.9470439663235315</v>
+        <v>0.9470439663235322</v>
       </c>
       <c r="M9">
-        <v>0.9816489659484031</v>
+        <v>0.981648965948404</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8902707698527934</v>
+        <v>0.8902707698527907</v>
       </c>
       <c r="D10">
-        <v>1.001320901962289</v>
+        <v>1.001320901962288</v>
       </c>
       <c r="E10">
-        <v>0.9110045399303001</v>
+        <v>0.9110045399302974</v>
       </c>
       <c r="F10">
-        <v>0.9495762482936558</v>
+        <v>0.9495762482936542</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028425715350653</v>
+        <v>1.028425715350652</v>
       </c>
       <c r="J10">
-        <v>0.9236329367353174</v>
+        <v>0.9236329367353149</v>
       </c>
       <c r="K10">
-        <v>1.015666348001844</v>
+        <v>1.015666348001843</v>
       </c>
       <c r="L10">
-        <v>0.9271907974233591</v>
+        <v>0.9271907974233569</v>
       </c>
       <c r="M10">
-        <v>0.9649197806325163</v>
+        <v>0.9649197806325147</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.877943450470388</v>
+        <v>0.877943450470387</v>
       </c>
       <c r="D11">
-        <v>0.9970456935274972</v>
+        <v>0.9970456935274968</v>
       </c>
       <c r="E11">
-        <v>0.9006074727537655</v>
+        <v>0.9006074727537642</v>
       </c>
       <c r="F11">
-        <v>0.9408278982831676</v>
+        <v>0.9408278982831666</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025576211776716</v>
+        <v>1.025576211776715</v>
       </c>
       <c r="J11">
-        <v>0.9134510762459779</v>
+        <v>0.9134510762459767</v>
       </c>
       <c r="K11">
-        <v>1.012023539629133</v>
+        <v>1.012023539629132</v>
       </c>
       <c r="L11">
-        <v>0.9176833368254866</v>
+        <v>0.9176833368254854</v>
       </c>
       <c r="M11">
-        <v>0.9569591888748012</v>
+        <v>0.9569591888748004</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8731416044418446</v>
+        <v>0.8731416044418444</v>
       </c>
       <c r="D12">
-        <v>0.9953969817639463</v>
+        <v>0.9953969817639454</v>
       </c>
       <c r="E12">
-        <v>0.896564360565276</v>
+        <v>0.8965643605652756</v>
       </c>
       <c r="F12">
-        <v>0.937438034086996</v>
+        <v>0.9374380340869957</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024468799737819</v>
+        <v>1.024468799737818</v>
       </c>
       <c r="J12">
-        <v>0.9094877538027816</v>
+        <v>0.9094877538027812</v>
       </c>
       <c r="K12">
         <v>1.01061290287767</v>
       </c>
       <c r="L12">
-        <v>0.9139832732257651</v>
+        <v>0.9139832732257644</v>
       </c>
       <c r="M12">
-        <v>0.953870689610257</v>
+        <v>0.9538706896102567</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8741825714406158</v>
+        <v>0.8741825714406157</v>
       </c>
       <c r="D13">
-        <v>0.9957535922111942</v>
+        <v>0.9957535922111944</v>
       </c>
       <c r="E13">
-        <v>0.8974405100203419</v>
+        <v>0.8974405100203416</v>
       </c>
       <c r="F13">
-        <v>0.9381720336744909</v>
+        <v>0.9381720336744911</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.024708729005163</v>
       </c>
       <c r="J13">
-        <v>0.910346795565984</v>
+        <v>0.9103467955659837</v>
       </c>
       <c r="K13">
         <v>1.01091829233703</v>
       </c>
       <c r="L13">
-        <v>0.9147852167405439</v>
+        <v>0.9147852167405438</v>
       </c>
       <c r="M13">
         <v>0.954539617423248</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8775513818726269</v>
+        <v>0.8775513818726259</v>
       </c>
       <c r="D14">
-        <v>0.9969107227316565</v>
+        <v>0.9969107227316563</v>
       </c>
       <c r="E14">
-        <v>0.9002772071387679</v>
+        <v>0.900277207138767</v>
       </c>
       <c r="F14">
-        <v>0.9405507345201919</v>
+        <v>0.9405507345201912</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.025485731652596</v>
       </c>
       <c r="J14">
-        <v>0.9131274093559703</v>
+        <v>0.9131274093559694</v>
       </c>
       <c r="K14">
-        <v>1.011908180092953</v>
+        <v>1.011908180092952</v>
       </c>
       <c r="L14">
-        <v>0.9173811527503107</v>
+        <v>0.9173811527503097</v>
       </c>
       <c r="M14">
-        <v>0.9567067461898501</v>
+        <v>0.9567067461898494</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,31 +915,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.879595923191325</v>
+        <v>0.8795959231913248</v>
       </c>
       <c r="D15">
-        <v>0.9976152493360698</v>
+        <v>0.9976152493360695</v>
       </c>
       <c r="E15">
-        <v>0.9019997455222603</v>
+        <v>0.9019997455222601</v>
       </c>
       <c r="F15">
-        <v>0.9419968163445833</v>
+        <v>0.9419968163445834</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025957674718095</v>
+        <v>1.025957674718094</v>
       </c>
       <c r="J15">
-        <v>0.9148153720920295</v>
+        <v>0.9148153720920292</v>
       </c>
       <c r="K15">
-        <v>1.01251010053839</v>
+        <v>1.012510100538389</v>
       </c>
       <c r="L15">
-        <v>0.9189571112671634</v>
+        <v>0.9189571112671633</v>
       </c>
       <c r="M15">
         <v>0.9580236888434218</v>
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8910603237054461</v>
+        <v>0.8910603237054472</v>
       </c>
       <c r="D16">
         <v>1.001596771832695</v>
       </c>
       <c r="E16">
-        <v>0.9116712962095799</v>
+        <v>0.9116712962095805</v>
       </c>
       <c r="F16">
-        <v>0.9501387616813489</v>
+        <v>0.9501387616813497</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028608486159223</v>
       </c>
       <c r="J16">
-        <v>0.9242853916604594</v>
+        <v>0.9242853916604604</v>
       </c>
       <c r="K16">
         <v>1.015900662629995</v>
       </c>
       <c r="L16">
-        <v>0.9278001251939469</v>
+        <v>0.9278001251939477</v>
       </c>
       <c r="M16">
-        <v>0.9654311416670674</v>
+        <v>0.9654311416670681</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8979049789827527</v>
+        <v>0.8979049789827532</v>
       </c>
       <c r="D17">
         <v>1.003998363494216</v>
       </c>
       <c r="E17">
-        <v>0.9174554650237708</v>
+        <v>0.9174554650237713</v>
       </c>
       <c r="F17">
-        <v>0.9550259065001657</v>
+        <v>0.9550259065001659</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030193909576673</v>
       </c>
       <c r="J17">
-        <v>0.9299429132410668</v>
+        <v>0.9299429132410671</v>
       </c>
       <c r="K17">
         <v>1.017936648241286</v>
       </c>
       <c r="L17">
-        <v>0.9330841012922759</v>
+        <v>0.9330841012922764</v>
       </c>
       <c r="M17">
-        <v>0.9698712882961414</v>
+        <v>0.9698712882961417</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9017852582040775</v>
+        <v>0.9017852582040772</v>
       </c>
       <c r="D18">
         <v>1.005367742238005</v>
       </c>
       <c r="E18">
-        <v>0.9207377004611819</v>
+        <v>0.9207377004611816</v>
       </c>
       <c r="F18">
-        <v>0.9578048325758423</v>
+        <v>0.957804832575842</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1.031093311341047</v>
       </c>
       <c r="J18">
-        <v>0.9331511967003174</v>
+        <v>0.9331511967003173</v>
       </c>
       <c r="K18">
         <v>1.019094460276305</v>
@@ -1056,7 +1056,7 @@
         <v>0.9360808706689605</v>
       </c>
       <c r="M18">
-        <v>0.9723939531748258</v>
+        <v>0.9723939531748255</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9030903899423161</v>
+        <v>0.9030903899423167</v>
       </c>
       <c r="D19">
         <v>1.005829596905738</v>
       </c>
       <c r="E19">
-        <v>0.9218421809927704</v>
+        <v>0.921842180992771</v>
       </c>
       <c r="F19">
-        <v>0.9587408594211182</v>
+        <v>0.9587408594211185</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.031395896224243</v>
       </c>
       <c r="J19">
-        <v>0.934230447727838</v>
+        <v>0.9342304477278384</v>
       </c>
       <c r="K19">
         <v>1.01948444931406</v>
       </c>
       <c r="L19">
-        <v>0.9370890186097492</v>
+        <v>0.9370890186097498</v>
       </c>
       <c r="M19">
-        <v>0.973243318287892</v>
+        <v>0.9732433182878925</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8971824689493113</v>
+        <v>0.8971824689493114</v>
       </c>
       <c r="D20">
         <v>1.003744010687823</v>
       </c>
       <c r="E20">
-        <v>0.9168445600089976</v>
+        <v>0.9168445600089977</v>
       </c>
       <c r="F20">
         <v>0.9545091314460835</v>
@@ -1123,16 +1123,16 @@
         <v>1.030026482504585</v>
       </c>
       <c r="J20">
-        <v>0.9293456046302003</v>
+        <v>0.9293456046302006</v>
       </c>
       <c r="K20">
-        <v>1.017721344113182</v>
+        <v>1.017721344113181</v>
       </c>
       <c r="L20">
         <v>0.9325261964913281</v>
       </c>
       <c r="M20">
-        <v>0.9694020000990861</v>
+        <v>0.9694020000990858</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8765659303441414</v>
+        <v>0.8765659303441418</v>
       </c>
       <c r="D21">
-        <v>0.9965717551055022</v>
+        <v>0.9965717551055027</v>
       </c>
       <c r="E21">
-        <v>0.8994472102963988</v>
+        <v>0.8994472102963991</v>
       </c>
       <c r="F21">
-        <v>0.9398543915822973</v>
+        <v>0.9398543915822978</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025258358876132</v>
       </c>
       <c r="J21">
-        <v>0.9123139321044456</v>
+        <v>0.9123139321044461</v>
       </c>
       <c r="K21">
-        <v>1.011618369020894</v>
+        <v>1.011618369020895</v>
       </c>
       <c r="L21">
-        <v>0.9166216813098024</v>
+        <v>0.9166216813098028</v>
       </c>
       <c r="M21">
-        <v>0.956072448643923</v>
+        <v>0.9560724486439237</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8622787988932755</v>
+        <v>0.8622787988932742</v>
       </c>
       <c r="D22">
-        <v>0.9917026996362043</v>
+        <v>0.9917026996362036</v>
       </c>
       <c r="E22">
-        <v>0.8874328847387256</v>
+        <v>0.8874328847387241</v>
       </c>
       <c r="F22">
-        <v>0.9298079763669902</v>
+        <v>0.9298079763669894</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021970307674384</v>
+        <v>1.021970307674383</v>
       </c>
       <c r="J22">
-        <v>0.9005286172836369</v>
+        <v>0.9005286172836355</v>
       </c>
       <c r="K22">
-        <v>1.007440339345967</v>
+        <v>1.007440339345966</v>
       </c>
       <c r="L22">
-        <v>0.9056209263211948</v>
+        <v>0.9056209263211935</v>
       </c>
       <c r="M22">
-        <v>0.946911145257857</v>
+        <v>0.9469111452578562</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8699972679043289</v>
+        <v>0.8699972679043284</v>
       </c>
       <c r="D23">
-        <v>0.994322537582581</v>
+        <v>0.9943225375825809</v>
       </c>
       <c r="E23">
-        <v>0.8939190153262452</v>
+        <v>0.8939190153262447</v>
       </c>
       <c r="F23">
-        <v>0.9352238842331954</v>
+        <v>0.935223884233195</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023744575524342</v>
+        <v>1.023744575524341</v>
       </c>
       <c r="J23">
-        <v>0.9068934509433141</v>
+        <v>0.9068934509433139</v>
       </c>
       <c r="K23">
         <v>1.00969187030945</v>
       </c>
       <c r="L23">
-        <v>0.9115615359611499</v>
+        <v>0.9115615359611492</v>
       </c>
       <c r="M23">
-        <v>0.9518522249493312</v>
+        <v>0.9518522249493307</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8975092834856192</v>
+        <v>0.8975092834856188</v>
       </c>
       <c r="D24">
         <v>1.003859038153872</v>
       </c>
       <c r="E24">
-        <v>0.9171208822424611</v>
+        <v>0.9171208822424605</v>
       </c>
       <c r="F24">
-        <v>0.9547428594925732</v>
+        <v>0.9547428594925725</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030102213326709</v>
       </c>
       <c r="J24">
-        <v>0.9296157834829076</v>
+        <v>0.9296157834829071</v>
       </c>
       <c r="K24">
-        <v>1.017818721989751</v>
+        <v>1.01781872198975</v>
       </c>
       <c r="L24">
-        <v>0.9327785509557709</v>
+        <v>0.9327785509557703</v>
       </c>
       <c r="M24">
-        <v>0.9696142571942973</v>
+        <v>0.9696142571942967</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9250859004482048</v>
+        <v>0.9250859004482042</v>
       </c>
       <c r="D25">
         <v>1.013705328494499</v>
       </c>
       <c r="E25">
-        <v>0.9404920246926407</v>
+        <v>0.9404920246926403</v>
       </c>
       <c r="F25">
-        <v>0.9746124302408351</v>
+        <v>0.9746124302408352</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036495472950757</v>
+        <v>1.036495472950756</v>
       </c>
       <c r="J25">
-        <v>0.9524270881889554</v>
+        <v>0.9524270881889548</v>
       </c>
       <c r="K25">
         <v>1.026094548184861</v>
       </c>
       <c r="L25">
-        <v>0.9540901636620686</v>
+        <v>0.954090163662068</v>
       </c>
       <c r="M25">
-        <v>0.9876180698634095</v>
+        <v>0.9876180698634094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9446083331502548</v>
+        <v>0.9446083331502563</v>
       </c>
       <c r="D2">
-        <v>1.020831341250487</v>
+        <v>1.020831341250488</v>
       </c>
       <c r="E2">
-        <v>0.9570969188237191</v>
+        <v>0.9570969188237205</v>
       </c>
       <c r="F2">
-        <v>0.9888410426272642</v>
+        <v>0.9888410426272652</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041007121573433</v>
+        <v>1.041007121573434</v>
       </c>
       <c r="J2">
-        <v>0.9685821812794277</v>
+        <v>0.9685821812794293</v>
       </c>
       <c r="K2">
-        <v>1.032007894744712</v>
+        <v>1.032007894744713</v>
       </c>
       <c r="L2">
-        <v>0.969188187630545</v>
+        <v>0.9691881876305464</v>
       </c>
       <c r="M2">
-        <v>1.000458060154998</v>
+        <v>1.000458060154999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,13 +462,13 @@
         <v>0.9576849557955942</v>
       </c>
       <c r="D3">
-        <v>1.02566879322525</v>
+        <v>1.025668793225249</v>
       </c>
       <c r="E3">
-        <v>0.9682434228357628</v>
+        <v>0.9682434228357624</v>
       </c>
       <c r="F3">
-        <v>0.9984385399749562</v>
+        <v>0.9984385399749565</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.044010184235075</v>
       </c>
       <c r="J3">
-        <v>0.9793996296128233</v>
+        <v>0.9793996296128232</v>
       </c>
       <c r="K3">
         <v>1.035983442726013</v>
       </c>
       <c r="L3">
-        <v>0.9792994340816595</v>
+        <v>0.9792994340816591</v>
       </c>
       <c r="M3">
-        <v>1.009091439038536</v>
+        <v>1.009091439038537</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9657191578060333</v>
+        <v>0.965719157806035</v>
       </c>
       <c r="D4">
         <v>1.028664102337592</v>
       </c>
       <c r="E4">
-        <v>0.9751004258760737</v>
+        <v>0.9751004258760756</v>
       </c>
       <c r="F4">
-        <v>1.00435943165921</v>
+        <v>1.004359431659211</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045843757375395</v>
       </c>
       <c r="J4">
-        <v>0.9860423672538227</v>
+        <v>0.9860423672538243</v>
       </c>
       <c r="K4">
-        <v>1.038428460650692</v>
+        <v>1.038428460650693</v>
       </c>
       <c r="L4">
-        <v>0.9855089561218121</v>
+        <v>0.985508956121814</v>
       </c>
       <c r="M4">
-        <v>1.01440552539593</v>
+        <v>1.014405525395931</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9690043564148496</v>
+        <v>0.9690043564148494</v>
       </c>
       <c r="D5">
         <v>1.029893637073127</v>
       </c>
       <c r="E5">
-        <v>0.9779060382035469</v>
+        <v>0.9779060382035468</v>
       </c>
       <c r="F5">
         <v>1.006785490844867</v>
@@ -553,16 +553,16 @@
         <v>1.04659039835682</v>
       </c>
       <c r="J5">
-        <v>0.9887575498233414</v>
+        <v>0.9887575498233413</v>
       </c>
       <c r="K5">
         <v>1.039428276532538</v>
       </c>
       <c r="L5">
-        <v>0.9880471357075054</v>
+        <v>0.9880471357075051</v>
       </c>
       <c r="M5">
-        <v>1.016580141740591</v>
+        <v>1.01658014174059</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9695507974276174</v>
+        <v>0.9695507974276162</v>
       </c>
       <c r="D6">
-        <v>1.030098408274182</v>
+        <v>1.030098408274181</v>
       </c>
       <c r="E6">
-        <v>0.9783728039216337</v>
+        <v>0.9783728039216329</v>
       </c>
       <c r="F6">
         <v>1.00718929992975</v>
@@ -591,16 +591,16 @@
         <v>1.046714397722255</v>
       </c>
       <c r="J6">
-        <v>0.9892091104236693</v>
+        <v>0.9892091104236684</v>
       </c>
       <c r="K6">
-        <v>1.039594568035727</v>
+        <v>1.039594568035726</v>
       </c>
       <c r="L6">
-        <v>0.9884692623249688</v>
+        <v>0.988469262324968</v>
       </c>
       <c r="M6">
-        <v>1.016941935812029</v>
+        <v>1.016941935812028</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9657634058599102</v>
+        <v>0.9657634058599107</v>
       </c>
       <c r="D7">
-        <v>1.02868064497942</v>
+        <v>1.028680644979421</v>
       </c>
       <c r="E7">
-        <v>0.9751382077505378</v>
+        <v>0.9751382077505381</v>
       </c>
       <c r="F7">
-        <v>1.004392089185824</v>
+        <v>1.004392089185825</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045853826616694</v>
       </c>
       <c r="J7">
-        <v>0.9860789422271282</v>
+        <v>0.9860789422271287</v>
       </c>
       <c r="K7">
         <v>1.038441927586651</v>
       </c>
       <c r="L7">
-        <v>0.985543146527817</v>
+        <v>0.9855431465278173</v>
       </c>
       <c r="M7">
-        <v>1.014434809270476</v>
+        <v>1.014434809270477</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9491226029976263</v>
+        <v>0.9491226029976266</v>
       </c>
       <c r="D8">
-        <v>1.022495791981234</v>
+        <v>1.022495791981235</v>
       </c>
       <c r="E8">
-        <v>0.9609428189026049</v>
+        <v>0.9609428189026052</v>
       </c>
       <c r="F8">
-        <v>0.9921485135106641</v>
+        <v>0.9921485135106648</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042046055113702</v>
+        <v>1.042046055113703</v>
       </c>
       <c r="J8">
-        <v>0.9723171352662114</v>
+        <v>0.9723171352662117</v>
       </c>
       <c r="K8">
         <v>1.033379427126333</v>
       </c>
       <c r="L8">
-        <v>0.9726791903421124</v>
+        <v>0.9726791903421128</v>
       </c>
       <c r="M8">
-        <v>1.003435899112825</v>
+        <v>1.003435899112826</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9159724343763298</v>
+        <v>0.9159724343763291</v>
       </c>
       <c r="D9">
-        <v>1.010421517791235</v>
+        <v>1.010421517791234</v>
       </c>
       <c r="E9">
-        <v>0.9327567853477005</v>
+        <v>0.9327567853476998</v>
       </c>
       <c r="F9">
-        <v>0.9680147188557636</v>
+        <v>0.9680147188557628</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.034383189469877</v>
       </c>
       <c r="J9">
-        <v>0.9448861795377126</v>
+        <v>0.9448861795377121</v>
       </c>
       <c r="K9">
-        <v>1.023347746053249</v>
+        <v>1.023347746053248</v>
       </c>
       <c r="L9">
-        <v>0.9470439663235322</v>
+        <v>0.9470439663235315</v>
       </c>
       <c r="M9">
-        <v>0.981648965948404</v>
+        <v>0.9816489659484031</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8902707698527907</v>
+        <v>0.8902707698527934</v>
       </c>
       <c r="D10">
-        <v>1.001320901962288</v>
+        <v>1.001320901962289</v>
       </c>
       <c r="E10">
-        <v>0.9110045399302974</v>
+        <v>0.9110045399303001</v>
       </c>
       <c r="F10">
-        <v>0.9495762482936542</v>
+        <v>0.9495762482936558</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028425715350652</v>
+        <v>1.028425715350653</v>
       </c>
       <c r="J10">
-        <v>0.9236329367353149</v>
+        <v>0.9236329367353174</v>
       </c>
       <c r="K10">
-        <v>1.015666348001843</v>
+        <v>1.015666348001844</v>
       </c>
       <c r="L10">
-        <v>0.9271907974233569</v>
+        <v>0.9271907974233591</v>
       </c>
       <c r="M10">
-        <v>0.9649197806325147</v>
+        <v>0.9649197806325163</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.877943450470387</v>
+        <v>0.877943450470388</v>
       </c>
       <c r="D11">
-        <v>0.9970456935274968</v>
+        <v>0.9970456935274972</v>
       </c>
       <c r="E11">
-        <v>0.9006074727537642</v>
+        <v>0.9006074727537655</v>
       </c>
       <c r="F11">
-        <v>0.9408278982831666</v>
+        <v>0.9408278982831676</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025576211776715</v>
+        <v>1.025576211776716</v>
       </c>
       <c r="J11">
-        <v>0.9134510762459767</v>
+        <v>0.9134510762459779</v>
       </c>
       <c r="K11">
-        <v>1.012023539629132</v>
+        <v>1.012023539629133</v>
       </c>
       <c r="L11">
-        <v>0.9176833368254854</v>
+        <v>0.9176833368254866</v>
       </c>
       <c r="M11">
-        <v>0.9569591888748004</v>
+        <v>0.9569591888748012</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8731416044418444</v>
+        <v>0.8731416044418446</v>
       </c>
       <c r="D12">
-        <v>0.9953969817639454</v>
+        <v>0.9953969817639463</v>
       </c>
       <c r="E12">
-        <v>0.8965643605652756</v>
+        <v>0.896564360565276</v>
       </c>
       <c r="F12">
-        <v>0.9374380340869957</v>
+        <v>0.937438034086996</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024468799737818</v>
+        <v>1.024468799737819</v>
       </c>
       <c r="J12">
-        <v>0.9094877538027812</v>
+        <v>0.9094877538027816</v>
       </c>
       <c r="K12">
         <v>1.01061290287767</v>
       </c>
       <c r="L12">
-        <v>0.9139832732257644</v>
+        <v>0.9139832732257651</v>
       </c>
       <c r="M12">
-        <v>0.9538706896102567</v>
+        <v>0.953870689610257</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8741825714406157</v>
+        <v>0.8741825714406158</v>
       </c>
       <c r="D13">
-        <v>0.9957535922111944</v>
+        <v>0.9957535922111942</v>
       </c>
       <c r="E13">
-        <v>0.8974405100203416</v>
+        <v>0.8974405100203419</v>
       </c>
       <c r="F13">
-        <v>0.9381720336744911</v>
+        <v>0.9381720336744909</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.024708729005163</v>
       </c>
       <c r="J13">
-        <v>0.9103467955659837</v>
+        <v>0.910346795565984</v>
       </c>
       <c r="K13">
         <v>1.01091829233703</v>
       </c>
       <c r="L13">
-        <v>0.9147852167405438</v>
+        <v>0.9147852167405439</v>
       </c>
       <c r="M13">
         <v>0.954539617423248</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8775513818726259</v>
+        <v>0.8775513818726269</v>
       </c>
       <c r="D14">
-        <v>0.9969107227316563</v>
+        <v>0.9969107227316565</v>
       </c>
       <c r="E14">
-        <v>0.900277207138767</v>
+        <v>0.9002772071387679</v>
       </c>
       <c r="F14">
-        <v>0.9405507345201912</v>
+        <v>0.9405507345201919</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.025485731652596</v>
       </c>
       <c r="J14">
-        <v>0.9131274093559694</v>
+        <v>0.9131274093559703</v>
       </c>
       <c r="K14">
-        <v>1.011908180092952</v>
+        <v>1.011908180092953</v>
       </c>
       <c r="L14">
-        <v>0.9173811527503097</v>
+        <v>0.9173811527503107</v>
       </c>
       <c r="M14">
-        <v>0.9567067461898494</v>
+        <v>0.9567067461898501</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,31 +915,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8795959231913248</v>
+        <v>0.879595923191325</v>
       </c>
       <c r="D15">
-        <v>0.9976152493360695</v>
+        <v>0.9976152493360698</v>
       </c>
       <c r="E15">
-        <v>0.9019997455222601</v>
+        <v>0.9019997455222603</v>
       </c>
       <c r="F15">
-        <v>0.9419968163445834</v>
+        <v>0.9419968163445833</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025957674718094</v>
+        <v>1.025957674718095</v>
       </c>
       <c r="J15">
-        <v>0.9148153720920292</v>
+        <v>0.9148153720920295</v>
       </c>
       <c r="K15">
-        <v>1.012510100538389</v>
+        <v>1.01251010053839</v>
       </c>
       <c r="L15">
-        <v>0.9189571112671633</v>
+        <v>0.9189571112671634</v>
       </c>
       <c r="M15">
         <v>0.9580236888434218</v>
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8910603237054472</v>
+        <v>0.8910603237054461</v>
       </c>
       <c r="D16">
         <v>1.001596771832695</v>
       </c>
       <c r="E16">
-        <v>0.9116712962095805</v>
+        <v>0.9116712962095799</v>
       </c>
       <c r="F16">
-        <v>0.9501387616813497</v>
+        <v>0.9501387616813489</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028608486159223</v>
       </c>
       <c r="J16">
-        <v>0.9242853916604604</v>
+        <v>0.9242853916604594</v>
       </c>
       <c r="K16">
         <v>1.015900662629995</v>
       </c>
       <c r="L16">
-        <v>0.9278001251939477</v>
+        <v>0.9278001251939469</v>
       </c>
       <c r="M16">
-        <v>0.9654311416670681</v>
+        <v>0.9654311416670674</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8979049789827532</v>
+        <v>0.8979049789827527</v>
       </c>
       <c r="D17">
         <v>1.003998363494216</v>
       </c>
       <c r="E17">
-        <v>0.9174554650237713</v>
+        <v>0.9174554650237708</v>
       </c>
       <c r="F17">
-        <v>0.9550259065001659</v>
+        <v>0.9550259065001657</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030193909576673</v>
       </c>
       <c r="J17">
-        <v>0.9299429132410671</v>
+        <v>0.9299429132410668</v>
       </c>
       <c r="K17">
         <v>1.017936648241286</v>
       </c>
       <c r="L17">
-        <v>0.9330841012922764</v>
+        <v>0.9330841012922759</v>
       </c>
       <c r="M17">
-        <v>0.9698712882961417</v>
+        <v>0.9698712882961414</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9017852582040772</v>
+        <v>0.9017852582040775</v>
       </c>
       <c r="D18">
         <v>1.005367742238005</v>
       </c>
       <c r="E18">
-        <v>0.9207377004611816</v>
+        <v>0.9207377004611819</v>
       </c>
       <c r="F18">
-        <v>0.957804832575842</v>
+        <v>0.9578048325758423</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1.031093311341047</v>
       </c>
       <c r="J18">
-        <v>0.9331511967003173</v>
+        <v>0.9331511967003174</v>
       </c>
       <c r="K18">
         <v>1.019094460276305</v>
@@ -1056,7 +1056,7 @@
         <v>0.9360808706689605</v>
       </c>
       <c r="M18">
-        <v>0.9723939531748255</v>
+        <v>0.9723939531748258</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9030903899423167</v>
+        <v>0.9030903899423161</v>
       </c>
       <c r="D19">
         <v>1.005829596905738</v>
       </c>
       <c r="E19">
-        <v>0.921842180992771</v>
+        <v>0.9218421809927704</v>
       </c>
       <c r="F19">
-        <v>0.9587408594211185</v>
+        <v>0.9587408594211182</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.031395896224243</v>
       </c>
       <c r="J19">
-        <v>0.9342304477278384</v>
+        <v>0.934230447727838</v>
       </c>
       <c r="K19">
         <v>1.01948444931406</v>
       </c>
       <c r="L19">
-        <v>0.9370890186097498</v>
+        <v>0.9370890186097492</v>
       </c>
       <c r="M19">
-        <v>0.9732433182878925</v>
+        <v>0.973243318287892</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8971824689493114</v>
+        <v>0.8971824689493113</v>
       </c>
       <c r="D20">
         <v>1.003744010687823</v>
       </c>
       <c r="E20">
-        <v>0.9168445600089977</v>
+        <v>0.9168445600089976</v>
       </c>
       <c r="F20">
         <v>0.9545091314460835</v>
@@ -1123,16 +1123,16 @@
         <v>1.030026482504585</v>
       </c>
       <c r="J20">
-        <v>0.9293456046302006</v>
+        <v>0.9293456046302003</v>
       </c>
       <c r="K20">
-        <v>1.017721344113181</v>
+        <v>1.017721344113182</v>
       </c>
       <c r="L20">
         <v>0.9325261964913281</v>
       </c>
       <c r="M20">
-        <v>0.9694020000990858</v>
+        <v>0.9694020000990861</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8765659303441418</v>
+        <v>0.8765659303441414</v>
       </c>
       <c r="D21">
-        <v>0.9965717551055027</v>
+        <v>0.9965717551055022</v>
       </c>
       <c r="E21">
-        <v>0.8994472102963991</v>
+        <v>0.8994472102963988</v>
       </c>
       <c r="F21">
-        <v>0.9398543915822978</v>
+        <v>0.9398543915822973</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025258358876132</v>
       </c>
       <c r="J21">
-        <v>0.9123139321044461</v>
+        <v>0.9123139321044456</v>
       </c>
       <c r="K21">
-        <v>1.011618369020895</v>
+        <v>1.011618369020894</v>
       </c>
       <c r="L21">
-        <v>0.9166216813098028</v>
+        <v>0.9166216813098024</v>
       </c>
       <c r="M21">
-        <v>0.9560724486439237</v>
+        <v>0.956072448643923</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8622787988932742</v>
+        <v>0.8622787988932755</v>
       </c>
       <c r="D22">
-        <v>0.9917026996362036</v>
+        <v>0.9917026996362043</v>
       </c>
       <c r="E22">
-        <v>0.8874328847387241</v>
+        <v>0.8874328847387256</v>
       </c>
       <c r="F22">
-        <v>0.9298079763669894</v>
+        <v>0.9298079763669902</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021970307674383</v>
+        <v>1.021970307674384</v>
       </c>
       <c r="J22">
-        <v>0.9005286172836355</v>
+        <v>0.9005286172836369</v>
       </c>
       <c r="K22">
-        <v>1.007440339345966</v>
+        <v>1.007440339345967</v>
       </c>
       <c r="L22">
-        <v>0.9056209263211935</v>
+        <v>0.9056209263211948</v>
       </c>
       <c r="M22">
-        <v>0.9469111452578562</v>
+        <v>0.946911145257857</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8699972679043284</v>
+        <v>0.8699972679043289</v>
       </c>
       <c r="D23">
-        <v>0.9943225375825809</v>
+        <v>0.994322537582581</v>
       </c>
       <c r="E23">
-        <v>0.8939190153262447</v>
+        <v>0.8939190153262452</v>
       </c>
       <c r="F23">
-        <v>0.935223884233195</v>
+        <v>0.9352238842331954</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023744575524341</v>
+        <v>1.023744575524342</v>
       </c>
       <c r="J23">
-        <v>0.9068934509433139</v>
+        <v>0.9068934509433141</v>
       </c>
       <c r="K23">
         <v>1.00969187030945</v>
       </c>
       <c r="L23">
-        <v>0.9115615359611492</v>
+        <v>0.9115615359611499</v>
       </c>
       <c r="M23">
-        <v>0.9518522249493307</v>
+        <v>0.9518522249493312</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8975092834856188</v>
+        <v>0.8975092834856192</v>
       </c>
       <c r="D24">
         <v>1.003859038153872</v>
       </c>
       <c r="E24">
-        <v>0.9171208822424605</v>
+        <v>0.9171208822424611</v>
       </c>
       <c r="F24">
-        <v>0.9547428594925725</v>
+        <v>0.9547428594925732</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030102213326709</v>
       </c>
       <c r="J24">
-        <v>0.9296157834829071</v>
+        <v>0.9296157834829076</v>
       </c>
       <c r="K24">
-        <v>1.01781872198975</v>
+        <v>1.017818721989751</v>
       </c>
       <c r="L24">
-        <v>0.9327785509557703</v>
+        <v>0.9327785509557709</v>
       </c>
       <c r="M24">
-        <v>0.9696142571942967</v>
+        <v>0.9696142571942973</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9250859004482042</v>
+        <v>0.9250859004482048</v>
       </c>
       <c r="D25">
         <v>1.013705328494499</v>
       </c>
       <c r="E25">
-        <v>0.9404920246926403</v>
+        <v>0.9404920246926407</v>
       </c>
       <c r="F25">
-        <v>0.9746124302408352</v>
+        <v>0.9746124302408351</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036495472950756</v>
+        <v>1.036495472950757</v>
       </c>
       <c r="J25">
-        <v>0.9524270881889548</v>
+        <v>0.9524270881889554</v>
       </c>
       <c r="K25">
         <v>1.026094548184861</v>
       </c>
       <c r="L25">
-        <v>0.954090163662068</v>
+        <v>0.9540901636620686</v>
       </c>
       <c r="M25">
-        <v>0.9876180698634094</v>
+        <v>0.9876180698634095</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9446083331502563</v>
+        <v>0.9485982155118656</v>
       </c>
       <c r="D2">
-        <v>1.020831341250488</v>
+        <v>1.021751971572825</v>
       </c>
       <c r="E2">
-        <v>0.9570969188237205</v>
+        <v>0.9605289415178735</v>
       </c>
       <c r="F2">
-        <v>0.9888410426272652</v>
+        <v>0.991123089527659</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041007121573434</v>
+        <v>1.0418080458295</v>
       </c>
       <c r="J2">
-        <v>0.9685821812794293</v>
+        <v>0.9724331121719577</v>
       </c>
       <c r="K2">
-        <v>1.032007894744713</v>
+        <v>1.032916361446777</v>
       </c>
       <c r="L2">
-        <v>0.9691881876305464</v>
+        <v>0.9725670071439376</v>
       </c>
       <c r="M2">
-        <v>1.000458060154999</v>
+        <v>1.002707494985098</v>
+      </c>
+      <c r="N2">
+        <v>0.9738140787308789</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9576849557955942</v>
+        <v>0.9616182418366332</v>
       </c>
       <c r="D3">
-        <v>1.025668793225249</v>
+        <v>1.026575114332208</v>
       </c>
       <c r="E3">
-        <v>0.9682434228357624</v>
+        <v>0.9716321147861123</v>
       </c>
       <c r="F3">
-        <v>0.9984385399749565</v>
+        <v>1.000685745141606</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044010184235075</v>
+        <v>1.044800616741494</v>
       </c>
       <c r="J3">
-        <v>0.9793996296128232</v>
+        <v>0.9832128796083656</v>
       </c>
       <c r="K3">
-        <v>1.035983442726013</v>
+        <v>1.03687888859427</v>
       </c>
       <c r="L3">
-        <v>0.9792994340816591</v>
+        <v>0.9826413137820107</v>
       </c>
       <c r="M3">
-        <v>1.009091439038537</v>
+        <v>1.011309859243775</v>
+      </c>
+      <c r="N3">
+        <v>0.984609154673503</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.965719157806035</v>
+        <v>0.9696214855200415</v>
       </c>
       <c r="D4">
-        <v>1.028664102337592</v>
+        <v>1.029562541789101</v>
       </c>
       <c r="E4">
-        <v>0.9751004258760756</v>
+        <v>0.9784655344270116</v>
       </c>
       <c r="F4">
-        <v>1.004359431659211</v>
+        <v>1.006587438748977</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045843757375395</v>
+        <v>1.046628517137525</v>
       </c>
       <c r="J4">
-        <v>0.9860423672538243</v>
+        <v>0.9898355461264082</v>
       </c>
       <c r="K4">
-        <v>1.038428460650693</v>
+        <v>1.039316799623287</v>
       </c>
       <c r="L4">
-        <v>0.985508956121814</v>
+        <v>0.9888310028776564</v>
       </c>
       <c r="M4">
-        <v>1.014405525395931</v>
+        <v>1.016607004073972</v>
+      </c>
+      <c r="N4">
+        <v>0.9912412261376319</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9690043564148494</v>
+        <v>0.9728948154113543</v>
       </c>
       <c r="D5">
-        <v>1.029893637073127</v>
+        <v>1.030789044850589</v>
       </c>
       <c r="E5">
-        <v>0.9779060382035468</v>
+        <v>0.9812621352902858</v>
       </c>
       <c r="F5">
-        <v>1.006785490844867</v>
+        <v>1.009006108941684</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04659039835682</v>
+        <v>1.047373001425425</v>
       </c>
       <c r="J5">
-        <v>0.9887575498233413</v>
+        <v>0.9925431624526688</v>
       </c>
       <c r="K5">
-        <v>1.039428276532538</v>
+        <v>1.040313897356852</v>
       </c>
       <c r="L5">
-        <v>0.9880471357075051</v>
+        <v>0.9913616691284417</v>
       </c>
       <c r="M5">
-        <v>1.01658014174059</v>
+        <v>1.018775135027471</v>
+      </c>
+      <c r="N5">
+        <v>0.9939526875896436</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9695507974276162</v>
+        <v>0.9734393256148149</v>
       </c>
       <c r="D6">
-        <v>1.030098408274181</v>
+        <v>1.030993322348077</v>
       </c>
       <c r="E6">
-        <v>0.9783728039216329</v>
+        <v>0.9817274368314219</v>
       </c>
       <c r="F6">
-        <v>1.00718929992975</v>
+        <v>1.009408714393633</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046714397722255</v>
+        <v>1.047496651077463</v>
       </c>
       <c r="J6">
-        <v>0.9892091104236684</v>
+        <v>0.9929934997788202</v>
       </c>
       <c r="K6">
-        <v>1.039594568035726</v>
+        <v>1.040479747132875</v>
       </c>
       <c r="L6">
-        <v>0.988469262324968</v>
+        <v>0.9917825788452624</v>
       </c>
       <c r="M6">
-        <v>1.016941935812028</v>
+        <v>1.019135874733642</v>
+      </c>
+      <c r="N6">
+        <v>0.9944036644464526</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9657634058599107</v>
+        <v>0.9696655707213481</v>
       </c>
       <c r="D7">
-        <v>1.028680644979421</v>
+        <v>1.029579042869751</v>
       </c>
       <c r="E7">
-        <v>0.9751382077505381</v>
+        <v>0.9785031925300097</v>
       </c>
       <c r="F7">
-        <v>1.004392089185825</v>
+        <v>1.006619995001957</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045853826616694</v>
+        <v>1.046638556709652</v>
       </c>
       <c r="J7">
-        <v>0.9860789422271287</v>
+        <v>0.9898720167587634</v>
       </c>
       <c r="K7">
-        <v>1.038441927586651</v>
+        <v>1.039330229233045</v>
       </c>
       <c r="L7">
-        <v>0.9855431465278173</v>
+        <v>0.9888650898231987</v>
       </c>
       <c r="M7">
-        <v>1.014434809270477</v>
+        <v>1.016636198917051</v>
+      </c>
+      <c r="N7">
+        <v>0.991277748562468</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9491226029976266</v>
+        <v>0.9530920427045282</v>
       </c>
       <c r="D8">
-        <v>1.022495791981235</v>
+        <v>1.023411268577898</v>
       </c>
       <c r="E8">
-        <v>0.9609428189026052</v>
+        <v>0.964359163984944</v>
       </c>
       <c r="F8">
-        <v>0.9921485135106648</v>
+        <v>0.9944180111947437</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042046055113703</v>
+        <v>1.042843175901987</v>
       </c>
       <c r="J8">
-        <v>0.9723171352662117</v>
+        <v>0.97615432959829</v>
       </c>
       <c r="K8">
-        <v>1.033379427126333</v>
+        <v>1.03428318900954</v>
       </c>
       <c r="L8">
-        <v>0.9726791903421128</v>
+        <v>0.9760445809939542</v>
       </c>
       <c r="M8">
-        <v>1.003435899112826</v>
+        <v>1.005674128759983</v>
+      </c>
+      <c r="N8">
+        <v>0.9775405807127859</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9159724343763291</v>
+        <v>0.9201169001304277</v>
       </c>
       <c r="D9">
-        <v>1.010421517791234</v>
+        <v>1.011380620354611</v>
       </c>
       <c r="E9">
-        <v>0.9327567853476998</v>
+        <v>0.9363079515849871</v>
       </c>
       <c r="F9">
-        <v>0.9680147188557628</v>
+        <v>0.970390563895432</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034383189469877</v>
+        <v>1.035213127184597</v>
       </c>
       <c r="J9">
-        <v>0.9448861795377121</v>
+        <v>0.9488441799839967</v>
       </c>
       <c r="K9">
-        <v>1.023347746053248</v>
+        <v>1.024291714510447</v>
       </c>
       <c r="L9">
-        <v>0.9470439663235315</v>
+        <v>0.950526452631093</v>
       </c>
       <c r="M9">
-        <v>0.9816489659484031</v>
+        <v>0.9839830240764302</v>
+      </c>
+      <c r="N9">
+        <v>0.9501916475535227</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8902707698527934</v>
+        <v>0.8945979495977782</v>
       </c>
       <c r="D10">
-        <v>1.001320901962289</v>
+        <v>1.002324527075163</v>
       </c>
       <c r="E10">
-        <v>0.9110045399303001</v>
+        <v>0.9146971848387527</v>
       </c>
       <c r="F10">
-        <v>0.9495762482936558</v>
+        <v>0.9520610131382437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028425715350653</v>
+        <v>1.029290106146075</v>
       </c>
       <c r="J10">
-        <v>0.9236329367353174</v>
+        <v>0.9277219720226769</v>
       </c>
       <c r="K10">
-        <v>1.015666348001844</v>
+        <v>1.016651937921888</v>
       </c>
       <c r="L10">
-        <v>0.9271907974233591</v>
+        <v>0.9307986551573288</v>
       </c>
       <c r="M10">
-        <v>0.9649197806325163</v>
+        <v>0.9673533452000245</v>
+      </c>
+      <c r="N10">
+        <v>0.9290394436341465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.877943450470388</v>
+        <v>0.8823767145256398</v>
       </c>
       <c r="D11">
-        <v>0.9970456935274972</v>
+        <v>0.9980747945413255</v>
       </c>
       <c r="E11">
-        <v>0.9006074727537655</v>
+        <v>0.9043823836957946</v>
       </c>
       <c r="F11">
-        <v>0.9408278982831676</v>
+        <v>0.9433751643292456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025576211776716</v>
+        <v>1.026460585093638</v>
       </c>
       <c r="J11">
-        <v>0.9134510762459779</v>
+        <v>0.9176175269894039</v>
       </c>
       <c r="K11">
-        <v>1.012023539629133</v>
+        <v>1.013033108973189</v>
       </c>
       <c r="L11">
-        <v>0.9176833368254866</v>
+        <v>0.921364781165092</v>
       </c>
       <c r="M11">
-        <v>0.9569591888748012</v>
+        <v>0.9594502365028723</v>
+      </c>
+      <c r="N11">
+        <v>0.9189206491299301</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8731416044418446</v>
+        <v>0.8776199766331517</v>
       </c>
       <c r="D12">
-        <v>0.9953969817639463</v>
+        <v>0.9964368450901127</v>
       </c>
       <c r="E12">
-        <v>0.896564360565276</v>
+        <v>0.900374263236045</v>
       </c>
       <c r="F12">
-        <v>0.937438034086996</v>
+        <v>0.9400117387424292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024468799737819</v>
+        <v>1.025361659259038</v>
       </c>
       <c r="J12">
-        <v>0.9094877538027816</v>
+        <v>0.9136873391860753</v>
       </c>
       <c r="K12">
-        <v>1.01061290287767</v>
+        <v>1.011632629392304</v>
       </c>
       <c r="L12">
-        <v>0.9139832732257651</v>
+        <v>0.9176961306121141</v>
       </c>
       <c r="M12">
-        <v>0.953870689610257</v>
+        <v>0.9563861173361875</v>
+      </c>
+      <c r="N12">
+        <v>0.914984880009122</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8741825714406158</v>
+        <v>0.8786509731322685</v>
       </c>
       <c r="D13">
-        <v>0.9957535922111942</v>
+        <v>0.9967910800585392</v>
       </c>
       <c r="E13">
-        <v>0.8974405100203419</v>
+        <v>0.9012426779165251</v>
       </c>
       <c r="F13">
-        <v>0.9381720336744909</v>
+        <v>0.9407399010545905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024708729005163</v>
+        <v>1.025599713378102</v>
       </c>
       <c r="J13">
-        <v>0.910346795565984</v>
+        <v>0.9145390471229342</v>
       </c>
       <c r="K13">
-        <v>1.01091829233703</v>
+        <v>1.011935775695422</v>
       </c>
       <c r="L13">
-        <v>0.9147852167405439</v>
+        <v>0.9184911252062605</v>
       </c>
       <c r="M13">
-        <v>0.954539617423248</v>
+        <v>0.9570496593918401</v>
+      </c>
+      <c r="N13">
+        <v>0.9158377974689436</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8775513818726269</v>
+        <v>0.8819882454368332</v>
       </c>
       <c r="D14">
-        <v>0.9969107227316565</v>
+        <v>0.9979406840096935</v>
       </c>
       <c r="E14">
-        <v>0.9002772071387679</v>
+        <v>0.9040549101552501</v>
       </c>
       <c r="F14">
-        <v>0.9405507345201919</v>
+        <v>0.9431001131516727</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025485731652596</v>
+        <v>1.026370782399147</v>
       </c>
       <c r="J14">
-        <v>0.9131274093559703</v>
+        <v>0.9172964998288938</v>
       </c>
       <c r="K14">
-        <v>1.011908180092953</v>
+        <v>1.012918560786095</v>
       </c>
       <c r="L14">
-        <v>0.9173811527503107</v>
+        <v>0.9210651013432217</v>
       </c>
       <c r="M14">
-        <v>0.9567067461898501</v>
+        <v>0.9591997406201047</v>
+      </c>
+      <c r="N14">
+        <v>0.9185991660740301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.879595923191325</v>
+        <v>0.884014175341745</v>
       </c>
       <c r="D15">
-        <v>0.9976152493360698</v>
+        <v>0.9986407597726449</v>
       </c>
       <c r="E15">
-        <v>0.9019997455222603</v>
+        <v>0.905763012391517</v>
       </c>
       <c r="F15">
-        <v>0.9419968163445833</v>
+        <v>0.9445352662714555</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025957674718095</v>
+        <v>1.02683922233055</v>
       </c>
       <c r="J15">
-        <v>0.9148153720920295</v>
+        <v>0.9189708222192715</v>
       </c>
       <c r="K15">
-        <v>1.01251010053839</v>
+        <v>1.0135162845325</v>
       </c>
       <c r="L15">
-        <v>0.9189571112671634</v>
+        <v>0.922628116303155</v>
       </c>
       <c r="M15">
-        <v>0.9580236888434218</v>
+        <v>0.9605066147214414</v>
+      </c>
+      <c r="N15">
+        <v>0.9202758661942496</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8910603237054461</v>
+        <v>0.8953811536528766</v>
       </c>
       <c r="D16">
-        <v>1.001596771832695</v>
+        <v>1.002598864115801</v>
       </c>
       <c r="E16">
-        <v>0.9116712962095799</v>
+        <v>0.9153590187898717</v>
       </c>
       <c r="F16">
-        <v>0.9501387616813489</v>
+        <v>0.9526197698801618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028608486159223</v>
+        <v>1.029471679961441</v>
       </c>
       <c r="J16">
-        <v>0.9242853916604594</v>
+        <v>0.9283698190974816</v>
       </c>
       <c r="K16">
-        <v>1.015900662629995</v>
+        <v>1.016884812989233</v>
       </c>
       <c r="L16">
-        <v>0.9278001251939469</v>
+        <v>0.9314035933581386</v>
       </c>
       <c r="M16">
-        <v>0.9654311416670674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9678612588192103</v>
+      </c>
+      <c r="N16">
+        <v>0.9296882107261067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8979049789827527</v>
+        <v>0.9021728453473534</v>
       </c>
       <c r="D17">
-        <v>1.003998363494216</v>
+        <v>1.004987632530338</v>
       </c>
       <c r="E17">
-        <v>0.9174554650237708</v>
+        <v>0.9211021420954913</v>
       </c>
       <c r="F17">
-        <v>0.9550259065001657</v>
+        <v>0.9574755059225352</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030193909576673</v>
+        <v>1.031047116561783</v>
       </c>
       <c r="J17">
-        <v>0.9299429132410668</v>
+        <v>0.933989039239902</v>
       </c>
       <c r="K17">
-        <v>1.017936648241286</v>
+        <v>1.018908772007428</v>
       </c>
       <c r="L17">
-        <v>0.9330841012922759</v>
+        <v>0.9366510345868417</v>
       </c>
       <c r="M17">
-        <v>0.9698712882961414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9722726205223848</v>
+      </c>
+      <c r="N17">
+        <v>0.9353154108056628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9017852582040775</v>
+        <v>0.906024690803958</v>
       </c>
       <c r="D18">
-        <v>1.005367742238005</v>
+        <v>1.006350097810577</v>
       </c>
       <c r="E18">
-        <v>0.9207377004611819</v>
+        <v>0.9243623524002936</v>
       </c>
       <c r="F18">
-        <v>0.9578048325758423</v>
+        <v>0.9602375123155144</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031093311341047</v>
+        <v>1.031941155597842</v>
       </c>
       <c r="J18">
-        <v>0.9331511967003174</v>
+        <v>0.9371768668857414</v>
       </c>
       <c r="K18">
-        <v>1.019094460276305</v>
+        <v>1.0200601132009</v>
       </c>
       <c r="L18">
-        <v>0.9360808706689605</v>
+        <v>0.9396282538059155</v>
       </c>
       <c r="M18">
-        <v>0.9723939531748258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9747798098212073</v>
+      </c>
+      <c r="N18">
+        <v>0.9385077655324083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9030903899423161</v>
+        <v>0.907320506829017</v>
       </c>
       <c r="D19">
-        <v>1.005829596905738</v>
+        <v>1.006809682774064</v>
       </c>
       <c r="E19">
-        <v>0.9218421809927704</v>
+        <v>0.925459618771215</v>
       </c>
       <c r="F19">
-        <v>0.9587408594211182</v>
+        <v>0.9611679865591826</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031395896224243</v>
+        <v>1.032241983447873</v>
       </c>
       <c r="J19">
-        <v>0.934230447727838</v>
+        <v>0.9382494337348117</v>
       </c>
       <c r="K19">
-        <v>1.01948444931406</v>
+        <v>1.020447980021556</v>
       </c>
       <c r="L19">
-        <v>0.9370890186097492</v>
+        <v>0.9406300072962636</v>
       </c>
       <c r="M19">
-        <v>0.973243318287892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9756241013143172</v>
+      </c>
+      <c r="N19">
+        <v>0.9395818555494295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8971824689493113</v>
+        <v>0.9014557541068158</v>
       </c>
       <c r="D20">
-        <v>1.003744010687823</v>
+        <v>1.004734594889572</v>
       </c>
       <c r="E20">
-        <v>0.9168445600089976</v>
+        <v>0.9204954354473197</v>
       </c>
       <c r="F20">
-        <v>0.9545091314460835</v>
+        <v>0.9569619506568046</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030026482504585</v>
+        <v>1.030880711432709</v>
       </c>
       <c r="J20">
-        <v>0.9293456046302003</v>
+        <v>0.9333956378596161</v>
       </c>
       <c r="K20">
-        <v>1.017721344113182</v>
+        <v>1.018694699928187</v>
       </c>
       <c r="L20">
-        <v>0.9325261964913281</v>
+        <v>0.9360968609030402</v>
       </c>
       <c r="M20">
-        <v>0.9694020000990861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9718062798343678</v>
+      </c>
+      <c r="N20">
+        <v>0.9347211667273529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8765659303441414</v>
+        <v>0.881011905864174</v>
       </c>
       <c r="D21">
-        <v>0.9965717551055022</v>
+        <v>0.9976038929450327</v>
       </c>
       <c r="E21">
-        <v>0.8994472102963988</v>
+        <v>0.9032319814420453</v>
       </c>
       <c r="F21">
-        <v>0.9398543915822973</v>
+        <v>0.9424091158587924</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025258358876132</v>
+        <v>1.026145124305464</v>
       </c>
       <c r="J21">
-        <v>0.9123139321044456</v>
+        <v>0.9164897083456446</v>
       </c>
       <c r="K21">
-        <v>1.011618369020894</v>
+        <v>1.012630802946878</v>
       </c>
       <c r="L21">
-        <v>0.9166216813098024</v>
+        <v>0.9203119712153902</v>
       </c>
       <c r="M21">
-        <v>0.956072448643923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9585703702527427</v>
+      </c>
+      <c r="N21">
+        <v>0.9177912288543342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8622787988932755</v>
+        <v>0.8668679686756233</v>
       </c>
       <c r="D22">
-        <v>0.9917026996362043</v>
+        <v>0.992768840459655</v>
       </c>
       <c r="E22">
-        <v>0.8874328847387256</v>
+        <v>0.891328747209048</v>
       </c>
       <c r="F22">
-        <v>0.9298079763669902</v>
+        <v>0.9324463131143821</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021970307674384</v>
+        <v>1.02288398036348</v>
       </c>
       <c r="J22">
-        <v>0.9005286172836369</v>
+        <v>0.9048100363735044</v>
       </c>
       <c r="K22">
-        <v>1.007440339345967</v>
+        <v>1.008484922110326</v>
       </c>
       <c r="L22">
-        <v>0.9056209263211948</v>
+        <v>0.9094111880423014</v>
       </c>
       <c r="M22">
-        <v>0.946911145257857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9494863078478086</v>
+      </c>
+      <c r="N22">
+        <v>0.9060949704083168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8699972679043289</v>
+        <v>0.8745064223668755</v>
       </c>
       <c r="D23">
-        <v>0.994322537582581</v>
+        <v>0.995369723140626</v>
       </c>
       <c r="E23">
-        <v>0.8939190153262452</v>
+        <v>0.8977527987800138</v>
       </c>
       <c r="F23">
-        <v>0.9352238842331954</v>
+        <v>0.9378155877058433</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023744575524342</v>
+        <v>1.024643222015556</v>
       </c>
       <c r="J23">
-        <v>0.9068934509433141</v>
+        <v>0.9111157117078713</v>
       </c>
       <c r="K23">
-        <v>1.00969187030945</v>
+        <v>1.01071851539812</v>
       </c>
       <c r="L23">
-        <v>0.9115615359611499</v>
+        <v>0.9152958654588234</v>
       </c>
       <c r="M23">
-        <v>0.9518522249493312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9543842693642836</v>
+      </c>
+      <c r="N23">
+        <v>0.912409600524929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8975092834856192</v>
+        <v>0.9017801126373319</v>
       </c>
       <c r="D24">
-        <v>1.003859038153872</v>
+        <v>1.004849026364528</v>
       </c>
       <c r="E24">
-        <v>0.9171208822424611</v>
+        <v>0.9207698547856891</v>
       </c>
       <c r="F24">
-        <v>0.9547428594925732</v>
+        <v>0.9571942195541305</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030102213326709</v>
+        <v>1.030955979074434</v>
       </c>
       <c r="J24">
-        <v>0.9296157834829076</v>
+        <v>0.9336640454651626</v>
       </c>
       <c r="K24">
-        <v>1.017818721989751</v>
+        <v>1.018791519437797</v>
       </c>
       <c r="L24">
-        <v>0.9327785509557709</v>
+        <v>0.9363475240776585</v>
       </c>
       <c r="M24">
-        <v>0.9696142571942973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9720172010749132</v>
+      </c>
+      <c r="N24">
+        <v>0.934989955502486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9250859004482048</v>
+        <v>0.9291761715638035</v>
       </c>
       <c r="D25">
-        <v>1.013705328494499</v>
+        <v>1.014651037961819</v>
       </c>
       <c r="E25">
-        <v>0.9404920246926407</v>
+        <v>0.9440013319104829</v>
       </c>
       <c r="F25">
-        <v>0.9746124302408351</v>
+        <v>0.9769555914173275</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036495472950757</v>
+        <v>1.037315207284505</v>
       </c>
       <c r="J25">
-        <v>0.9524270881889554</v>
+        <v>0.9563470259203039</v>
       </c>
       <c r="K25">
-        <v>1.026094548184861</v>
+        <v>1.027026094459539</v>
       </c>
       <c r="L25">
-        <v>0.9540901636620686</v>
+        <v>0.9575359636552624</v>
       </c>
       <c r="M25">
-        <v>0.9876180698634095</v>
+        <v>0.9899224960958601</v>
+      </c>
+      <c r="N25">
+        <v>0.9577051483916476</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9485982155118656</v>
+        <v>0.9518655144953545</v>
       </c>
       <c r="D2">
-        <v>1.021751971572825</v>
+        <v>1.027765713674502</v>
       </c>
       <c r="E2">
-        <v>0.9605289415178735</v>
+        <v>0.9641226587313535</v>
       </c>
       <c r="F2">
-        <v>0.991123089527659</v>
+        <v>0.9704736943382964</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0418080458295</v>
+        <v>1.040670938615463</v>
       </c>
       <c r="J2">
-        <v>0.9724331121719577</v>
+        <v>0.9755878343064889</v>
       </c>
       <c r="K2">
-        <v>1.032916361446777</v>
+        <v>1.038851319647007</v>
       </c>
       <c r="L2">
-        <v>0.9725670071439376</v>
+        <v>0.9761055324073161</v>
       </c>
       <c r="M2">
-        <v>1.002707494985098</v>
+        <v>0.982360301936974</v>
       </c>
       <c r="N2">
-        <v>0.9738140787308789</v>
+        <v>0.9769732809326931</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9616182418366332</v>
+        <v>0.9617432585229263</v>
       </c>
       <c r="D3">
-        <v>1.026575114332208</v>
+        <v>1.030855076345776</v>
       </c>
       <c r="E3">
-        <v>0.9716321147861123</v>
+        <v>0.9724081019449987</v>
       </c>
       <c r="F3">
-        <v>1.000685745141606</v>
+        <v>0.9799410636422086</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044800616741494</v>
+        <v>1.042324000162013</v>
       </c>
       <c r="J3">
-        <v>0.9832128796083656</v>
+        <v>0.9833341032090112</v>
       </c>
       <c r="K3">
-        <v>1.03687888859427</v>
+        <v>1.041107814158931</v>
       </c>
       <c r="L3">
-        <v>0.9826413137820107</v>
+        <v>0.9834066390987777</v>
       </c>
       <c r="M3">
-        <v>1.011309859243775</v>
+        <v>0.9908372033600975</v>
       </c>
       <c r="N3">
-        <v>0.984609154673503</v>
+        <v>0.984730550425566</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9696214855200415</v>
+        <v>0.9678802554570664</v>
       </c>
       <c r="D4">
-        <v>1.029562541789101</v>
+        <v>1.032793183007501</v>
       </c>
       <c r="E4">
-        <v>0.9784655344270116</v>
+        <v>0.9775639830561819</v>
       </c>
       <c r="F4">
-        <v>1.006587438748977</v>
+        <v>0.9858313601129181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046628517137525</v>
+        <v>1.043341101838874</v>
       </c>
       <c r="J4">
-        <v>0.9898355461264082</v>
+        <v>0.9881428701136606</v>
       </c>
       <c r="K4">
-        <v>1.039316799623287</v>
+        <v>1.042511299853685</v>
       </c>
       <c r="L4">
-        <v>0.9888310028776564</v>
+        <v>0.9879409519302482</v>
       </c>
       <c r="M4">
-        <v>1.016607004073972</v>
+        <v>0.9961038505730626</v>
       </c>
       <c r="N4">
-        <v>0.9912412261376319</v>
+        <v>0.9895461463307936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9728948154113543</v>
+        <v>0.9704039367614334</v>
       </c>
       <c r="D5">
-        <v>1.030789044850589</v>
+        <v>1.033594171995927</v>
       </c>
       <c r="E5">
-        <v>0.9812621352902858</v>
+        <v>0.9796859799566066</v>
       </c>
       <c r="F5">
-        <v>1.009006108941684</v>
+        <v>0.988255351883767</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047373001425425</v>
+        <v>1.04375679041194</v>
       </c>
       <c r="J5">
-        <v>0.9925431624526688</v>
+        <v>0.9901192803220671</v>
       </c>
       <c r="K5">
-        <v>1.040313897356852</v>
+        <v>1.043088498674965</v>
       </c>
       <c r="L5">
-        <v>0.9913616691284417</v>
+        <v>0.9898049895715724</v>
       </c>
       <c r="M5">
-        <v>1.018775135027471</v>
+        <v>0.998269404827223</v>
       </c>
       <c r="N5">
-        <v>0.9939526875896436</v>
+        <v>0.9915253632683935</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9734393256148149</v>
+        <v>0.9708244961465591</v>
       </c>
       <c r="D6">
-        <v>1.030993322348077</v>
+        <v>1.033727874287755</v>
       </c>
       <c r="E6">
-        <v>0.9817274368314219</v>
+        <v>0.9800396998879443</v>
       </c>
       <c r="F6">
-        <v>1.009408714393633</v>
+        <v>0.9886593959832631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047496651077463</v>
+        <v>1.043825906711105</v>
       </c>
       <c r="J6">
-        <v>0.9929934997788202</v>
+        <v>0.9904485732698725</v>
       </c>
       <c r="K6">
-        <v>1.040479747132875</v>
+        <v>1.043184680371775</v>
       </c>
       <c r="L6">
-        <v>0.9917825788452624</v>
+        <v>0.9901155844437735</v>
       </c>
       <c r="M6">
-        <v>1.019135874733642</v>
+        <v>0.9986302653648801</v>
       </c>
       <c r="N6">
-        <v>0.9944036644464526</v>
+        <v>0.9918551238499549</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9696655707213481</v>
+        <v>0.9679141925710291</v>
       </c>
       <c r="D7">
-        <v>1.029579042869751</v>
+        <v>1.032803939067046</v>
       </c>
       <c r="E7">
-        <v>0.9785031925300097</v>
+        <v>0.97759251173005</v>
       </c>
       <c r="F7">
-        <v>1.006619995001957</v>
+        <v>0.9858639499542829</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046638556709652</v>
+        <v>1.043346702215171</v>
       </c>
       <c r="J7">
-        <v>0.9898720167587634</v>
+        <v>0.9881694522189695</v>
       </c>
       <c r="K7">
-        <v>1.039330229233045</v>
+        <v>1.042519061910806</v>
       </c>
       <c r="L7">
-        <v>0.9888650898231987</v>
+        <v>0.9879660209923283</v>
       </c>
       <c r="M7">
-        <v>1.016636198917051</v>
+        <v>0.9961329729207464</v>
       </c>
       <c r="N7">
-        <v>0.991277748562468</v>
+        <v>0.9895727661857407</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9530920427045282</v>
+        <v>0.9552594271954538</v>
       </c>
       <c r="D8">
-        <v>1.023411268577898</v>
+        <v>1.028822898061206</v>
       </c>
       <c r="E8">
-        <v>0.964359163984944</v>
+        <v>0.9669676093749815</v>
       </c>
       <c r="F8">
-        <v>0.9944180111947437</v>
+        <v>0.9737247023141796</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042843175901987</v>
+        <v>1.04124091099902</v>
       </c>
       <c r="J8">
-        <v>0.97615432959829</v>
+        <v>0.9782501500942372</v>
       </c>
       <c r="K8">
-        <v>1.03428318900954</v>
+        <v>1.039626101102322</v>
       </c>
       <c r="L8">
-        <v>0.9760445809939542</v>
+        <v>0.9786144296064149</v>
       </c>
       <c r="M8">
-        <v>1.005674128759983</v>
+        <v>0.9852727580295695</v>
       </c>
       <c r="N8">
-        <v>0.9775405807127859</v>
+        <v>0.9796393775142319</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9201169001304277</v>
+        <v>0.9307666692072122</v>
       </c>
       <c r="D9">
-        <v>1.011380620354611</v>
+        <v>1.021300071206331</v>
       </c>
       <c r="E9">
-        <v>0.9363079515849871</v>
+        <v>0.9464820529362671</v>
       </c>
       <c r="F9">
-        <v>0.970390563895432</v>
+        <v>0.9503109735513521</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035213127184597</v>
+        <v>1.037092425590642</v>
       </c>
       <c r="J9">
-        <v>0.9488441799839967</v>
+        <v>0.9590256581782337</v>
       </c>
       <c r="K9">
-        <v>1.024291714510447</v>
+        <v>1.034056770002871</v>
       </c>
       <c r="L9">
-        <v>0.950526452631093</v>
+        <v>0.9605075102932578</v>
       </c>
       <c r="M9">
-        <v>0.9839830240764302</v>
+        <v>0.9642651765383664</v>
       </c>
       <c r="N9">
-        <v>0.9501916475535227</v>
+        <v>0.960387584614627</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8945979495977782</v>
+        <v>0.9125498697282364</v>
       </c>
       <c r="D10">
-        <v>1.002324527075163</v>
+        <v>1.015874794750595</v>
       </c>
       <c r="E10">
-        <v>0.9146971848387527</v>
+        <v>0.9313179168413677</v>
       </c>
       <c r="F10">
-        <v>0.9520610131382437</v>
+        <v>0.9329744138082741</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029290106146075</v>
+        <v>1.033972815444531</v>
       </c>
       <c r="J10">
-        <v>0.9277219720226769</v>
+        <v>0.9447208022230259</v>
       </c>
       <c r="K10">
-        <v>1.016651937921888</v>
+        <v>1.02996322075254</v>
       </c>
       <c r="L10">
-        <v>0.9307986551573288</v>
+        <v>0.9470488072076175</v>
       </c>
       <c r="M10">
-        <v>0.9673533452000245</v>
+        <v>0.948669330714925</v>
       </c>
       <c r="N10">
-        <v>0.9290394436341465</v>
+        <v>0.9460624141231732</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8823767145256398</v>
+        <v>0.9040929619255196</v>
       </c>
       <c r="D11">
-        <v>0.9980747945413255</v>
+        <v>1.013408664751584</v>
       </c>
       <c r="E11">
-        <v>0.9043823836957946</v>
+        <v>0.9243006059234146</v>
       </c>
       <c r="F11">
-        <v>0.9433751643292456</v>
+        <v>0.9249509157064294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026460585093638</v>
+        <v>1.032520802373179</v>
       </c>
       <c r="J11">
-        <v>0.9176175269894039</v>
+        <v>0.9380817708199189</v>
       </c>
       <c r="K11">
-        <v>1.013033108973189</v>
+        <v>1.02808206723843</v>
       </c>
       <c r="L11">
-        <v>0.921364781165092</v>
+        <v>0.9408067301092951</v>
       </c>
       <c r="M11">
-        <v>0.9594502365028723</v>
+        <v>0.9414419524019382</v>
       </c>
       <c r="N11">
-        <v>0.9189206491299301</v>
+        <v>0.9394139545339663</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8776199766331517</v>
+        <v>0.9008530008813463</v>
       </c>
       <c r="D12">
-        <v>0.9964368450901127</v>
+        <v>1.012472952035427</v>
       </c>
       <c r="E12">
-        <v>0.900374263236045</v>
+        <v>0.9216161008315097</v>
       </c>
       <c r="F12">
-        <v>0.9400117387424292</v>
+        <v>0.9218813891059634</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025361659259038</v>
+        <v>1.031964390337302</v>
       </c>
       <c r="J12">
-        <v>0.9136873391860753</v>
+        <v>0.9355388906371612</v>
       </c>
       <c r="K12">
-        <v>1.011632629392304</v>
+        <v>1.027365028794299</v>
       </c>
       <c r="L12">
-        <v>0.9176961306121141</v>
+        <v>0.9384166123392015</v>
       </c>
       <c r="M12">
-        <v>0.9563861173361875</v>
+        <v>0.9386755930958067</v>
       </c>
       <c r="N12">
-        <v>0.914984880009122</v>
+        <v>0.9368674631696766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8786509731322685</v>
+        <v>0.9015526951216504</v>
       </c>
       <c r="D13">
-        <v>0.9967910800585392</v>
+        <v>1.012674595153688</v>
       </c>
       <c r="E13">
-        <v>0.9012426779165251</v>
+        <v>0.9221956532049006</v>
       </c>
       <c r="F13">
-        <v>0.9407399010545905</v>
+        <v>0.9225440668643001</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025599713378102</v>
+        <v>1.032084549547466</v>
       </c>
       <c r="J13">
-        <v>0.9145390471229342</v>
+        <v>0.9360880102661755</v>
       </c>
       <c r="K13">
-        <v>1.011935775695422</v>
+        <v>1.027519700297796</v>
       </c>
       <c r="L13">
-        <v>0.9184911252062605</v>
+        <v>0.9389327098468979</v>
       </c>
       <c r="M13">
-        <v>0.9570496593918401</v>
+        <v>0.9392728830205536</v>
       </c>
       <c r="N13">
-        <v>0.9158377974689436</v>
+        <v>0.9374173626115492</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8819882454368332</v>
+        <v>0.903827246302388</v>
       </c>
       <c r="D14">
-        <v>0.9979406840096935</v>
+        <v>1.01333173379631</v>
       </c>
       <c r="E14">
-        <v>0.9040549101552501</v>
+        <v>0.9240803614881991</v>
       </c>
       <c r="F14">
-        <v>0.9431001131516727</v>
+        <v>0.9246990848073946</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026370782399147</v>
+        <v>1.032475169666095</v>
       </c>
       <c r="J14">
-        <v>0.9172964998288938</v>
+        <v>0.9378732092336621</v>
       </c>
       <c r="K14">
-        <v>1.012918560786095</v>
+        <v>1.028023182785051</v>
       </c>
       <c r="L14">
-        <v>0.9210651013432217</v>
+        <v>0.9406106826681971</v>
       </c>
       <c r="M14">
-        <v>0.9591997406201047</v>
+        <v>0.94121502220159</v>
       </c>
       <c r="N14">
-        <v>0.9185991660740301</v>
+        <v>0.9392050967663345</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.884014175341745</v>
+        <v>0.9052151481896414</v>
       </c>
       <c r="D15">
-        <v>0.9986407597726449</v>
+        <v>1.013733939657029</v>
       </c>
       <c r="E15">
-        <v>0.905763012391517</v>
+        <v>0.9252309178294514</v>
       </c>
       <c r="F15">
-        <v>0.9445352662714555</v>
+        <v>0.9260146449281246</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02683922233055</v>
+        <v>1.03271351890849</v>
       </c>
       <c r="J15">
-        <v>0.9189708222192715</v>
+        <v>0.9389626083290955</v>
       </c>
       <c r="K15">
-        <v>1.0135162845325</v>
+        <v>1.028330904389488</v>
       </c>
       <c r="L15">
-        <v>0.922628116303155</v>
+        <v>0.941634745162561</v>
       </c>
       <c r="M15">
-        <v>0.9605066147214414</v>
+        <v>0.9424004449543855</v>
       </c>
       <c r="N15">
-        <v>0.9202758661942496</v>
+        <v>0.9402960429334392</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8953811536528766</v>
+        <v>0.9130980786977323</v>
       </c>
       <c r="D16">
-        <v>1.002598864115801</v>
+        <v>1.016035829311982</v>
       </c>
       <c r="E16">
-        <v>0.9153590187898717</v>
+        <v>0.9317733085597597</v>
       </c>
       <c r="F16">
-        <v>0.9526197698801618</v>
+        <v>0.9334950869467965</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029471679961441</v>
+        <v>1.034066898357027</v>
       </c>
       <c r="J16">
-        <v>0.9283698190974816</v>
+        <v>0.9451512344607965</v>
       </c>
       <c r="K16">
-        <v>1.016884812989233</v>
+        <v>1.030085619021686</v>
       </c>
       <c r="L16">
-        <v>0.9314035933581386</v>
+        <v>0.9474535969214156</v>
       </c>
       <c r="M16">
-        <v>0.9678612588192103</v>
+        <v>0.949138148194411</v>
       </c>
       <c r="N16">
-        <v>0.9296882107261067</v>
+        <v>0.9464934576240928</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9021728453473534</v>
+        <v>0.917882074295669</v>
       </c>
       <c r="D17">
-        <v>1.004987632530338</v>
+        <v>1.017447074585526</v>
       </c>
       <c r="E17">
-        <v>0.9211021420954913</v>
+        <v>0.935749876049466</v>
       </c>
       <c r="F17">
-        <v>0.9574755059225352</v>
+        <v>0.9380416087625318</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031047116561783</v>
+        <v>1.034887546611569</v>
       </c>
       <c r="J17">
-        <v>0.933989039239902</v>
+        <v>0.948907676327115</v>
       </c>
       <c r="K17">
-        <v>1.018908772007428</v>
+        <v>1.031155955903817</v>
       </c>
       <c r="L17">
-        <v>0.9366510345868417</v>
+        <v>0.9509867333794708</v>
       </c>
       <c r="M17">
-        <v>0.9722726205223848</v>
+        <v>0.9532308103581536</v>
       </c>
       <c r="N17">
-        <v>0.9353154108056628</v>
+        <v>0.950255234068731</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.906024690803958</v>
+        <v>0.920618636302823</v>
       </c>
       <c r="D18">
-        <v>1.006350097810577</v>
+        <v>1.018259109416306</v>
       </c>
       <c r="E18">
-        <v>0.9243623524002936</v>
+        <v>0.9380266044537053</v>
       </c>
       <c r="F18">
-        <v>0.9602375123155144</v>
+        <v>0.9406445723173943</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031941155597842</v>
+        <v>1.035356597144052</v>
       </c>
       <c r="J18">
-        <v>0.9371768668857414</v>
+        <v>0.9510565941677851</v>
       </c>
       <c r="K18">
-        <v>1.0200601132009</v>
+        <v>1.031769938109413</v>
       </c>
       <c r="L18">
-        <v>0.9396282538059155</v>
+        <v>0.9530082933771369</v>
       </c>
       <c r="M18">
-        <v>0.9747798098212073</v>
+        <v>0.9555730496905779</v>
       </c>
       <c r="N18">
-        <v>0.9385077655324083</v>
+        <v>0.9524072036192195</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.907320506829017</v>
+        <v>0.9215429523215539</v>
       </c>
       <c r="D19">
-        <v>1.006809682774064</v>
+        <v>1.018534163257665</v>
       </c>
       <c r="E19">
-        <v>0.925459618771215</v>
+        <v>0.9387959353445702</v>
       </c>
       <c r="F19">
-        <v>0.9611679865591826</v>
+        <v>0.9415241264482004</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032241983447873</v>
+        <v>1.035514949927598</v>
       </c>
       <c r="J19">
-        <v>0.9382494337348117</v>
+        <v>0.9517824390969425</v>
       </c>
       <c r="K19">
-        <v>1.020447980021556</v>
+        <v>1.03197759190292</v>
       </c>
       <c r="L19">
-        <v>0.9406300072962636</v>
+        <v>0.9536911837996621</v>
       </c>
       <c r="M19">
-        <v>0.9756241013143172</v>
+        <v>0.9563643536110287</v>
       </c>
       <c r="N19">
-        <v>0.9395818555494295</v>
+        <v>0.9531340793314318</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9014557541068158</v>
+        <v>0.9173744541867492</v>
       </c>
       <c r="D20">
-        <v>1.004734594889572</v>
+        <v>1.017296825455665</v>
       </c>
       <c r="E20">
-        <v>0.9204954354473197</v>
+        <v>0.9353277149196458</v>
       </c>
       <c r="F20">
-        <v>0.9569619506568046</v>
+        <v>0.9375589486095681</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030880711432709</v>
+        <v>1.034800506045212</v>
       </c>
       <c r="J20">
-        <v>0.9333956378596161</v>
+        <v>0.9485090708573393</v>
       </c>
       <c r="K20">
-        <v>1.018694699928187</v>
+        <v>1.031042200026592</v>
       </c>
       <c r="L20">
-        <v>0.9360968609030402</v>
+        <v>0.9506117825826371</v>
       </c>
       <c r="M20">
-        <v>0.9718062798343678</v>
+        <v>0.9527964237635498</v>
       </c>
       <c r="N20">
-        <v>0.9347211667273529</v>
+        <v>0.949856062533468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.881011905864174</v>
+        <v>0.9031602934149224</v>
       </c>
       <c r="D21">
-        <v>0.9976038929450327</v>
+        <v>1.013138785411894</v>
       </c>
       <c r="E21">
-        <v>0.9032319814420453</v>
+        <v>0.9235276074321189</v>
       </c>
       <c r="F21">
-        <v>0.9424091158587924</v>
+        <v>0.9240670557836341</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026145124305464</v>
+        <v>1.032360630043245</v>
       </c>
       <c r="J21">
-        <v>0.9164897083456446</v>
+        <v>0.937349725792342</v>
       </c>
       <c r="K21">
-        <v>1.012630802946878</v>
+        <v>1.027875442787689</v>
       </c>
       <c r="L21">
-        <v>0.9203119712153902</v>
+        <v>0.9401186212342726</v>
       </c>
       <c r="M21">
-        <v>0.9585703702527427</v>
+        <v>0.9406454649648889</v>
       </c>
       <c r="N21">
-        <v>0.9177912288543342</v>
+        <v>0.9386808699184833</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8668679686756233</v>
+        <v>0.8936433161875121</v>
       </c>
       <c r="D22">
-        <v>0.992768840459655</v>
+        <v>1.010409176802361</v>
       </c>
       <c r="E22">
-        <v>0.891328747209048</v>
+        <v>0.9156504483509063</v>
       </c>
       <c r="F22">
-        <v>0.9324463131143821</v>
+        <v>0.9150599817927072</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02288398036348</v>
+        <v>1.03072656857563</v>
       </c>
       <c r="J22">
-        <v>0.9048100363735044</v>
+        <v>0.9298820047163351</v>
       </c>
       <c r="K22">
-        <v>1.008484922110326</v>
+        <v>1.025777208260174</v>
       </c>
       <c r="L22">
-        <v>0.9094111880423014</v>
+        <v>0.9331010085630651</v>
       </c>
       <c r="M22">
-        <v>0.9494863078478086</v>
+        <v>0.9325253458024985</v>
       </c>
       <c r="N22">
-        <v>0.9060949704083168</v>
+        <v>0.9312025438219891</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8745064223668755</v>
+        <v>0.8987486874789081</v>
       </c>
       <c r="D23">
-        <v>0.995369723140626</v>
+        <v>1.011867953698575</v>
       </c>
       <c r="E23">
-        <v>0.8977527987800138</v>
+        <v>0.9198737363026782</v>
       </c>
       <c r="F23">
-        <v>0.9378155877058433</v>
+        <v>0.9198891051314818</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024643222015556</v>
+        <v>1.031603034303562</v>
       </c>
       <c r="J23">
-        <v>0.9111157117078713</v>
+        <v>0.9338875502735046</v>
       </c>
       <c r="K23">
-        <v>1.01071851539812</v>
+        <v>1.026900460912325</v>
       </c>
       <c r="L23">
-        <v>0.9152958654588234</v>
+        <v>0.9368646909592224</v>
       </c>
       <c r="M23">
-        <v>0.9543842693642836</v>
+        <v>0.9368796885987407</v>
       </c>
       <c r="N23">
-        <v>0.912409600524929</v>
+        <v>0.9352137777132922</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9017801126373319</v>
+        <v>0.9176039913433931</v>
       </c>
       <c r="D24">
-        <v>1.004849026364528</v>
+        <v>1.017364750781718</v>
       </c>
       <c r="E24">
-        <v>0.9207698547856891</v>
+        <v>0.9355186026828887</v>
       </c>
       <c r="F24">
-        <v>0.9571942195541305</v>
+        <v>0.9377771923612034</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030955979074434</v>
+        <v>1.03483986552143</v>
       </c>
       <c r="J24">
-        <v>0.9336640454651626</v>
+        <v>0.9486893130373357</v>
       </c>
       <c r="K24">
-        <v>1.018791519437797</v>
+        <v>1.03109363318029</v>
       </c>
       <c r="L24">
-        <v>0.9363475240776585</v>
+        <v>0.9507813273487421</v>
       </c>
       <c r="M24">
-        <v>0.9720172010749132</v>
+        <v>0.9529928424767526</v>
       </c>
       <c r="N24">
-        <v>0.934989955502486</v>
+        <v>0.9500365606780337</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9291761715638035</v>
+        <v>0.9373966322478524</v>
       </c>
       <c r="D25">
-        <v>1.014651037961819</v>
+        <v>1.023311450693675</v>
       </c>
       <c r="E25">
-        <v>0.9440013319104829</v>
+        <v>0.9520166691139289</v>
       </c>
       <c r="F25">
-        <v>0.9769555914173275</v>
+        <v>0.9566375894946414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037315207284505</v>
+        <v>1.038222302289996</v>
       </c>
       <c r="J25">
-        <v>0.9563470259203039</v>
+        <v>0.9642315268015857</v>
       </c>
       <c r="K25">
-        <v>1.027026094459539</v>
+        <v>1.035558351988418</v>
       </c>
       <c r="L25">
-        <v>0.9575359636552624</v>
+        <v>0.9654085253476751</v>
       </c>
       <c r="M25">
-        <v>0.9899224960958601</v>
+        <v>0.9699485417790283</v>
       </c>
       <c r="N25">
-        <v>0.9577051483916476</v>
+        <v>0.965600846168546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9518655144953545</v>
+        <v>0.9696699780673913</v>
       </c>
       <c r="D2">
-        <v>1.027765713674502</v>
+        <v>1.029642249779684</v>
       </c>
       <c r="E2">
-        <v>0.9641226587313535</v>
+        <v>0.9854351935971652</v>
       </c>
       <c r="F2">
-        <v>0.9704736943382964</v>
+        <v>0.9865451185770304</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040670938615463</v>
+        <v>1.046847012775419</v>
       </c>
       <c r="J2">
-        <v>0.9755878343064889</v>
+        <v>0.9927973100341054</v>
       </c>
       <c r="K2">
-        <v>1.038851319647007</v>
+        <v>1.040703507696006</v>
       </c>
       <c r="L2">
-        <v>0.9761055324073161</v>
+        <v>0.9971012391323471</v>
       </c>
       <c r="M2">
-        <v>0.982360301936974</v>
+        <v>0.9981951393699954</v>
       </c>
       <c r="N2">
-        <v>0.9769732809326931</v>
+        <v>0.9942071960897968</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9617432585229263</v>
+        <v>0.9762733263671683</v>
       </c>
       <c r="D3">
-        <v>1.030855076345776</v>
+        <v>1.03121079133331</v>
       </c>
       <c r="E3">
-        <v>0.9724081019449987</v>
+        <v>0.9912238284543036</v>
       </c>
       <c r="F3">
-        <v>0.9799410636422086</v>
+        <v>0.9931008781123714</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042324000162013</v>
+        <v>1.047082302303658</v>
       </c>
       <c r="J3">
-        <v>0.9833341032090112</v>
+        <v>0.9974323881816309</v>
       </c>
       <c r="K3">
-        <v>1.041107814158931</v>
+        <v>1.041459311046039</v>
       </c>
       <c r="L3">
-        <v>0.9834066390987777</v>
+        <v>1.001970247450317</v>
       </c>
       <c r="M3">
-        <v>0.9908372033600975</v>
+        <v>1.003822802300925</v>
       </c>
       <c r="N3">
-        <v>0.984730550425566</v>
+        <v>0.9988488565799427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9678802554570664</v>
+        <v>0.9804308563658365</v>
       </c>
       <c r="D4">
-        <v>1.032793183007501</v>
+        <v>1.032206919829202</v>
       </c>
       <c r="E4">
-        <v>0.9775639830561819</v>
+        <v>0.9948753413945485</v>
       </c>
       <c r="F4">
-        <v>0.9858313601129181</v>
+        <v>0.9972373129875093</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043341101838874</v>
+        <v>1.047219142987687</v>
       </c>
       <c r="J4">
-        <v>0.9881428701136606</v>
+        <v>1.000348744349649</v>
       </c>
       <c r="K4">
-        <v>1.042511299853685</v>
+        <v>1.041931574488913</v>
       </c>
       <c r="L4">
-        <v>0.9879409519302482</v>
+        <v>1.005036012583142</v>
       </c>
       <c r="M4">
-        <v>0.9961038505730626</v>
+        <v>1.007369195967843</v>
       </c>
       <c r="N4">
-        <v>0.9895461463307936</v>
+        <v>1.00176935430823</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9704039367614334</v>
+        <v>0.9821525471818836</v>
       </c>
       <c r="D5">
-        <v>1.033594171995927</v>
+        <v>1.032621214092848</v>
       </c>
       <c r="E5">
-        <v>0.9796859799566066</v>
+        <v>0.9963890650223154</v>
       </c>
       <c r="F5">
-        <v>0.988255351883767</v>
+        <v>0.9989523341857302</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04375679041194</v>
+        <v>1.047272985406224</v>
       </c>
       <c r="J5">
-        <v>0.9901192803220671</v>
+        <v>1.0015559268498</v>
       </c>
       <c r="K5">
-        <v>1.043088498674965</v>
+        <v>1.042126105599354</v>
       </c>
       <c r="L5">
-        <v>0.9898049895715724</v>
+        <v>1.006305567336981</v>
       </c>
       <c r="M5">
-        <v>0.998269404827223</v>
+        <v>1.008838501981718</v>
       </c>
       <c r="N5">
-        <v>0.9915253632683935</v>
+        <v>1.002978251145997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9708244961465591</v>
+        <v>0.9824401345519936</v>
       </c>
       <c r="D6">
-        <v>1.033727874287755</v>
+        <v>1.03269051411446</v>
       </c>
       <c r="E6">
-        <v>0.9800396998879443</v>
+        <v>0.9966420047254999</v>
       </c>
       <c r="F6">
-        <v>0.9886593959832631</v>
+        <v>0.9992389272713703</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043825906711105</v>
+        <v>1.047281809749891</v>
       </c>
       <c r="J6">
-        <v>0.9904485732698725</v>
+        <v>1.001757539661114</v>
       </c>
       <c r="K6">
-        <v>1.043184680371775</v>
+        <v>1.042158533491345</v>
       </c>
       <c r="L6">
-        <v>0.9901155844437735</v>
+        <v>1.006517627797344</v>
       </c>
       <c r="M6">
-        <v>0.9986302653648801</v>
+        <v>1.009083970658863</v>
       </c>
       <c r="N6">
-        <v>0.9918551238499549</v>
+        <v>1.003180150270629</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9679141925710291</v>
+        <v>0.9804539625227741</v>
       </c>
       <c r="D7">
-        <v>1.032803939067046</v>
+        <v>1.032212473207964</v>
       </c>
       <c r="E7">
-        <v>0.97759251173005</v>
+        <v>0.9948956503519816</v>
       </c>
       <c r="F7">
-        <v>0.9858639499542829</v>
+        <v>0.9972603215390067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043346702215171</v>
+        <v>1.047219876909364</v>
       </c>
       <c r="J7">
-        <v>0.9881694522189695</v>
+        <v>1.000364947620684</v>
       </c>
       <c r="K7">
-        <v>1.042519061910806</v>
+        <v>1.04193418955789</v>
       </c>
       <c r="L7">
-        <v>0.9879660209923283</v>
+        <v>1.005053050963264</v>
       </c>
       <c r="M7">
-        <v>0.9961329729207464</v>
+        <v>1.007388912295901</v>
       </c>
       <c r="N7">
-        <v>0.9895727661857407</v>
+        <v>1.001785580589769</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9552594271954538</v>
+        <v>0.9719263969704293</v>
       </c>
       <c r="D8">
-        <v>1.028822898061206</v>
+        <v>1.030176260413161</v>
       </c>
       <c r="E8">
-        <v>0.9669676093749815</v>
+        <v>0.9874117050539664</v>
       </c>
       <c r="F8">
-        <v>0.9737247023141796</v>
+        <v>0.9887833688435688</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04124091099902</v>
+        <v>1.04692972229462</v>
       </c>
       <c r="J8">
-        <v>0.9782501500942372</v>
+        <v>0.994381525470327</v>
       </c>
       <c r="K8">
-        <v>1.039626101102322</v>
+        <v>1.040962419099498</v>
       </c>
       <c r="L8">
-        <v>0.9786144296064149</v>
+        <v>0.9987649366676558</v>
       </c>
       <c r="M8">
-        <v>0.9852727580295695</v>
+        <v>1.0001174511716</v>
       </c>
       <c r="N8">
-        <v>0.9796393775142319</v>
+        <v>0.9957936612936499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9307666692072122</v>
+        <v>0.9559446090233844</v>
       </c>
       <c r="D9">
-        <v>1.021300071206331</v>
+        <v>1.026442710141579</v>
       </c>
       <c r="E9">
-        <v>0.9464820529362671</v>
+        <v>0.9734460404117525</v>
       </c>
       <c r="F9">
-        <v>0.9503109735513521</v>
+        <v>0.9729712455718523</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037092425590642</v>
+        <v>1.046300249603783</v>
       </c>
       <c r="J9">
-        <v>0.9590256581782337</v>
+        <v>0.9831550979781937</v>
       </c>
       <c r="K9">
-        <v>1.034056770002871</v>
+        <v>1.039120861272451</v>
       </c>
       <c r="L9">
-        <v>0.9605075102932578</v>
+        <v>0.9869851483119254</v>
       </c>
       <c r="M9">
-        <v>0.9642651765383664</v>
+        <v>0.9865186154893664</v>
       </c>
       <c r="N9">
-        <v>0.960387584614627</v>
+        <v>0.9845512909867887</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9125498697282364</v>
+        <v>0.9445352670326965</v>
       </c>
       <c r="D10">
-        <v>1.015874794750595</v>
+        <v>1.023853917626846</v>
       </c>
       <c r="E10">
-        <v>0.9313179168413677</v>
+        <v>0.9635236873254999</v>
       </c>
       <c r="F10">
-        <v>0.9329744138082741</v>
+        <v>0.9617390381836062</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033972815444531</v>
+        <v>1.045800826930256</v>
       </c>
       <c r="J10">
-        <v>0.9447208022230259</v>
+        <v>0.9751364464460608</v>
       </c>
       <c r="K10">
-        <v>1.02996322075254</v>
+        <v>1.037805436977404</v>
       </c>
       <c r="L10">
-        <v>0.9470488072076175</v>
+        <v>0.9785843171802242</v>
       </c>
       <c r="M10">
-        <v>0.948669330714925</v>
+        <v>0.9768352648021933</v>
       </c>
       <c r="N10">
-        <v>0.9460624141231732</v>
+        <v>0.9765212520497281</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9040929619255196</v>
+        <v>0.9393867048017519</v>
       </c>
       <c r="D11">
-        <v>1.013408664751584</v>
+        <v>1.022708820873849</v>
       </c>
       <c r="E11">
-        <v>0.9243006059234146</v>
+        <v>0.9590591648064886</v>
       </c>
       <c r="F11">
-        <v>0.9249509157064294</v>
+        <v>0.9566850137326462</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032520802373179</v>
+        <v>1.045565562565124</v>
       </c>
       <c r="J11">
-        <v>0.9380817708199189</v>
+        <v>0.9715181138350977</v>
       </c>
       <c r="K11">
-        <v>1.02808206723843</v>
+        <v>1.037214823105151</v>
       </c>
       <c r="L11">
-        <v>0.9408067301092951</v>
+        <v>0.9747967926556023</v>
       </c>
       <c r="M11">
-        <v>0.9414419524019382</v>
+        <v>0.972472781069775</v>
       </c>
       <c r="N11">
-        <v>0.9394139545339663</v>
+        <v>0.9728977809914289</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9008530008813463</v>
+        <v>0.9374401672417777</v>
       </c>
       <c r="D12">
-        <v>1.012472952035427</v>
+        <v>1.022279813821028</v>
       </c>
       <c r="E12">
-        <v>0.9216161008315097</v>
+        <v>0.9573733632940506</v>
       </c>
       <c r="F12">
-        <v>0.9218813891059634</v>
+        <v>0.9547765371059674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031964390337302</v>
+        <v>1.045475309823012</v>
       </c>
       <c r="J12">
-        <v>0.9355388906371612</v>
+        <v>0.9701502469976464</v>
       </c>
       <c r="K12">
-        <v>1.027365028794299</v>
+        <v>1.036992263729265</v>
       </c>
       <c r="L12">
-        <v>0.9384166123392015</v>
+        <v>0.9733654706982213</v>
       </c>
       <c r="M12">
-        <v>0.9386755930958067</v>
+        <v>0.9708246484830209</v>
       </c>
       <c r="N12">
-        <v>0.9368674631696766</v>
+        <v>0.9715279716261717</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9015526951216504</v>
+        <v>0.9378593002460657</v>
       </c>
       <c r="D13">
-        <v>1.012674595153688</v>
+        <v>1.022372003920665</v>
       </c>
       <c r="E13">
-        <v>0.9221956532049006</v>
+        <v>0.95773625560971</v>
       </c>
       <c r="F13">
-        <v>0.9225440668643001</v>
+        <v>0.9551873679413334</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032084549547466</v>
+        <v>1.04549479914511</v>
       </c>
       <c r="J13">
-        <v>0.9360880102661755</v>
+        <v>0.9704447715298827</v>
       </c>
       <c r="K13">
-        <v>1.027519700297796</v>
+        <v>1.037040147666444</v>
       </c>
       <c r="L13">
-        <v>0.9389327098468979</v>
+        <v>0.9736736350699291</v>
       </c>
       <c r="M13">
-        <v>0.9392728830205536</v>
+        <v>0.9711794714952892</v>
       </c>
       <c r="N13">
-        <v>0.9374173626115492</v>
+        <v>0.9718229144170262</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.903827246302388</v>
+        <v>0.9392265173911887</v>
       </c>
       <c r="D14">
-        <v>1.01333173379631</v>
+        <v>1.022673434071068</v>
       </c>
       <c r="E14">
-        <v>0.9240803614881991</v>
+        <v>0.9589203903196744</v>
       </c>
       <c r="F14">
-        <v>0.9246990848073946</v>
+        <v>0.9565279106931126</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032475169666095</v>
+        <v>1.045558160746259</v>
       </c>
       <c r="J14">
-        <v>0.9378732092336621</v>
+        <v>0.9714055439611932</v>
       </c>
       <c r="K14">
-        <v>1.028023182785051</v>
+        <v>1.037196491250169</v>
       </c>
       <c r="L14">
-        <v>0.9406106826681971</v>
+        <v>0.9746789903252108</v>
       </c>
       <c r="M14">
-        <v>0.94121502220159</v>
+        <v>0.9723371251549088</v>
       </c>
       <c r="N14">
-        <v>0.9392050967663345</v>
+        <v>0.9727850512553913</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9052151481896414</v>
+        <v>0.9400642910774744</v>
       </c>
       <c r="D15">
-        <v>1.013733939657029</v>
+        <v>1.022858667935694</v>
       </c>
       <c r="E15">
-        <v>0.9252309178294514</v>
+        <v>0.9596462624169917</v>
       </c>
       <c r="F15">
-        <v>0.9260146449281246</v>
+        <v>0.9573496482925076</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03271351890849</v>
+        <v>1.045596819989582</v>
       </c>
       <c r="J15">
-        <v>0.9389626083290955</v>
+        <v>0.9719942858358543</v>
       </c>
       <c r="K15">
-        <v>1.028330904389488</v>
+        <v>1.037292397812508</v>
       </c>
       <c r="L15">
-        <v>0.941634745162561</v>
+        <v>0.9752951186801014</v>
       </c>
       <c r="M15">
-        <v>0.9424004449543855</v>
+        <v>0.9730466500534505</v>
       </c>
       <c r="N15">
-        <v>0.9402960429334392</v>
+        <v>0.9733746292110441</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9130980786977323</v>
+        <v>0.9448723375458797</v>
       </c>
       <c r="D16">
-        <v>1.016035829311982</v>
+        <v>1.023929401978527</v>
       </c>
       <c r="E16">
-        <v>0.9317733085597597</v>
+        <v>0.9638162575846039</v>
       </c>
       <c r="F16">
-        <v>0.9334950869467965</v>
+        <v>0.9620702321611818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034066898357027</v>
+        <v>1.045816039370123</v>
       </c>
       <c r="J16">
-        <v>0.9451512344607965</v>
+        <v>0.975373346537225</v>
       </c>
       <c r="K16">
-        <v>1.030085619021686</v>
+        <v>1.037844189381429</v>
       </c>
       <c r="L16">
-        <v>0.9474535969214156</v>
+        <v>0.9788323635066937</v>
       </c>
       <c r="M16">
-        <v>0.949138148194411</v>
+        <v>0.9771210313184815</v>
       </c>
       <c r="N16">
-        <v>0.9464934576240928</v>
+        <v>0.9767584885661945</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.917882074295669</v>
+        <v>0.9478306417321067</v>
       </c>
       <c r="D17">
-        <v>1.017447074585526</v>
+        <v>1.02459455542163</v>
       </c>
       <c r="E17">
-        <v>0.935749876049466</v>
+        <v>0.966385494153959</v>
       </c>
       <c r="F17">
-        <v>0.9380416087625318</v>
+        <v>0.9649786248522009</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034887546611569</v>
+        <v>1.04594845407632</v>
       </c>
       <c r="J17">
-        <v>0.948907676327115</v>
+        <v>0.9774525326330228</v>
       </c>
       <c r="K17">
-        <v>1.031155955903817</v>
+        <v>1.038184670434247</v>
       </c>
       <c r="L17">
-        <v>0.9509867333794708</v>
+        <v>0.981009746463378</v>
       </c>
       <c r="M17">
-        <v>0.9532308103581536</v>
+        <v>0.9796298938512278</v>
       </c>
       <c r="N17">
-        <v>0.950255234068731</v>
+        <v>0.9788406273447341</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.920618636302823</v>
+        <v>0.9495362877451485</v>
       </c>
       <c r="D18">
-        <v>1.018259109416306</v>
+        <v>1.024980202627936</v>
       </c>
       <c r="E18">
-        <v>0.9380266044537053</v>
+        <v>0.9678680329210873</v>
       </c>
       <c r="F18">
-        <v>0.9406445723173943</v>
+        <v>0.9666568595532715</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035356597144052</v>
+        <v>1.046023855691627</v>
       </c>
       <c r="J18">
-        <v>0.9510565941677851</v>
+        <v>0.9786513192533031</v>
       </c>
       <c r="K18">
-        <v>1.031769938109413</v>
+        <v>1.038381239943934</v>
       </c>
       <c r="L18">
-        <v>0.9530082933771369</v>
+        <v>0.9822654559612195</v>
       </c>
       <c r="M18">
-        <v>0.9555730496905779</v>
+        <v>0.9810770786392714</v>
       </c>
       <c r="N18">
-        <v>0.9524072036192195</v>
+        <v>0.9800411163795181</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9215429523215539</v>
+        <v>0.9501145774253006</v>
       </c>
       <c r="D19">
-        <v>1.018534163257665</v>
+        <v>1.025111305138301</v>
       </c>
       <c r="E19">
-        <v>0.9387959353445702</v>
+        <v>0.9683708808154985</v>
       </c>
       <c r="F19">
-        <v>0.9415241264482004</v>
+        <v>0.9672260837796621</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035514949927598</v>
+        <v>1.046049254932278</v>
       </c>
       <c r="J19">
-        <v>0.9517824390969425</v>
+        <v>0.9790577592334665</v>
       </c>
       <c r="K19">
-        <v>1.03197759190292</v>
+        <v>1.038447921787901</v>
       </c>
       <c r="L19">
-        <v>0.9536911837996621</v>
+        <v>0.9826912467026593</v>
       </c>
       <c r="M19">
-        <v>0.9563643536110287</v>
+        <v>0.9815678485946835</v>
       </c>
       <c r="N19">
-        <v>0.9531340793314318</v>
+        <v>0.9804481335510724</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9173744541867492</v>
+        <v>0.9475153197331752</v>
       </c>
       <c r="D20">
-        <v>1.017296825455665</v>
+        <v>1.024523431589315</v>
       </c>
       <c r="E20">
-        <v>0.9353277149196458</v>
+        <v>0.9661115151297465</v>
       </c>
       <c r="F20">
-        <v>0.9375589486095681</v>
+        <v>0.9646684801205185</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034800506045212</v>
+        <v>1.045934436955818</v>
       </c>
       <c r="J20">
-        <v>0.9485090708573393</v>
+        <v>0.9772309133163168</v>
       </c>
       <c r="K20">
-        <v>1.031042200026592</v>
+        <v>1.038148349877796</v>
       </c>
       <c r="L20">
-        <v>0.9506117825826371</v>
+        <v>0.9807776285025049</v>
       </c>
       <c r="M20">
-        <v>0.9527964237635498</v>
+        <v>0.9793624068464698</v>
       </c>
       <c r="N20">
-        <v>0.949856062533468</v>
+        <v>0.9786186933031785</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9031602934149224</v>
+        <v>0.9388248728501455</v>
       </c>
       <c r="D21">
-        <v>1.013138785411894</v>
+        <v>1.022584771977218</v>
       </c>
       <c r="E21">
-        <v>0.9235276074321189</v>
+        <v>0.9585724699427977</v>
       </c>
       <c r="F21">
-        <v>0.9240670557836341</v>
+        <v>0.9561340374635184</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032360630043245</v>
+        <v>1.045539581499646</v>
       </c>
       <c r="J21">
-        <v>0.937349725792342</v>
+        <v>0.9711232953331472</v>
       </c>
       <c r="K21">
-        <v>1.027875442787689</v>
+        <v>1.037150539886922</v>
       </c>
       <c r="L21">
-        <v>0.9401186212342726</v>
+        <v>0.9743836304504004</v>
       </c>
       <c r="M21">
-        <v>0.9406454649648889</v>
+        <v>0.9719970093496462</v>
       </c>
       <c r="N21">
-        <v>0.9386808699184833</v>
+        <v>0.9725024018019193</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8936433161875121</v>
+        <v>0.9331616882943199</v>
       </c>
       <c r="D22">
-        <v>1.010409176802361</v>
+        <v>1.02134462109487</v>
       </c>
       <c r="E22">
-        <v>0.9156504483509063</v>
+        <v>0.9536720810642075</v>
       </c>
       <c r="F22">
-        <v>0.9150599817927072</v>
+        <v>0.9505861411277555</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03072656857563</v>
+        <v>1.045274738750163</v>
       </c>
       <c r="J22">
-        <v>0.9298820047163351</v>
+        <v>0.9671440532038645</v>
       </c>
       <c r="K22">
-        <v>1.025777208260174</v>
+        <v>1.036504773176328</v>
       </c>
       <c r="L22">
-        <v>0.9331010085630651</v>
+        <v>0.9702207718580962</v>
       </c>
       <c r="M22">
-        <v>0.9325253458024985</v>
+        <v>0.9672044427999799</v>
       </c>
       <c r="N22">
-        <v>0.9312025438219891</v>
+        <v>0.9685175086923876</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8987486874789081</v>
+        <v>0.9361837723563773</v>
       </c>
       <c r="D23">
-        <v>1.011867953698575</v>
+        <v>1.022004076002786</v>
       </c>
       <c r="E23">
-        <v>0.9198737363026782</v>
+        <v>0.9562858796420245</v>
       </c>
       <c r="F23">
-        <v>0.9198891051314818</v>
+        <v>0.9535453790344369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031603034303562</v>
+        <v>1.045416711806118</v>
       </c>
       <c r="J23">
-        <v>0.9338875502735046</v>
+        <v>0.9692674070650067</v>
       </c>
       <c r="K23">
-        <v>1.026900460912325</v>
+        <v>1.036848857809568</v>
       </c>
       <c r="L23">
-        <v>0.9368646909592224</v>
+        <v>0.9724418206861088</v>
       </c>
       <c r="M23">
-        <v>0.9368796885987407</v>
+        <v>0.9697612171678539</v>
       </c>
       <c r="N23">
-        <v>0.9352137777132922</v>
+        <v>0.9706438779595643</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9176039913433931</v>
+        <v>0.9476578614044584</v>
       </c>
       <c r="D24">
-        <v>1.017364750781718</v>
+        <v>1.024555576572008</v>
       </c>
       <c r="E24">
-        <v>0.9355186026828887</v>
+        <v>0.966235363902716</v>
       </c>
       <c r="F24">
-        <v>0.9377771923612034</v>
+        <v>0.9648086771702016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03483986552143</v>
+        <v>1.045940776355194</v>
       </c>
       <c r="J24">
-        <v>0.9486893130373357</v>
+        <v>0.9773310965695958</v>
       </c>
       <c r="K24">
-        <v>1.03109363318029</v>
+        <v>1.03816476783782</v>
       </c>
       <c r="L24">
-        <v>0.9507813273487421</v>
+        <v>0.9808825567303</v>
       </c>
       <c r="M24">
-        <v>0.9529928424767526</v>
+        <v>0.9794833225831209</v>
       </c>
       <c r="N24">
-        <v>0.9500365606780337</v>
+        <v>0.9787190188281681</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9373966322478524</v>
+        <v>0.9602003410652747</v>
       </c>
       <c r="D25">
-        <v>1.023311450693675</v>
+        <v>1.027425357429848</v>
       </c>
       <c r="E25">
-        <v>0.9520166691139289</v>
+        <v>0.9771572819130706</v>
       </c>
       <c r="F25">
-        <v>0.9566375894946414</v>
+        <v>0.9771726338542438</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038222302289996</v>
+        <v>1.046477018129713</v>
       </c>
       <c r="J25">
-        <v>0.9642315268015857</v>
+        <v>0.9861455907071075</v>
       </c>
       <c r="K25">
-        <v>1.035558351988418</v>
+        <v>1.039612341487524</v>
       </c>
       <c r="L25">
-        <v>0.9654085253476751</v>
+        <v>0.9901208636039752</v>
       </c>
       <c r="M25">
-        <v>0.9699485417790283</v>
+        <v>0.9901359626837639</v>
       </c>
       <c r="N25">
-        <v>0.965600846168546</v>
+        <v>0.9875460305583917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9696699780673913</v>
+        <v>1.026490916865734</v>
       </c>
       <c r="D2">
-        <v>1.029642249779684</v>
+        <v>1.026513451475777</v>
       </c>
       <c r="E2">
-        <v>0.9854351935971652</v>
+        <v>1.035281354641555</v>
       </c>
       <c r="F2">
-        <v>0.9865451185770304</v>
+        <v>1.043026249814855</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046847012775419</v>
+        <v>1.028140619206577</v>
       </c>
       <c r="J2">
-        <v>0.9927973100341054</v>
+        <v>1.031654064059758</v>
       </c>
       <c r="K2">
-        <v>1.040703507696006</v>
+        <v>1.029335878222202</v>
       </c>
       <c r="L2">
-        <v>0.9971012391323471</v>
+        <v>1.03807840888099</v>
       </c>
       <c r="M2">
-        <v>0.9981951393699954</v>
+        <v>1.045801277101354</v>
       </c>
       <c r="N2">
-        <v>0.9942071960897968</v>
+        <v>1.033119131163119</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9762733263671683</v>
+        <v>1.027842156397847</v>
       </c>
       <c r="D3">
-        <v>1.03121079133331</v>
+        <v>1.026832767717716</v>
       </c>
       <c r="E3">
-        <v>0.9912238284543036</v>
+        <v>1.03652365096261</v>
       </c>
       <c r="F3">
-        <v>0.9931008781123714</v>
+        <v>1.044448464980237</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047082302303658</v>
+        <v>1.028119731977348</v>
       </c>
       <c r="J3">
-        <v>0.9974323881816309</v>
+        <v>1.032643018763664</v>
       </c>
       <c r="K3">
-        <v>1.041459311046039</v>
+        <v>1.029464047931005</v>
       </c>
       <c r="L3">
-        <v>1.001970247450317</v>
+        <v>1.039128916684577</v>
       </c>
       <c r="M3">
-        <v>1.003822802300925</v>
+        <v>1.047032844707646</v>
       </c>
       <c r="N3">
-        <v>0.9988488565799427</v>
+        <v>1.034109490296118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9804308563658365</v>
+        <v>1.028716173043294</v>
       </c>
       <c r="D4">
-        <v>1.032206919829202</v>
+        <v>1.027038990663314</v>
       </c>
       <c r="E4">
-        <v>0.9948753413945485</v>
+        <v>1.037327489195902</v>
       </c>
       <c r="F4">
-        <v>0.9972373129875093</v>
+        <v>1.045369012804245</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047219142987687</v>
+        <v>1.02810454699596</v>
       </c>
       <c r="J4">
-        <v>1.000348744349649</v>
+        <v>1.033282201577143</v>
       </c>
       <c r="K4">
-        <v>1.041931574488913</v>
+        <v>1.029545830079758</v>
       </c>
       <c r="L4">
-        <v>1.005036012583142</v>
+        <v>1.039808101438636</v>
       </c>
       <c r="M4">
-        <v>1.007369195967843</v>
+        <v>1.047829512859632</v>
       </c>
       <c r="N4">
-        <v>1.00176935430823</v>
+        <v>1.034749580822508</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9821525471818836</v>
+        <v>1.02908353615165</v>
       </c>
       <c r="D5">
-        <v>1.032621214092848</v>
+        <v>1.027125589626558</v>
       </c>
       <c r="E5">
-        <v>0.9963890650223154</v>
+        <v>1.037665423616462</v>
       </c>
       <c r="F5">
-        <v>0.9989523341857302</v>
+        <v>1.045756082122717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047272985406224</v>
+        <v>1.028097762610936</v>
       </c>
       <c r="J5">
-        <v>1.0015559268498</v>
+        <v>1.033550740576031</v>
       </c>
       <c r="K5">
-        <v>1.042126105599354</v>
+        <v>1.029579933844576</v>
       </c>
       <c r="L5">
-        <v>1.006305567336981</v>
+        <v>1.040093498731202</v>
       </c>
       <c r="M5">
-        <v>1.008838501981718</v>
+        <v>1.048164378682872</v>
       </c>
       <c r="N5">
-        <v>1.002978251145997</v>
+        <v>1.035018501177576</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9824401345519936</v>
+        <v>1.029145213854658</v>
       </c>
       <c r="D6">
-        <v>1.03269051411446</v>
+        <v>1.027140124207022</v>
       </c>
       <c r="E6">
-        <v>0.9966420047254999</v>
+        <v>1.037722164438539</v>
       </c>
       <c r="F6">
-        <v>0.9992389272713703</v>
+        <v>1.045821077047701</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047281809749891</v>
+        <v>1.028096599963333</v>
       </c>
       <c r="J6">
-        <v>1.001757539661114</v>
+        <v>1.033595819370691</v>
       </c>
       <c r="K6">
-        <v>1.042158533491345</v>
+        <v>1.029585643700015</v>
       </c>
       <c r="L6">
-        <v>1.006517627797344</v>
+        <v>1.040141410541831</v>
       </c>
       <c r="M6">
-        <v>1.009083970658863</v>
+        <v>1.048220601097659</v>
       </c>
       <c r="N6">
-        <v>1.003180150270629</v>
+        <v>1.035063643989295</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9804539625227741</v>
+        <v>1.028721082050322</v>
       </c>
       <c r="D7">
-        <v>1.032212473207964</v>
+        <v>1.027040148187686</v>
       </c>
       <c r="E7">
-        <v>0.9948956503519816</v>
+        <v>1.037332004684755</v>
       </c>
       <c r="F7">
-        <v>0.9972603215390067</v>
+        <v>1.045374184559297</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047219876909364</v>
+        <v>1.028104457918005</v>
       </c>
       <c r="J7">
-        <v>1.000364947620684</v>
+        <v>1.033285790486255</v>
       </c>
       <c r="K7">
-        <v>1.04193418955789</v>
+        <v>1.029546286868166</v>
       </c>
       <c r="L7">
-        <v>1.005053050963264</v>
+        <v>1.039811915446027</v>
       </c>
       <c r="M7">
-        <v>1.007388912295901</v>
+        <v>1.047833987558758</v>
       </c>
       <c r="N7">
-        <v>1.001785580589769</v>
+        <v>1.034753174828282</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9719263969704293</v>
+        <v>1.026947644726116</v>
       </c>
       <c r="D8">
-        <v>1.030176260413161</v>
+        <v>1.026621446480098</v>
       </c>
       <c r="E8">
-        <v>0.9874117050539664</v>
+        <v>1.03570119870601</v>
       </c>
       <c r="F8">
-        <v>0.9887833688435688</v>
+        <v>1.043506838681758</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04692972229462</v>
+        <v>1.02813390540539</v>
       </c>
       <c r="J8">
-        <v>0.994381525470327</v>
+        <v>1.031988440333347</v>
       </c>
       <c r="K8">
-        <v>1.040962419099498</v>
+        <v>1.029379431388346</v>
       </c>
       <c r="L8">
-        <v>0.9987649366676558</v>
+        <v>1.038433551539637</v>
       </c>
       <c r="M8">
-        <v>1.0001174511716</v>
+        <v>1.046217542688354</v>
       </c>
       <c r="N8">
-        <v>0.9957936612936499</v>
+        <v>1.033453982289349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9559446090233844</v>
+        <v>1.023819926531252</v>
       </c>
       <c r="D9">
-        <v>1.026442710141579</v>
+        <v>1.025880711243438</v>
       </c>
       <c r="E9">
-        <v>0.9734460404117525</v>
+        <v>1.032827278913259</v>
       </c>
       <c r="F9">
-        <v>0.9729712455718523</v>
+        <v>1.04021829376622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046300249603783</v>
+        <v>1.028173049635261</v>
       </c>
       <c r="J9">
-        <v>0.9831550979781937</v>
+        <v>1.029696565096052</v>
       </c>
       <c r="K9">
-        <v>1.039120861272451</v>
+        <v>1.029076656696341</v>
       </c>
       <c r="L9">
-        <v>0.9869851483119254</v>
+        <v>1.036000241370182</v>
       </c>
       <c r="M9">
-        <v>0.9865186154893664</v>
+        <v>1.043367172052731</v>
       </c>
       <c r="N9">
-        <v>0.9845512909867887</v>
+        <v>1.031158852326335</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9445352670326965</v>
+        <v>1.021732687406677</v>
       </c>
       <c r="D10">
-        <v>1.023853917626846</v>
+        <v>1.025385058414673</v>
       </c>
       <c r="E10">
-        <v>0.9635236873254999</v>
+        <v>1.030910964937144</v>
       </c>
       <c r="F10">
-        <v>0.9617390381836062</v>
+        <v>1.038026988218159</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045800826930256</v>
+        <v>1.028190631074268</v>
       </c>
       <c r="J10">
-        <v>0.9751364464460608</v>
+        <v>1.028164574574658</v>
       </c>
       <c r="K10">
-        <v>1.037805436977404</v>
+        <v>1.02886901662911</v>
       </c>
       <c r="L10">
-        <v>0.9785843171802242</v>
+        <v>1.034374845117876</v>
       </c>
       <c r="M10">
-        <v>0.9768352648021933</v>
+        <v>1.041465360200861</v>
       </c>
       <c r="N10">
-        <v>0.9765212520497281</v>
+        <v>1.029624686202679</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9393867048017519</v>
+        <v>1.020828330211808</v>
       </c>
       <c r="D11">
-        <v>1.022708820873849</v>
+        <v>1.025170031100778</v>
       </c>
       <c r="E11">
-        <v>0.9590591648064886</v>
+        <v>1.030081045017767</v>
       </c>
       <c r="F11">
-        <v>0.9566850137326462</v>
+        <v>1.037078321730686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045565562565124</v>
+        <v>1.028196236062541</v>
       </c>
       <c r="J11">
-        <v>0.9715181138350977</v>
+        <v>1.027500197155752</v>
       </c>
       <c r="K11">
-        <v>1.037214823105151</v>
+        <v>1.028777753015332</v>
       </c>
       <c r="L11">
-        <v>0.9747967926556023</v>
+        <v>1.033670230717229</v>
       </c>
       <c r="M11">
-        <v>0.972472781069775</v>
+        <v>1.040641432365732</v>
       </c>
       <c r="N11">
-        <v>0.9728977809914289</v>
+        <v>1.028959365291633</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9374401672417777</v>
+        <v>1.020492320724775</v>
       </c>
       <c r="D12">
-        <v>1.022279813821028</v>
+        <v>1.02509010175386</v>
       </c>
       <c r="E12">
-        <v>0.9573733632940506</v>
+        <v>1.029772750100411</v>
       </c>
       <c r="F12">
-        <v>0.9547765371059674</v>
+        <v>1.036725967244162</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045475309823012</v>
+        <v>1.028198017265132</v>
       </c>
       <c r="J12">
-        <v>0.9701502469976464</v>
+        <v>1.027253261528089</v>
       </c>
       <c r="K12">
-        <v>1.036992263729265</v>
+        <v>1.028743651841878</v>
       </c>
       <c r="L12">
-        <v>0.9733654706982213</v>
+        <v>1.033408380493541</v>
       </c>
       <c r="M12">
-        <v>0.9708246484830209</v>
+        <v>1.040335319692193</v>
       </c>
       <c r="N12">
-        <v>0.9715279716261717</v>
+        <v>1.028712078987055</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9378593002460657</v>
+        <v>1.020564400104801</v>
       </c>
       <c r="D13">
-        <v>1.022372003920665</v>
+        <v>1.025107249484421</v>
       </c>
       <c r="E13">
-        <v>0.95773625560971</v>
+        <v>1.029838881637243</v>
       </c>
       <c r="F13">
-        <v>0.9551873679413334</v>
+        <v>1.036801547541351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04549479914511</v>
+        <v>1.028197648785465</v>
       </c>
       <c r="J13">
-        <v>0.9704447715298827</v>
+        <v>1.027306237190017</v>
       </c>
       <c r="K13">
-        <v>1.037040147666444</v>
+        <v>1.028750975765278</v>
       </c>
       <c r="L13">
-        <v>0.9736736350699291</v>
+        <v>1.033464553975997</v>
       </c>
       <c r="M13">
-        <v>0.9711794714952892</v>
+        <v>1.040400985102832</v>
       </c>
       <c r="N13">
-        <v>0.9718229144170262</v>
+        <v>1.028765129880499</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9392265173911887</v>
+        <v>1.020800557450148</v>
       </c>
       <c r="D14">
-        <v>1.022673434071068</v>
+        <v>1.025163425298077</v>
       </c>
       <c r="E14">
-        <v>0.9589203903196744</v>
+        <v>1.030055561812355</v>
       </c>
       <c r="F14">
-        <v>0.9565279106931126</v>
+        <v>1.037049195569475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045558160746259</v>
+        <v>1.028196389426981</v>
       </c>
       <c r="J14">
-        <v>0.9714055439611932</v>
+        <v>1.027479788589222</v>
       </c>
       <c r="K14">
-        <v>1.037196491250169</v>
+        <v>1.028774938309027</v>
       </c>
       <c r="L14">
-        <v>0.9746789903252108</v>
+        <v>1.033648588669355</v>
       </c>
       <c r="M14">
-        <v>0.9723371251549088</v>
+        <v>1.04061613043405</v>
       </c>
       <c r="N14">
-        <v>0.9727850512553913</v>
+        <v>1.028938927742598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9400642910774744</v>
+        <v>1.020946049567315</v>
       </c>
       <c r="D15">
-        <v>1.022858667935694</v>
+        <v>1.025198029374264</v>
       </c>
       <c r="E15">
-        <v>0.9596462624169917</v>
+        <v>1.030189062087951</v>
       </c>
       <c r="F15">
-        <v>0.9573496482925076</v>
+        <v>1.037201782521287</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045596819989582</v>
+        <v>1.028195573671256</v>
       </c>
       <c r="J15">
-        <v>0.9719942858358543</v>
+        <v>1.027586698515009</v>
       </c>
       <c r="K15">
-        <v>1.037292397812508</v>
+        <v>1.028789675730796</v>
       </c>
       <c r="L15">
-        <v>0.9752951186801014</v>
+        <v>1.033761961831765</v>
       </c>
       <c r="M15">
-        <v>0.9730466500534505</v>
+        <v>1.040748679270769</v>
       </c>
       <c r="N15">
-        <v>0.9733746292110441</v>
+        <v>1.029045989492742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9448723375458797</v>
+        <v>1.021792694161462</v>
       </c>
       <c r="D16">
-        <v>1.023929401978527</v>
+        <v>1.025399320714895</v>
       </c>
       <c r="E16">
-        <v>0.9638162575846039</v>
+        <v>1.030966040613384</v>
       </c>
       <c r="F16">
-        <v>0.9620702321611818</v>
+        <v>1.038089951519511</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045816039370123</v>
+        <v>1.028190216864643</v>
       </c>
       <c r="J16">
-        <v>0.975373346537225</v>
+        <v>1.028208645405253</v>
       </c>
       <c r="K16">
-        <v>1.037844189381429</v>
+        <v>1.028875045105079</v>
       </c>
       <c r="L16">
-        <v>0.9788323635066937</v>
+        <v>1.034421590726031</v>
       </c>
       <c r="M16">
-        <v>0.9771210313184815</v>
+        <v>1.041520032120772</v>
       </c>
       <c r="N16">
-        <v>0.9767584885661945</v>
+        <v>1.029668819618909</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9478306417321067</v>
+        <v>1.022323615771931</v>
       </c>
       <c r="D17">
-        <v>1.02459455542163</v>
+        <v>1.025525478374841</v>
       </c>
       <c r="E17">
-        <v>0.966385494153959</v>
+        <v>1.031453377401597</v>
       </c>
       <c r="F17">
-        <v>0.9649786248522009</v>
+        <v>1.038647121976612</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04594845407632</v>
+        <v>1.028186319765488</v>
       </c>
       <c r="J17">
-        <v>0.9774525326330228</v>
+        <v>1.028598501782261</v>
       </c>
       <c r="K17">
-        <v>1.038184670434247</v>
+        <v>1.02892823368536</v>
       </c>
       <c r="L17">
-        <v>0.981009746463378</v>
+        <v>1.034835139739719</v>
       </c>
       <c r="M17">
-        <v>0.9796298938512278</v>
+        <v>1.042003762906309</v>
       </c>
       <c r="N17">
-        <v>0.9788406273447341</v>
+        <v>1.030059229636689</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9495362877451485</v>
+        <v>1.022633238848842</v>
       </c>
       <c r="D18">
-        <v>1.024980202627936</v>
+        <v>1.025599024633332</v>
       </c>
       <c r="E18">
-        <v>0.9678680329210873</v>
+        <v>1.03173761916036</v>
       </c>
       <c r="F18">
-        <v>0.9666568595532715</v>
+        <v>1.038972128104004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046023855691627</v>
+        <v>1.02818385285959</v>
       </c>
       <c r="J18">
-        <v>0.9786513192533031</v>
+        <v>1.02882580069113</v>
       </c>
       <c r="K18">
-        <v>1.038381239943934</v>
+        <v>1.02895912692504</v>
       </c>
       <c r="L18">
-        <v>0.9822654559612195</v>
+        <v>1.035076278268112</v>
       </c>
       <c r="M18">
-        <v>0.9810770786392714</v>
+        <v>1.042285873631966</v>
       </c>
       <c r="N18">
-        <v>0.9800411163795181</v>
+        <v>1.03028685133608</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9501145774253006</v>
+        <v>1.02273880323527</v>
       </c>
       <c r="D19">
-        <v>1.025111305138301</v>
+        <v>1.025624095254975</v>
       </c>
       <c r="E19">
-        <v>0.9683708808154985</v>
+        <v>1.031834536082859</v>
       </c>
       <c r="F19">
-        <v>0.9672260837796621</v>
+        <v>1.039082950004158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046049254932278</v>
+        <v>1.028182978809425</v>
       </c>
       <c r="J19">
-        <v>0.9790577592334665</v>
+        <v>1.02890328728206</v>
       </c>
       <c r="K19">
-        <v>1.038447921787901</v>
+        <v>1.028969638492465</v>
       </c>
       <c r="L19">
-        <v>0.9826912467026593</v>
+        <v>1.035158487224475</v>
       </c>
       <c r="M19">
-        <v>0.9815678485946835</v>
+        <v>1.042382059235768</v>
       </c>
       <c r="N19">
-        <v>0.9804481335510724</v>
+        <v>1.030364447966857</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9475153197331752</v>
+        <v>1.022266658587825</v>
       </c>
       <c r="D20">
-        <v>1.024523431589315</v>
+        <v>1.025511946906694</v>
       </c>
       <c r="E20">
-        <v>0.9661115151297465</v>
+        <v>1.031401092208852</v>
       </c>
       <c r="F20">
-        <v>0.9646684801205185</v>
+        <v>1.038587341033059</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045934436955818</v>
+        <v>1.028186757925733</v>
       </c>
       <c r="J20">
-        <v>0.9772309133163168</v>
+        <v>1.02855668401827</v>
       </c>
       <c r="K20">
-        <v>1.038148349877796</v>
+        <v>1.028922540567382</v>
       </c>
       <c r="L20">
-        <v>0.9807776285025049</v>
+        <v>1.034790777901108</v>
       </c>
       <c r="M20">
-        <v>0.9793624068464698</v>
+        <v>1.041951867472192</v>
       </c>
       <c r="N20">
-        <v>0.9786186933031785</v>
+        <v>1.030017352486677</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9388248728501455</v>
+        <v>1.020731017553108</v>
       </c>
       <c r="D21">
-        <v>1.022584771977218</v>
+        <v>1.025146884520152</v>
       </c>
       <c r="E21">
-        <v>0.9585724699427977</v>
+        <v>1.029991755644657</v>
       </c>
       <c r="F21">
-        <v>0.9561340374635184</v>
+        <v>1.036976268817576</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045539581499646</v>
+        <v>1.028196768571164</v>
       </c>
       <c r="J21">
-        <v>0.9711232953331472</v>
+        <v>1.02742868637165</v>
       </c>
       <c r="K21">
-        <v>1.037150539886922</v>
+        <v>1.028767887494854</v>
       </c>
       <c r="L21">
-        <v>0.9743836304504004</v>
+        <v>1.033594398522078</v>
       </c>
       <c r="M21">
-        <v>0.9719970093496462</v>
+        <v>1.040552777442377</v>
       </c>
       <c r="N21">
-        <v>0.9725024018019193</v>
+        <v>1.028887752954016</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9331616882943199</v>
+        <v>1.019764970093797</v>
       </c>
       <c r="D22">
-        <v>1.02134462109487</v>
+        <v>1.024917017289605</v>
       </c>
       <c r="E22">
-        <v>0.9536720810642075</v>
+        <v>1.029105498996336</v>
       </c>
       <c r="F22">
-        <v>0.9505861411277555</v>
+        <v>1.035963451356113</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045274738750163</v>
+        <v>1.028201323127522</v>
       </c>
       <c r="J22">
-        <v>0.9671440532038645</v>
+        <v>1.026718563481539</v>
       </c>
       <c r="K22">
-        <v>1.036504773176328</v>
+        <v>1.028669484195791</v>
       </c>
       <c r="L22">
-        <v>0.9702207718580962</v>
+        <v>1.032841461854167</v>
       </c>
       <c r="M22">
-        <v>0.9672044427999799</v>
+        <v>1.039672711468772</v>
       </c>
       <c r="N22">
-        <v>0.9685175086923876</v>
+        <v>1.028176621607948</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9361837723563773</v>
+        <v>1.020277142110416</v>
       </c>
       <c r="D23">
-        <v>1.022004076002786</v>
+        <v>1.025038905493158</v>
       </c>
       <c r="E23">
-        <v>0.9562858796420245</v>
+        <v>1.029575336107435</v>
       </c>
       <c r="F23">
-        <v>0.9535453790344369</v>
+        <v>1.036500354652359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045416711806118</v>
+        <v>1.028199073251875</v>
       </c>
       <c r="J23">
-        <v>0.9692674070650067</v>
+        <v>1.027095100184892</v>
       </c>
       <c r="K23">
-        <v>1.036848857809568</v>
+        <v>1.028721759700692</v>
       </c>
       <c r="L23">
-        <v>0.9724418206861088</v>
+        <v>1.033240677867888</v>
       </c>
       <c r="M23">
-        <v>0.9697612171678539</v>
+        <v>1.040139290747095</v>
       </c>
       <c r="N23">
-        <v>0.9706438779595643</v>
+        <v>1.028553693036609</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9476578614044584</v>
+        <v>1.022292395255737</v>
       </c>
       <c r="D24">
-        <v>1.024555576572008</v>
+        <v>1.025518061316701</v>
       </c>
       <c r="E24">
-        <v>0.966235363902716</v>
+        <v>1.031424717678507</v>
       </c>
       <c r="F24">
-        <v>0.9648086771702016</v>
+        <v>1.038614353412237</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045940776355194</v>
+        <v>1.028186560538906</v>
       </c>
       <c r="J24">
-        <v>0.9773310965695958</v>
+        <v>1.028575579967526</v>
       </c>
       <c r="K24">
-        <v>1.03816476783782</v>
+        <v>1.028925113446604</v>
       </c>
       <c r="L24">
-        <v>0.9808825567303</v>
+        <v>1.034810823346057</v>
       </c>
       <c r="M24">
-        <v>0.9794833225831209</v>
+        <v>1.04197531691229</v>
       </c>
       <c r="N24">
-        <v>0.9787190188281681</v>
+        <v>1.030036275270348</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9602003410652747</v>
+        <v>1.024628864977666</v>
       </c>
       <c r="D25">
-        <v>1.027425357429848</v>
+        <v>1.026072541693807</v>
       </c>
       <c r="E25">
-        <v>0.9771572819130706</v>
+        <v>1.033570305248743</v>
       </c>
       <c r="F25">
-        <v>0.9771726338542438</v>
+        <v>1.041068256048337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046477018129713</v>
+        <v>1.028164434695646</v>
       </c>
       <c r="J25">
-        <v>0.9861455907071075</v>
+        <v>1.030289773934296</v>
       </c>
       <c r="K25">
-        <v>1.039612341487524</v>
+        <v>1.029155958733625</v>
       </c>
       <c r="L25">
-        <v>0.9901208636039752</v>
+        <v>1.036629858356135</v>
       </c>
       <c r="M25">
-        <v>0.9901359626837639</v>
+        <v>1.044104320226557</v>
       </c>
       <c r="N25">
-        <v>0.9875460305583917</v>
+        <v>1.031752903589171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026490916865734</v>
+        <v>0.9696699780673907</v>
       </c>
       <c r="D2">
-        <v>1.026513451475777</v>
+        <v>1.029642249779684</v>
       </c>
       <c r="E2">
-        <v>1.035281354641555</v>
+        <v>0.9854351935971645</v>
       </c>
       <c r="F2">
-        <v>1.043026249814855</v>
+        <v>0.9865451185770301</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028140619206577</v>
+        <v>1.046847012775419</v>
       </c>
       <c r="J2">
-        <v>1.031654064059758</v>
+        <v>0.992797310034105</v>
       </c>
       <c r="K2">
-        <v>1.029335878222202</v>
+        <v>1.040703507696006</v>
       </c>
       <c r="L2">
-        <v>1.03807840888099</v>
+        <v>0.9971012391323464</v>
       </c>
       <c r="M2">
-        <v>1.045801277101354</v>
+        <v>0.998195139369995</v>
       </c>
       <c r="N2">
-        <v>1.033119131163119</v>
+        <v>0.9942071960897962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027842156397847</v>
+        <v>0.9762733263671681</v>
       </c>
       <c r="D3">
-        <v>1.026832767717716</v>
+        <v>1.03121079133331</v>
       </c>
       <c r="E3">
-        <v>1.03652365096261</v>
+        <v>0.9912238284543031</v>
       </c>
       <c r="F3">
-        <v>1.044448464980237</v>
+        <v>0.9931008781123709</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028119731977348</v>
+        <v>1.047082302303657</v>
       </c>
       <c r="J3">
-        <v>1.032643018763664</v>
+        <v>0.9974323881816306</v>
       </c>
       <c r="K3">
-        <v>1.029464047931005</v>
+        <v>1.041459311046039</v>
       </c>
       <c r="L3">
-        <v>1.039128916684577</v>
+        <v>1.001970247450316</v>
       </c>
       <c r="M3">
-        <v>1.047032844707646</v>
+        <v>1.003822802300925</v>
       </c>
       <c r="N3">
-        <v>1.034109490296118</v>
+        <v>0.9988488565799427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028716173043294</v>
+        <v>0.9804308563658359</v>
       </c>
       <c r="D4">
-        <v>1.027038990663314</v>
+        <v>1.032206919829202</v>
       </c>
       <c r="E4">
-        <v>1.037327489195902</v>
+        <v>0.9948753413945478</v>
       </c>
       <c r="F4">
-        <v>1.045369012804245</v>
+        <v>0.9972373129875087</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02810454699596</v>
+        <v>1.047219142987687</v>
       </c>
       <c r="J4">
-        <v>1.033282201577143</v>
+        <v>1.000348744349649</v>
       </c>
       <c r="K4">
-        <v>1.029545830079758</v>
+        <v>1.041931574488913</v>
       </c>
       <c r="L4">
-        <v>1.039808101438636</v>
+        <v>1.005036012583141</v>
       </c>
       <c r="M4">
-        <v>1.047829512859632</v>
+        <v>1.007369195967843</v>
       </c>
       <c r="N4">
-        <v>1.034749580822508</v>
+        <v>1.00176935430823</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02908353615165</v>
+        <v>0.9821525471818841</v>
       </c>
       <c r="D5">
-        <v>1.027125589626558</v>
+        <v>1.032621214092848</v>
       </c>
       <c r="E5">
-        <v>1.037665423616462</v>
+        <v>0.9963890650223156</v>
       </c>
       <c r="F5">
-        <v>1.045756082122717</v>
+        <v>0.9989523341857303</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028097762610936</v>
+        <v>1.047272985406224</v>
       </c>
       <c r="J5">
-        <v>1.033550740576031</v>
+        <v>1.0015559268498</v>
       </c>
       <c r="K5">
-        <v>1.029579933844576</v>
+        <v>1.042126105599354</v>
       </c>
       <c r="L5">
-        <v>1.040093498731202</v>
+        <v>1.006305567336981</v>
       </c>
       <c r="M5">
-        <v>1.048164378682872</v>
+        <v>1.008838501981718</v>
       </c>
       <c r="N5">
-        <v>1.035018501177576</v>
+        <v>1.002978251145997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029145213854658</v>
+        <v>0.9824401345519934</v>
       </c>
       <c r="D6">
-        <v>1.027140124207022</v>
+        <v>1.03269051411446</v>
       </c>
       <c r="E6">
-        <v>1.037722164438539</v>
+        <v>0.9966420047254996</v>
       </c>
       <c r="F6">
-        <v>1.045821077047701</v>
+        <v>0.9992389272713695</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028096599963333</v>
+        <v>1.047281809749891</v>
       </c>
       <c r="J6">
-        <v>1.033595819370691</v>
+        <v>1.001757539661114</v>
       </c>
       <c r="K6">
-        <v>1.029585643700015</v>
+        <v>1.042158533491345</v>
       </c>
       <c r="L6">
-        <v>1.040141410541831</v>
+        <v>1.006517627797344</v>
       </c>
       <c r="M6">
-        <v>1.048220601097659</v>
+        <v>1.009083970658862</v>
       </c>
       <c r="N6">
-        <v>1.035063643989295</v>
+        <v>1.003180150270629</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028721082050322</v>
+        <v>0.9804539625227746</v>
       </c>
       <c r="D7">
-        <v>1.027040148187686</v>
+        <v>1.032212473207964</v>
       </c>
       <c r="E7">
-        <v>1.037332004684755</v>
+        <v>0.9948956503519821</v>
       </c>
       <c r="F7">
-        <v>1.045374184559297</v>
+        <v>0.9972603215390075</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028104457918005</v>
+        <v>1.047219876909365</v>
       </c>
       <c r="J7">
-        <v>1.033285790486255</v>
+        <v>1.000364947620685</v>
       </c>
       <c r="K7">
-        <v>1.029546286868166</v>
+        <v>1.04193418955789</v>
       </c>
       <c r="L7">
-        <v>1.039811915446027</v>
+        <v>1.005053050963265</v>
       </c>
       <c r="M7">
-        <v>1.047833987558758</v>
+        <v>1.007388912295902</v>
       </c>
       <c r="N7">
-        <v>1.034753174828282</v>
+        <v>1.00178558058977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026947644726116</v>
+        <v>0.9719263969704289</v>
       </c>
       <c r="D8">
-        <v>1.026621446480098</v>
+        <v>1.030176260413161</v>
       </c>
       <c r="E8">
-        <v>1.03570119870601</v>
+        <v>0.9874117050539661</v>
       </c>
       <c r="F8">
-        <v>1.043506838681758</v>
+        <v>0.9887833688435687</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02813390540539</v>
+        <v>1.04692972229462</v>
       </c>
       <c r="J8">
-        <v>1.031988440333347</v>
+        <v>0.9943815254703267</v>
       </c>
       <c r="K8">
-        <v>1.029379431388346</v>
+        <v>1.040962419099498</v>
       </c>
       <c r="L8">
-        <v>1.038433551539637</v>
+        <v>0.9987649366676555</v>
       </c>
       <c r="M8">
-        <v>1.046217542688354</v>
+        <v>1.0001174511716</v>
       </c>
       <c r="N8">
-        <v>1.033453982289349</v>
+        <v>0.9957936612936495</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023819926531252</v>
+        <v>0.9559446090233851</v>
       </c>
       <c r="D9">
-        <v>1.025880711243438</v>
+        <v>1.026442710141579</v>
       </c>
       <c r="E9">
-        <v>1.032827278913259</v>
+        <v>0.9734460404117534</v>
       </c>
       <c r="F9">
-        <v>1.04021829376622</v>
+        <v>0.9729712455718531</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028173049635261</v>
+        <v>1.046300249603783</v>
       </c>
       <c r="J9">
-        <v>1.029696565096052</v>
+        <v>0.9831550979781944</v>
       </c>
       <c r="K9">
-        <v>1.029076656696341</v>
+        <v>1.039120861272451</v>
       </c>
       <c r="L9">
-        <v>1.036000241370182</v>
+        <v>0.986985148311926</v>
       </c>
       <c r="M9">
-        <v>1.043367172052731</v>
+        <v>0.986518615489367</v>
       </c>
       <c r="N9">
-        <v>1.031158852326335</v>
+        <v>0.9845512909867895</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021732687406677</v>
+        <v>0.944535267032697</v>
       </c>
       <c r="D10">
-        <v>1.025385058414673</v>
+        <v>1.023853917626846</v>
       </c>
       <c r="E10">
-        <v>1.030910964937144</v>
+        <v>0.9635236873255</v>
       </c>
       <c r="F10">
-        <v>1.038026988218159</v>
+        <v>0.9617390381836067</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028190631074268</v>
+        <v>1.045800826930256</v>
       </c>
       <c r="J10">
-        <v>1.028164574574658</v>
+        <v>0.9751364464460611</v>
       </c>
       <c r="K10">
-        <v>1.02886901662911</v>
+        <v>1.037805436977404</v>
       </c>
       <c r="L10">
-        <v>1.034374845117876</v>
+        <v>0.9785843171802244</v>
       </c>
       <c r="M10">
-        <v>1.041465360200861</v>
+        <v>0.9768352648021938</v>
       </c>
       <c r="N10">
-        <v>1.029624686202679</v>
+        <v>0.9765212520497284</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020828330211808</v>
+        <v>0.939386704801752</v>
       </c>
       <c r="D11">
-        <v>1.025170031100778</v>
+        <v>1.022708820873849</v>
       </c>
       <c r="E11">
-        <v>1.030081045017767</v>
+        <v>0.9590591648064887</v>
       </c>
       <c r="F11">
-        <v>1.037078321730686</v>
+        <v>0.9566850137326466</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028196236062541</v>
+        <v>1.045565562565124</v>
       </c>
       <c r="J11">
-        <v>1.027500197155752</v>
+        <v>0.9715181138350977</v>
       </c>
       <c r="K11">
-        <v>1.028777753015332</v>
+        <v>1.037214823105151</v>
       </c>
       <c r="L11">
-        <v>1.033670230717229</v>
+        <v>0.9747967926556024</v>
       </c>
       <c r="M11">
-        <v>1.040641432365732</v>
+        <v>0.9724727810697754</v>
       </c>
       <c r="N11">
-        <v>1.028959365291633</v>
+        <v>0.9728977809914287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020492320724775</v>
+        <v>0.9374401672417778</v>
       </c>
       <c r="D12">
-        <v>1.02509010175386</v>
+        <v>1.022279813821027</v>
       </c>
       <c r="E12">
-        <v>1.029772750100411</v>
+        <v>0.9573733632940508</v>
       </c>
       <c r="F12">
-        <v>1.036725967244162</v>
+        <v>0.9547765371059671</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028198017265132</v>
+        <v>1.045475309823012</v>
       </c>
       <c r="J12">
-        <v>1.027253261528089</v>
+        <v>0.9701502469976465</v>
       </c>
       <c r="K12">
-        <v>1.028743651841878</v>
+        <v>1.036992263729265</v>
       </c>
       <c r="L12">
-        <v>1.033408380493541</v>
+        <v>0.9733654706982214</v>
       </c>
       <c r="M12">
-        <v>1.040335319692193</v>
+        <v>0.9708246484830207</v>
       </c>
       <c r="N12">
-        <v>1.028712078987055</v>
+        <v>0.9715279716261718</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020564400104801</v>
+        <v>0.9378593002460651</v>
       </c>
       <c r="D13">
-        <v>1.025107249484421</v>
+        <v>1.022372003920665</v>
       </c>
       <c r="E13">
-        <v>1.029838881637243</v>
+        <v>0.9577362556097095</v>
       </c>
       <c r="F13">
-        <v>1.036801547541351</v>
+        <v>0.9551873679413327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028197648785465</v>
+        <v>1.04549479914511</v>
       </c>
       <c r="J13">
-        <v>1.027306237190017</v>
+        <v>0.9704447715298824</v>
       </c>
       <c r="K13">
-        <v>1.028750975765278</v>
+        <v>1.037040147666444</v>
       </c>
       <c r="L13">
-        <v>1.033464553975997</v>
+        <v>0.9736736350699287</v>
       </c>
       <c r="M13">
-        <v>1.040400985102832</v>
+        <v>0.9711794714952886</v>
       </c>
       <c r="N13">
-        <v>1.028765129880499</v>
+        <v>0.971822914417026</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020800557450148</v>
+        <v>0.9392265173911895</v>
       </c>
       <c r="D14">
-        <v>1.025163425298077</v>
+        <v>1.022673434071068</v>
       </c>
       <c r="E14">
-        <v>1.030055561812355</v>
+        <v>0.9589203903196749</v>
       </c>
       <c r="F14">
-        <v>1.037049195569475</v>
+        <v>0.9565279106931132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028196389426981</v>
+        <v>1.045558160746259</v>
       </c>
       <c r="J14">
-        <v>1.027479788589222</v>
+        <v>0.9714055439611937</v>
       </c>
       <c r="K14">
-        <v>1.028774938309027</v>
+        <v>1.03719649125017</v>
       </c>
       <c r="L14">
-        <v>1.033648588669355</v>
+        <v>0.9746789903252113</v>
       </c>
       <c r="M14">
-        <v>1.04061613043405</v>
+        <v>0.9723371251549092</v>
       </c>
       <c r="N14">
-        <v>1.028938927742598</v>
+        <v>0.9727850512553916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020946049567315</v>
+        <v>0.9400642910774755</v>
       </c>
       <c r="D15">
-        <v>1.025198029374264</v>
+        <v>1.022858667935694</v>
       </c>
       <c r="E15">
-        <v>1.030189062087951</v>
+        <v>0.9596462624169927</v>
       </c>
       <c r="F15">
-        <v>1.037201782521287</v>
+        <v>0.9573496482925086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028195573671256</v>
+        <v>1.045596819989582</v>
       </c>
       <c r="J15">
-        <v>1.027586698515009</v>
+        <v>0.9719942858358552</v>
       </c>
       <c r="K15">
-        <v>1.028789675730796</v>
+        <v>1.037292397812507</v>
       </c>
       <c r="L15">
-        <v>1.033761961831765</v>
+        <v>0.9752951186801025</v>
       </c>
       <c r="M15">
-        <v>1.040748679270769</v>
+        <v>0.9730466500534515</v>
       </c>
       <c r="N15">
-        <v>1.029045989492742</v>
+        <v>0.973374629211045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021792694161462</v>
+        <v>0.9448723375458798</v>
       </c>
       <c r="D16">
-        <v>1.025399320714895</v>
+        <v>1.023929401978527</v>
       </c>
       <c r="E16">
-        <v>1.030966040613384</v>
+        <v>0.9638162575846041</v>
       </c>
       <c r="F16">
-        <v>1.038089951519511</v>
+        <v>0.9620702321611824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028190216864643</v>
+        <v>1.045816039370123</v>
       </c>
       <c r="J16">
-        <v>1.028208645405253</v>
+        <v>0.9753733465372251</v>
       </c>
       <c r="K16">
-        <v>1.028875045105079</v>
+        <v>1.037844189381429</v>
       </c>
       <c r="L16">
-        <v>1.034421590726031</v>
+        <v>0.9788323635066938</v>
       </c>
       <c r="M16">
-        <v>1.041520032120772</v>
+        <v>0.9771210313184817</v>
       </c>
       <c r="N16">
-        <v>1.029668819618909</v>
+        <v>0.9767584885661946</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022323615771931</v>
+        <v>0.9478306417321068</v>
       </c>
       <c r="D17">
-        <v>1.025525478374841</v>
+        <v>1.02459455542163</v>
       </c>
       <c r="E17">
-        <v>1.031453377401597</v>
+        <v>0.966385494153959</v>
       </c>
       <c r="F17">
-        <v>1.038647121976612</v>
+        <v>0.9649786248522005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028186319765488</v>
+        <v>1.04594845407632</v>
       </c>
       <c r="J17">
-        <v>1.028598501782261</v>
+        <v>0.9774525326330226</v>
       </c>
       <c r="K17">
-        <v>1.02892823368536</v>
+        <v>1.038184670434247</v>
       </c>
       <c r="L17">
-        <v>1.034835139739719</v>
+        <v>0.9810097464633778</v>
       </c>
       <c r="M17">
-        <v>1.042003762906309</v>
+        <v>0.9796298938512272</v>
       </c>
       <c r="N17">
-        <v>1.030059229636689</v>
+        <v>0.9788406273447338</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022633238848842</v>
+        <v>0.9495362877451486</v>
       </c>
       <c r="D18">
-        <v>1.025599024633332</v>
+        <v>1.024980202627936</v>
       </c>
       <c r="E18">
-        <v>1.03173761916036</v>
+        <v>0.9678680329210874</v>
       </c>
       <c r="F18">
-        <v>1.038972128104004</v>
+        <v>0.9666568595532715</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02818385285959</v>
+        <v>1.046023855691627</v>
       </c>
       <c r="J18">
-        <v>1.02882580069113</v>
+        <v>0.9786513192533032</v>
       </c>
       <c r="K18">
-        <v>1.02895912692504</v>
+        <v>1.038381239943934</v>
       </c>
       <c r="L18">
-        <v>1.035076278268112</v>
+        <v>0.9822654559612197</v>
       </c>
       <c r="M18">
-        <v>1.042285873631966</v>
+        <v>0.9810770786392715</v>
       </c>
       <c r="N18">
-        <v>1.03028685133608</v>
+        <v>0.9800411163795183</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02273880323527</v>
+        <v>0.9501145774253006</v>
       </c>
       <c r="D19">
-        <v>1.025624095254975</v>
+        <v>1.025111305138301</v>
       </c>
       <c r="E19">
-        <v>1.031834536082859</v>
+        <v>0.9683708808154986</v>
       </c>
       <c r="F19">
-        <v>1.039082950004158</v>
+        <v>0.9672260837796619</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028182978809425</v>
+        <v>1.046049254932278</v>
       </c>
       <c r="J19">
-        <v>1.02890328728206</v>
+        <v>0.9790577592334666</v>
       </c>
       <c r="K19">
-        <v>1.028969638492465</v>
+        <v>1.038447921787901</v>
       </c>
       <c r="L19">
-        <v>1.035158487224475</v>
+        <v>0.9826912467026595</v>
       </c>
       <c r="M19">
-        <v>1.042382059235768</v>
+        <v>0.9815678485946833</v>
       </c>
       <c r="N19">
-        <v>1.030364447966857</v>
+        <v>0.9804481335510729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022266658587825</v>
+        <v>0.947515319733174</v>
       </c>
       <c r="D20">
-        <v>1.025511946906694</v>
+        <v>1.024523431589315</v>
       </c>
       <c r="E20">
-        <v>1.031401092208852</v>
+        <v>0.9661115151297454</v>
       </c>
       <c r="F20">
-        <v>1.038587341033059</v>
+        <v>0.9646684801205178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028186757925733</v>
+        <v>1.045934436955818</v>
       </c>
       <c r="J20">
-        <v>1.02855668401827</v>
+        <v>0.9772309133163158</v>
       </c>
       <c r="K20">
-        <v>1.028922540567382</v>
+        <v>1.038148349877796</v>
       </c>
       <c r="L20">
-        <v>1.034790777901108</v>
+        <v>0.9807776285025039</v>
       </c>
       <c r="M20">
-        <v>1.041951867472192</v>
+        <v>0.9793624068464687</v>
       </c>
       <c r="N20">
-        <v>1.030017352486677</v>
+        <v>0.9786186933031774</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020731017553108</v>
+        <v>0.9388248728501456</v>
       </c>
       <c r="D21">
-        <v>1.025146884520152</v>
+        <v>1.022584771977218</v>
       </c>
       <c r="E21">
-        <v>1.029991755644657</v>
+        <v>0.958572469942798</v>
       </c>
       <c r="F21">
-        <v>1.036976268817576</v>
+        <v>0.9561340374635183</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028196768571164</v>
+        <v>1.045539581499646</v>
       </c>
       <c r="J21">
-        <v>1.02742868637165</v>
+        <v>0.9711232953331475</v>
       </c>
       <c r="K21">
-        <v>1.028767887494854</v>
+        <v>1.037150539886922</v>
       </c>
       <c r="L21">
-        <v>1.033594398522078</v>
+        <v>0.9743836304504006</v>
       </c>
       <c r="M21">
-        <v>1.040552777442377</v>
+        <v>0.9719970093496462</v>
       </c>
       <c r="N21">
-        <v>1.028887752954016</v>
+        <v>0.9725024018019194</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019764970093797</v>
+        <v>0.9331616882943194</v>
       </c>
       <c r="D22">
-        <v>1.024917017289605</v>
+        <v>1.021344621094871</v>
       </c>
       <c r="E22">
-        <v>1.029105498996336</v>
+        <v>0.9536720810642069</v>
       </c>
       <c r="F22">
-        <v>1.035963451356113</v>
+        <v>0.950586141127755</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028201323127522</v>
+        <v>1.045274738750164</v>
       </c>
       <c r="J22">
-        <v>1.026718563481539</v>
+        <v>0.967144053203864</v>
       </c>
       <c r="K22">
-        <v>1.028669484195791</v>
+        <v>1.036504773176329</v>
       </c>
       <c r="L22">
-        <v>1.032841461854167</v>
+        <v>0.9702207718580957</v>
       </c>
       <c r="M22">
-        <v>1.039672711468772</v>
+        <v>0.9672044427999792</v>
       </c>
       <c r="N22">
-        <v>1.028176621607948</v>
+        <v>0.9685175086923872</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020277142110416</v>
+        <v>0.9361837723563776</v>
       </c>
       <c r="D23">
-        <v>1.025038905493158</v>
+        <v>1.022004076002786</v>
       </c>
       <c r="E23">
-        <v>1.029575336107435</v>
+        <v>0.9562858796420246</v>
       </c>
       <c r="F23">
-        <v>1.036500354652359</v>
+        <v>0.9535453790344368</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028199073251875</v>
+        <v>1.045416711806118</v>
       </c>
       <c r="J23">
-        <v>1.027095100184892</v>
+        <v>0.9692674070650069</v>
       </c>
       <c r="K23">
-        <v>1.028721759700692</v>
+        <v>1.036848857809568</v>
       </c>
       <c r="L23">
-        <v>1.033240677867888</v>
+        <v>0.972441820686109</v>
       </c>
       <c r="M23">
-        <v>1.040139290747095</v>
+        <v>0.9697612171678539</v>
       </c>
       <c r="N23">
-        <v>1.028553693036609</v>
+        <v>0.9706438779595645</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022292395255737</v>
+        <v>0.947657861404458</v>
       </c>
       <c r="D24">
-        <v>1.025518061316701</v>
+        <v>1.024555576572009</v>
       </c>
       <c r="E24">
-        <v>1.031424717678507</v>
+        <v>0.9662353639027154</v>
       </c>
       <c r="F24">
-        <v>1.038614353412237</v>
+        <v>0.9648086771702007</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028186560538906</v>
+        <v>1.045940776355194</v>
       </c>
       <c r="J24">
-        <v>1.028575579967526</v>
+        <v>0.977331096569595</v>
       </c>
       <c r="K24">
-        <v>1.028925113446604</v>
+        <v>1.03816476783782</v>
       </c>
       <c r="L24">
-        <v>1.034810823346057</v>
+        <v>0.9808825567302992</v>
       </c>
       <c r="M24">
-        <v>1.04197531691229</v>
+        <v>0.9794833225831201</v>
       </c>
       <c r="N24">
-        <v>1.030036275270348</v>
+        <v>0.9787190188281674</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024628864977666</v>
+        <v>0.9602003410652746</v>
       </c>
       <c r="D25">
-        <v>1.026072541693807</v>
+        <v>1.027425357429848</v>
       </c>
       <c r="E25">
-        <v>1.033570305248743</v>
+        <v>0.9771572819130708</v>
       </c>
       <c r="F25">
-        <v>1.041068256048337</v>
+        <v>0.9771726338542437</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028164434695646</v>
+        <v>1.046477018129713</v>
       </c>
       <c r="J25">
-        <v>1.030289773934296</v>
+        <v>0.9861455907071072</v>
       </c>
       <c r="K25">
-        <v>1.029155958733625</v>
+        <v>1.039612341487525</v>
       </c>
       <c r="L25">
-        <v>1.036629858356135</v>
+        <v>0.9901208636039753</v>
       </c>
       <c r="M25">
-        <v>1.044104320226557</v>
+        <v>0.990135962683764</v>
       </c>
       <c r="N25">
-        <v>1.031752903589171</v>
+        <v>0.9875460305583916</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9696699780673907</v>
+        <v>0.9956159117081541</v>
       </c>
       <c r="D2">
-        <v>1.029642249779684</v>
+        <v>1.033146481450236</v>
       </c>
       <c r="E2">
-        <v>0.9854351935971645</v>
+        <v>1.00269007937021</v>
       </c>
       <c r="F2">
-        <v>0.9865451185770301</v>
+        <v>1.023905953534584</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046847012775419</v>
+        <v>1.045383668951831</v>
       </c>
       <c r="J2">
-        <v>0.992797310034105</v>
+        <v>1.017928545500203</v>
       </c>
       <c r="K2">
-        <v>1.040703507696006</v>
+        <v>1.044162568038076</v>
       </c>
       <c r="L2">
-        <v>0.9971012391323464</v>
+        <v>1.014112063906238</v>
       </c>
       <c r="M2">
-        <v>0.998195139369995</v>
+        <v>1.03504199152734</v>
       </c>
       <c r="N2">
-        <v>0.9942071960897962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009931147054108</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03630576385335</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042297041525333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9762733263671681</v>
+        <v>0.999065580739979</v>
       </c>
       <c r="D3">
-        <v>1.03121079133331</v>
+        <v>1.034785406414118</v>
       </c>
       <c r="E3">
-        <v>0.9912238284543031</v>
+        <v>1.005364625738373</v>
       </c>
       <c r="F3">
-        <v>0.9931008781123709</v>
+        <v>1.026479951268242</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047082302303657</v>
+        <v>1.045974415013742</v>
       </c>
       <c r="J3">
-        <v>0.9974323881816306</v>
+        <v>1.019581751420252</v>
       </c>
       <c r="K3">
-        <v>1.041459311046039</v>
+        <v>1.04499173731861</v>
       </c>
       <c r="L3">
-        <v>1.001970247450316</v>
+        <v>1.015929322287587</v>
       </c>
       <c r="M3">
-        <v>1.003822802300925</v>
+        <v>1.036784866303092</v>
       </c>
       <c r="N3">
-        <v>0.9988488565799427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010491813467719</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037685139132168</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04288067468755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9804308563658359</v>
+        <v>1.00125996701221</v>
       </c>
       <c r="D4">
-        <v>1.032206919829202</v>
+        <v>1.035834665504234</v>
       </c>
       <c r="E4">
-        <v>0.9948753413945478</v>
+        <v>1.007071774729892</v>
       </c>
       <c r="F4">
-        <v>0.9972373129875087</v>
+        <v>1.028124257916507</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047219142987687</v>
+        <v>1.046343205629848</v>
       </c>
       <c r="J4">
-        <v>1.000348744349649</v>
+        <v>1.020631497526495</v>
       </c>
       <c r="K4">
-        <v>1.041931574488913</v>
+        <v>1.045519010794925</v>
       </c>
       <c r="L4">
-        <v>1.005036012583141</v>
+        <v>1.017085592413971</v>
       </c>
       <c r="M4">
-        <v>1.007369195967843</v>
+        <v>1.037894695753613</v>
       </c>
       <c r="N4">
-        <v>1.00176935430823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010847703667315</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.038563497638048</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043254388087119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9821525471818841</v>
+        <v>1.002174378727078</v>
       </c>
       <c r="D5">
-        <v>1.032621214092848</v>
+        <v>1.036278831120276</v>
       </c>
       <c r="E5">
-        <v>0.9963890650223156</v>
+        <v>1.007784633861374</v>
       </c>
       <c r="F5">
-        <v>0.9989523341857303</v>
+        <v>1.028811019407601</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047272985406224</v>
+        <v>1.046496896976089</v>
       </c>
       <c r="J5">
-        <v>1.0015559268498</v>
+        <v>1.021068799180887</v>
       </c>
       <c r="K5">
-        <v>1.042126105599354</v>
+        <v>1.045744132666121</v>
       </c>
       <c r="L5">
-        <v>1.006305567336981</v>
+        <v>1.017567737889846</v>
       </c>
       <c r="M5">
-        <v>1.008838501981718</v>
+        <v>1.038357519997313</v>
       </c>
       <c r="N5">
-        <v>1.002978251145997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010996069103446</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038929792889353</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04342070325181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9824401345519934</v>
+        <v>1.00232823958902</v>
       </c>
       <c r="D6">
-        <v>1.03269051411446</v>
+        <v>1.036360186200677</v>
       </c>
       <c r="E6">
-        <v>0.9966420047254996</v>
+        <v>1.007904797645365</v>
       </c>
       <c r="F6">
-        <v>0.9992389272713695</v>
+        <v>1.028926599542148</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047281809749891</v>
+        <v>1.046524748842078</v>
       </c>
       <c r="J6">
-        <v>1.001757539661114</v>
+        <v>1.02114276779106</v>
       </c>
       <c r="K6">
-        <v>1.042158533491345</v>
+        <v>1.045788661896464</v>
       </c>
       <c r="L6">
-        <v>1.006517627797344</v>
+        <v>1.017649205559579</v>
       </c>
       <c r="M6">
-        <v>1.009083970658862</v>
+        <v>1.038435537802566</v>
       </c>
       <c r="N6">
-        <v>1.003180150270629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011021334053179</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038991538883504</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043460893272087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9804539625227746</v>
+        <v>1.001274448967221</v>
       </c>
       <c r="D7">
-        <v>1.032212473207964</v>
+        <v>1.035859157420064</v>
       </c>
       <c r="E7">
-        <v>0.9948956503519821</v>
+        <v>1.007083429055754</v>
       </c>
       <c r="F7">
-        <v>0.9972603215390075</v>
+        <v>1.028134930927785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047219876909365</v>
+        <v>1.046351228033348</v>
       </c>
       <c r="J7">
-        <v>1.000364947620685</v>
+        <v>1.020639531522773</v>
       </c>
       <c r="K7">
-        <v>1.04193418955789</v>
+        <v>1.045540368908905</v>
       </c>
       <c r="L7">
-        <v>1.005053050963265</v>
+        <v>1.017094135518746</v>
       </c>
       <c r="M7">
-        <v>1.007388912295902</v>
+        <v>1.037902356910292</v>
       </c>
       <c r="N7">
-        <v>1.00178558058977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010850895337068</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.038569560946216</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043289507059163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9719263969704289</v>
+        <v>0.9967924150908724</v>
       </c>
       <c r="D8">
-        <v>1.030176260413161</v>
+        <v>1.033725473041111</v>
       </c>
       <c r="E8">
-        <v>0.9874117050539661</v>
+        <v>1.003601468641701</v>
       </c>
       <c r="F8">
-        <v>0.9887833688435687</v>
+        <v>1.024782062851785</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04692972229462</v>
+        <v>1.045593352229824</v>
       </c>
       <c r="J8">
-        <v>0.9943815254703267</v>
+        <v>1.018494073488587</v>
       </c>
       <c r="K8">
-        <v>1.040962419099498</v>
+        <v>1.044467196836736</v>
       </c>
       <c r="L8">
-        <v>0.9987649366676555</v>
+        <v>1.014732875748892</v>
       </c>
       <c r="M8">
-        <v>1.0001174511716</v>
+        <v>1.035636491073644</v>
       </c>
       <c r="N8">
-        <v>0.9957936612936495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010123570965396</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036776272987249</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042535226457791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9559446090233851</v>
+        <v>0.9885901049216532</v>
       </c>
       <c r="D9">
-        <v>1.026442710141579</v>
+        <v>1.029848245761536</v>
       </c>
       <c r="E9">
-        <v>0.9734460404117534</v>
+        <v>0.9972762643070293</v>
       </c>
       <c r="F9">
-        <v>0.9729712455718531</v>
+        <v>1.018703393243098</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046300249603783</v>
+        <v>1.044143809937409</v>
       </c>
       <c r="J9">
-        <v>0.9831550979781944</v>
+        <v>1.014552311160095</v>
       </c>
       <c r="K9">
-        <v>1.039120861272451</v>
+        <v>1.042474931130231</v>
       </c>
       <c r="L9">
-        <v>0.986985148311926</v>
+        <v>1.010413687338785</v>
       </c>
       <c r="M9">
-        <v>0.986518615489367</v>
+        <v>1.031500138016817</v>
       </c>
       <c r="N9">
-        <v>0.9845512909867895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008785645209746</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033502602283616</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041123431122489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.944535267032697</v>
+        <v>0.9829599931191594</v>
       </c>
       <c r="D10">
-        <v>1.023853917626846</v>
+        <v>1.027229646553676</v>
       </c>
       <c r="E10">
-        <v>0.9635236873255</v>
+        <v>0.9929755775459765</v>
       </c>
       <c r="F10">
-        <v>0.9617390381836067</v>
+        <v>1.014746778554571</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045800826930256</v>
+        <v>1.043138473568715</v>
       </c>
       <c r="J10">
-        <v>0.9751364464460611</v>
+        <v>1.011866382898418</v>
       </c>
       <c r="K10">
-        <v>1.037805436977404</v>
+        <v>1.041124070559115</v>
       </c>
       <c r="L10">
-        <v>0.9785843171802244</v>
+        <v>1.007472829006947</v>
       </c>
       <c r="M10">
-        <v>0.9768352648021938</v>
+        <v>1.028854784023185</v>
       </c>
       <c r="N10">
-        <v>0.9765212520497284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007876995238978</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03146083839841</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040185016470013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.939386704801752</v>
+        <v>0.9809178795616991</v>
       </c>
       <c r="D11">
-        <v>1.022708820873849</v>
+        <v>1.026284571592542</v>
       </c>
       <c r="E11">
-        <v>0.9590591648064887</v>
+        <v>0.9914801434928258</v>
       </c>
       <c r="F11">
-        <v>0.9566850137326466</v>
+        <v>1.014704973862505</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045565562565124</v>
+        <v>1.042947193336209</v>
       </c>
       <c r="J11">
-        <v>0.9715181138350977</v>
+        <v>1.011106622524648</v>
       </c>
       <c r="K11">
-        <v>1.037214823105151</v>
+        <v>1.040727258217686</v>
       </c>
       <c r="L11">
-        <v>0.9747967926556024</v>
+        <v>1.006564540489883</v>
       </c>
       <c r="M11">
-        <v>0.9724727810697754</v>
+        <v>1.029354803712957</v>
       </c>
       <c r="N11">
-        <v>0.9728977809914287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007649156999593</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032295893520536</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039937088089533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9374401672417778</v>
+        <v>0.9803043761526845</v>
       </c>
       <c r="D12">
-        <v>1.022279813821027</v>
+        <v>1.025980498973609</v>
       </c>
       <c r="E12">
-        <v>0.9573733632940508</v>
+        <v>0.991056806202107</v>
       </c>
       <c r="F12">
-        <v>0.9547765371059671</v>
+        <v>1.015268151444225</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045475309823012</v>
+        <v>1.042957385822041</v>
       </c>
       <c r="J12">
-        <v>0.9701502469976465</v>
+        <v>1.01096633018707</v>
       </c>
       <c r="K12">
-        <v>1.036992263729265</v>
+        <v>1.040626324651196</v>
       </c>
       <c r="L12">
-        <v>0.9733654706982214</v>
+        <v>1.006357373065209</v>
       </c>
       <c r="M12">
-        <v>0.9708246484830207</v>
+        <v>1.030108569354721</v>
       </c>
       <c r="N12">
-        <v>0.9715279716261718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007625734517658</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033220395826093</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039865725678682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9378593002460651</v>
+        <v>0.980750758087924</v>
       </c>
       <c r="D13">
-        <v>1.022372003920665</v>
+        <v>1.026168687955003</v>
       </c>
       <c r="E13">
-        <v>0.9577362556097095</v>
+        <v>0.9914293838363023</v>
       </c>
       <c r="F13">
-        <v>0.9551873679413327</v>
+        <v>1.016355481523354</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04549479914511</v>
+        <v>1.043133458427411</v>
       </c>
       <c r="J13">
-        <v>0.9704447715298824</v>
+        <v>1.011297035472076</v>
       </c>
       <c r="K13">
-        <v>1.037040147666444</v>
+        <v>1.040768731505401</v>
       </c>
       <c r="L13">
-        <v>0.9736736350699287</v>
+        <v>1.006678053413075</v>
       </c>
       <c r="M13">
-        <v>0.9711794714952886</v>
+        <v>1.031132898931756</v>
       </c>
       <c r="N13">
-        <v>0.971822914417026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007759849167603</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034308278282094</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039963934450618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9392265173911895</v>
+        <v>0.9815389437163013</v>
       </c>
       <c r="D14">
-        <v>1.022673434071068</v>
+        <v>1.026525742597137</v>
       </c>
       <c r="E14">
-        <v>0.9589203903196749</v>
+        <v>0.9920469516639093</v>
       </c>
       <c r="F14">
-        <v>0.9565279106931132</v>
+        <v>1.017340639048421</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045558160746259</v>
+        <v>1.043329892263123</v>
       </c>
       <c r="J14">
-        <v>0.9714055439611937</v>
+        <v>1.011737198994245</v>
       </c>
       <c r="K14">
-        <v>1.03719649125017</v>
+        <v>1.040980516011506</v>
       </c>
       <c r="L14">
-        <v>0.9746789903252113</v>
+        <v>1.007137593729819</v>
       </c>
       <c r="M14">
-        <v>0.9723371251549092</v>
+        <v>1.031959331762747</v>
       </c>
       <c r="N14">
-        <v>0.9727850512553916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007923574845426</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035135524110841</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040115086391495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9400642910774755</v>
+        <v>0.9819665506204215</v>
       </c>
       <c r="D15">
-        <v>1.022858667935694</v>
+        <v>1.026727616688484</v>
       </c>
       <c r="E15">
-        <v>0.9596462624169927</v>
+        <v>0.9923755427109778</v>
       </c>
       <c r="F15">
-        <v>0.9573496482925086</v>
+        <v>1.017726320864817</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045596819989582</v>
+        <v>1.043419410224989</v>
       </c>
       <c r="J15">
-        <v>0.9719942858358552</v>
+        <v>1.011953512537057</v>
       </c>
       <c r="K15">
-        <v>1.037292397812507</v>
+        <v>1.041093268605657</v>
       </c>
       <c r="L15">
-        <v>0.9752951186801025</v>
+        <v>1.007369955666623</v>
       </c>
       <c r="M15">
-        <v>0.9730466500534515</v>
+        <v>1.03225139692499</v>
       </c>
       <c r="N15">
-        <v>0.973374629211045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008000100419748</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035404029276912</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040200638481691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9448723375458798</v>
+        <v>0.9842534943748134</v>
       </c>
       <c r="D16">
-        <v>1.023929401978527</v>
+        <v>1.027797828850524</v>
       </c>
       <c r="E16">
-        <v>0.9638162575846041</v>
+        <v>0.9941095109850542</v>
       </c>
       <c r="F16">
-        <v>0.9620702321611824</v>
+        <v>1.019237810563562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045816039370123</v>
+        <v>1.043822419086464</v>
       </c>
       <c r="J16">
-        <v>0.9753733465372251</v>
+        <v>1.013027262992809</v>
       </c>
       <c r="K16">
-        <v>1.037844189381429</v>
+        <v>1.041647431316494</v>
       </c>
       <c r="L16">
-        <v>0.9788323635066938</v>
+        <v>1.008548947615199</v>
       </c>
       <c r="M16">
-        <v>0.9771210313184817</v>
+        <v>1.03323251162891</v>
       </c>
       <c r="N16">
-        <v>0.9767584885661946</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008359127233333</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036140652369723</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040595598390055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9478306417321068</v>
+        <v>0.9856000551913943</v>
       </c>
       <c r="D17">
-        <v>1.02459455542163</v>
+        <v>1.02843630016925</v>
       </c>
       <c r="E17">
-        <v>0.966385494153959</v>
+        <v>0.9951218943311978</v>
       </c>
       <c r="F17">
-        <v>0.9649786248522005</v>
+        <v>1.019879607378785</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04594845407632</v>
+        <v>1.044028549284364</v>
       </c>
       <c r="J17">
-        <v>0.9774525326330226</v>
+        <v>1.013623074702416</v>
       </c>
       <c r="K17">
-        <v>1.038184670434247</v>
+        <v>1.041963455275624</v>
       </c>
       <c r="L17">
-        <v>0.9810097464633778</v>
+        <v>1.009215998455622</v>
       </c>
       <c r="M17">
-        <v>0.9796298938512272</v>
+        <v>1.033547827740967</v>
       </c>
       <c r="N17">
-        <v>0.9788406273447338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008549557692739</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036260380698149</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04082161261065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9495362877451486</v>
+        <v>0.9862483232212904</v>
       </c>
       <c r="D18">
-        <v>1.024980202627936</v>
+        <v>1.028742465428245</v>
       </c>
       <c r="E18">
-        <v>0.9678680329210874</v>
+        <v>0.9955906681931698</v>
       </c>
       <c r="F18">
-        <v>0.9666568595532715</v>
+        <v>1.019724851741035</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046023855691627</v>
+        <v>1.044068324429279</v>
       </c>
       <c r="J18">
-        <v>0.9786513192533032</v>
+        <v>1.013841111549339</v>
       </c>
       <c r="K18">
-        <v>1.038381239943934</v>
+        <v>1.042082848183893</v>
       </c>
       <c r="L18">
-        <v>0.9822654559612197</v>
+        <v>1.009485948994764</v>
       </c>
       <c r="M18">
-        <v>0.9810770786392715</v>
+        <v>1.033211578351083</v>
       </c>
       <c r="N18">
-        <v>0.9800411163795183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008604565229104</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035755838469122</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040894461164942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9501145774253006</v>
+        <v>0.9862456115287952</v>
       </c>
       <c r="D19">
-        <v>1.025111305138301</v>
+        <v>1.02876564551042</v>
       </c>
       <c r="E19">
-        <v>0.9683708808154986</v>
+        <v>0.995551139168989</v>
       </c>
       <c r="F19">
-        <v>0.9672260837796619</v>
+        <v>1.018790313495135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046049254932278</v>
+        <v>1.043956256700787</v>
       </c>
       <c r="J19">
-        <v>0.9790577592334666</v>
+        <v>1.013700774218987</v>
       </c>
       <c r="K19">
-        <v>1.038447921787901</v>
+        <v>1.04204367268608</v>
       </c>
       <c r="L19">
-        <v>0.9826912467026595</v>
+        <v>1.009382151755202</v>
       </c>
       <c r="M19">
-        <v>0.9815678485946833</v>
+        <v>1.032229549114601</v>
       </c>
       <c r="N19">
-        <v>0.9804481335510729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008534160067452</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034652049462943</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040873118907522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.947515319733174</v>
+        <v>0.9844241359485334</v>
       </c>
       <c r="D20">
-        <v>1.024523431589315</v>
+        <v>1.027949993686512</v>
       </c>
       <c r="E20">
-        <v>0.9661115151297454</v>
+        <v>0.9940927409793585</v>
       </c>
       <c r="F20">
-        <v>0.9646684801205178</v>
+        <v>1.015780313856501</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045934436955818</v>
+        <v>1.04341618097031</v>
       </c>
       <c r="J20">
-        <v>0.9772309133163158</v>
+        <v>1.012568972072756</v>
       </c>
       <c r="K20">
-        <v>1.038148349877796</v>
+        <v>1.041518557503312</v>
       </c>
       <c r="L20">
-        <v>0.9807776285025039</v>
+        <v>1.00824026385917</v>
       </c>
       <c r="M20">
-        <v>0.9793624068464687</v>
+        <v>1.029551247006951</v>
       </c>
       <c r="N20">
-        <v>0.9786186933031774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008116225397643</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032001381052381</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040505735586539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9388248728501456</v>
+        <v>0.9801152823372957</v>
       </c>
       <c r="D21">
-        <v>1.022584771977218</v>
+        <v>1.025953865349632</v>
       </c>
       <c r="E21">
-        <v>0.958572469942798</v>
+        <v>0.9908029335172129</v>
       </c>
       <c r="F21">
-        <v>0.9561340374635183</v>
+        <v>1.012495542841664</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045539581499646</v>
+        <v>1.042597670695308</v>
       </c>
       <c r="J21">
-        <v>0.9711232953331475</v>
+        <v>1.010468560621479</v>
       </c>
       <c r="K21">
-        <v>1.037150539886922</v>
+        <v>1.040459669908609</v>
       </c>
       <c r="L21">
-        <v>0.9743836304504006</v>
+        <v>1.005960667469996</v>
       </c>
       <c r="M21">
-        <v>0.9719970093496462</v>
+        <v>1.027243988293281</v>
       </c>
       <c r="N21">
-        <v>0.9725024018019194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007400183334804</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030134103913038</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039760263993234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9331616882943194</v>
+        <v>0.9773810835484869</v>
       </c>
       <c r="D22">
-        <v>1.021344621094871</v>
+        <v>1.02467879214936</v>
       </c>
       <c r="E22">
-        <v>0.9536720810642069</v>
+        <v>0.9887262759782974</v>
       </c>
       <c r="F22">
-        <v>0.950586141127755</v>
+        <v>1.010508662379245</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045274738750164</v>
+        <v>1.042077765073812</v>
       </c>
       <c r="J22">
-        <v>0.967144053203864</v>
+        <v>1.009147176633174</v>
       </c>
       <c r="K22">
-        <v>1.036504773176329</v>
+        <v>1.039776713954503</v>
       </c>
       <c r="L22">
-        <v>0.9702207718580957</v>
+        <v>1.004524425351139</v>
       </c>
       <c r="M22">
-        <v>0.9672044427999792</v>
+        <v>1.025874776083335</v>
       </c>
       <c r="N22">
-        <v>0.9685175086923872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006950684120947</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029050447521123</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039263968311991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9361837723563776</v>
+        <v>0.9788337269518106</v>
       </c>
       <c r="D23">
-        <v>1.022004076002786</v>
+        <v>1.025340232700596</v>
       </c>
       <c r="E23">
-        <v>0.9562858796420246</v>
+        <v>0.9898284272837719</v>
       </c>
       <c r="F23">
-        <v>0.9535453790344368</v>
+        <v>1.011563608725266</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045416711806118</v>
+        <v>1.042350096589662</v>
       </c>
       <c r="J23">
-        <v>0.9692674070650069</v>
+        <v>1.009848465750605</v>
       </c>
       <c r="K23">
-        <v>1.036848857809568</v>
+        <v>1.040124283342092</v>
       </c>
       <c r="L23">
-        <v>0.972441820686109</v>
+        <v>1.005286560364358</v>
       </c>
       <c r="M23">
-        <v>0.9697612171678539</v>
+        <v>1.026601828516142</v>
       </c>
       <c r="N23">
-        <v>0.9706438779595645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007188730979999</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.02962586986942</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039500143346754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.947657861404458</v>
+        <v>0.9844474791555616</v>
       </c>
       <c r="D24">
-        <v>1.024555576572009</v>
+        <v>1.027938684228683</v>
       </c>
       <c r="E24">
-        <v>0.9662353639027154</v>
+        <v>0.9941045333960847</v>
       </c>
       <c r="F24">
-        <v>0.9648086771702007</v>
+        <v>1.015659777101063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045940776355194</v>
+        <v>1.043395858908975</v>
       </c>
       <c r="J24">
-        <v>0.977331096569595</v>
+        <v>1.012557640041728</v>
       </c>
       <c r="K24">
-        <v>1.03816476783782</v>
+        <v>1.041492308344712</v>
       </c>
       <c r="L24">
-        <v>0.9808825567302992</v>
+        <v>1.008235977121612</v>
       </c>
       <c r="M24">
-        <v>0.9794833225831201</v>
+        <v>1.029417359381067</v>
       </c>
       <c r="N24">
-        <v>0.9787190188281674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008109054505214</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031854204493343</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040459940592336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9602003410652746</v>
+        <v>0.9907512473287182</v>
       </c>
       <c r="D25">
-        <v>1.027425357429848</v>
+        <v>1.030889781109937</v>
       </c>
       <c r="E25">
-        <v>0.9771572819130708</v>
+        <v>0.9989376822752276</v>
       </c>
       <c r="F25">
-        <v>0.9771726338542437</v>
+        <v>1.020297675247174</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046477018129713</v>
+        <v>1.044540097073275</v>
       </c>
       <c r="J25">
-        <v>0.9861455907071072</v>
+        <v>1.015593928766142</v>
       </c>
       <c r="K25">
-        <v>1.039612341487525</v>
+        <v>1.043026777150498</v>
       </c>
       <c r="L25">
-        <v>0.9901208636039753</v>
+        <v>1.011552511772526</v>
       </c>
       <c r="M25">
-        <v>0.990135962683764</v>
+        <v>1.032588860324721</v>
       </c>
       <c r="N25">
-        <v>0.9875460305583916</v>
+        <v>1.009140096610299</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034364260938467</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041542035557208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9956159117081541</v>
+        <v>0.995897409506653</v>
       </c>
       <c r="D2">
-        <v>1.033146481450236</v>
+        <v>1.030916861698307</v>
       </c>
       <c r="E2">
-        <v>1.00269007937021</v>
+        <v>1.002932653382566</v>
       </c>
       <c r="F2">
-        <v>1.023905953534584</v>
+        <v>1.023887754686928</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045383668951831</v>
+        <v>1.044743919814863</v>
       </c>
       <c r="J2">
-        <v>1.017928545500203</v>
+        <v>1.018201524618362</v>
       </c>
       <c r="K2">
-        <v>1.044162568038076</v>
+        <v>1.041961644765956</v>
       </c>
       <c r="L2">
-        <v>1.014112063906238</v>
+        <v>1.01435128232857</v>
       </c>
       <c r="M2">
-        <v>1.03504199152734</v>
+        <v>1.035024031596493</v>
       </c>
       <c r="N2">
-        <v>1.009931147054108</v>
+        <v>1.012051742152115</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03630576385335</v>
+        <v>1.036291549688775</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042297041525333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040749546440365</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023250283240618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.999065580739979</v>
+        <v>0.9992974431425112</v>
       </c>
       <c r="D3">
-        <v>1.034785406414118</v>
+        <v>1.032424130054248</v>
       </c>
       <c r="E3">
-        <v>1.005364625738373</v>
+        <v>1.005564418015836</v>
       </c>
       <c r="F3">
-        <v>1.026479951268242</v>
+        <v>1.026435644431905</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045974415013742</v>
+        <v>1.045282511537455</v>
       </c>
       <c r="J3">
-        <v>1.019581751420252</v>
+        <v>1.019807278906653</v>
       </c>
       <c r="K3">
-        <v>1.04499173731861</v>
+        <v>1.042658288970796</v>
       </c>
       <c r="L3">
-        <v>1.015929322287587</v>
+        <v>1.016126592744429</v>
       </c>
       <c r="M3">
-        <v>1.036784866303092</v>
+        <v>1.036741090687075</v>
       </c>
       <c r="N3">
-        <v>1.010491813467719</v>
+        <v>1.012485412990038</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037685139132168</v>
+        <v>1.037650493530325</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04288067468755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041239201178667</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023337803703817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00125996701221</v>
+        <v>1.001460524261825</v>
       </c>
       <c r="D4">
-        <v>1.035834665504234</v>
+        <v>1.033389636615741</v>
       </c>
       <c r="E4">
-        <v>1.007071774729892</v>
+        <v>1.007244538950778</v>
       </c>
       <c r="F4">
-        <v>1.028124257916507</v>
+        <v>1.028063420205941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046343205629848</v>
+        <v>1.045618043553344</v>
       </c>
       <c r="J4">
-        <v>1.020631497526495</v>
+        <v>1.020826943323118</v>
       </c>
       <c r="K4">
-        <v>1.045519010794925</v>
+        <v>1.043101111373474</v>
       </c>
       <c r="L4">
-        <v>1.017085592413971</v>
+        <v>1.017256308089804</v>
       </c>
       <c r="M4">
-        <v>1.037894695753613</v>
+        <v>1.037834543667537</v>
       </c>
       <c r="N4">
-        <v>1.010847703667315</v>
+        <v>1.012760717268601</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.038563497638048</v>
+        <v>1.038515891165064</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043254388087119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041553287852687</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023391131767985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002174378727078</v>
+        <v>1.002361904718402</v>
       </c>
       <c r="D5">
-        <v>1.036278831120276</v>
+        <v>1.033798606138645</v>
       </c>
       <c r="E5">
-        <v>1.007784633861374</v>
+        <v>1.00794613424938</v>
       </c>
       <c r="F5">
-        <v>1.028811019407601</v>
+        <v>1.028743283635831</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046496896976089</v>
+        <v>1.045757761689515</v>
       </c>
       <c r="J5">
-        <v>1.021068799180887</v>
+        <v>1.02125168765335</v>
       </c>
       <c r="K5">
-        <v>1.045744132666121</v>
+        <v>1.04329071607828</v>
       </c>
       <c r="L5">
-        <v>1.017567737889846</v>
+        <v>1.017727374509566</v>
       </c>
       <c r="M5">
-        <v>1.038357519997313</v>
+        <v>1.038290527356104</v>
       </c>
       <c r="N5">
-        <v>1.010996069103446</v>
+        <v>1.012875480259829</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038929792889353</v>
+        <v>1.038876772587769</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04342070325181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041695209194728</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023414257254818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00232823958902</v>
+        <v>1.002513519766007</v>
       </c>
       <c r="D6">
-        <v>1.036360186200677</v>
+        <v>1.033873677320669</v>
       </c>
       <c r="E6">
-        <v>1.007904797645365</v>
+        <v>1.008064352293001</v>
       </c>
       <c r="F6">
-        <v>1.028926599542148</v>
+        <v>1.028857672234519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046524748842078</v>
+        <v>1.045783145819907</v>
       </c>
       <c r="J6">
-        <v>1.02114276779106</v>
+        <v>1.02132348935867</v>
       </c>
       <c r="K6">
-        <v>1.045788661896464</v>
+        <v>1.043328909565431</v>
       </c>
       <c r="L6">
-        <v>1.017649205559579</v>
+        <v>1.017806927352141</v>
       </c>
       <c r="M6">
-        <v>1.038435537802566</v>
+        <v>1.038367363255561</v>
       </c>
       <c r="N6">
-        <v>1.011021334053179</v>
+        <v>1.012895007377486</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038991538883504</v>
+        <v>1.038937583185262</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043460893272087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041731796966113</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023419905592525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001274448967221</v>
+        <v>1.001482795904064</v>
       </c>
       <c r="D7">
-        <v>1.035859157420064</v>
+        <v>1.033414204101328</v>
       </c>
       <c r="E7">
-        <v>1.007083429055754</v>
+        <v>1.007263127031051</v>
       </c>
       <c r="F7">
-        <v>1.028134930927785</v>
+        <v>1.028077401700846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046351228033348</v>
+        <v>1.045628087076811</v>
       </c>
       <c r="J7">
-        <v>1.020639531522773</v>
+        <v>1.020842570683576</v>
       </c>
       <c r="K7">
-        <v>1.045540368908905</v>
+        <v>1.043122533602867</v>
       </c>
       <c r="L7">
-        <v>1.017094135518746</v>
+        <v>1.017271703526411</v>
       </c>
       <c r="M7">
-        <v>1.037902356910292</v>
+        <v>1.037845475786695</v>
       </c>
       <c r="N7">
-        <v>1.010850895337068</v>
+        <v>1.012791174700159</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038569560946216</v>
+        <v>1.03852454322825</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043289507059163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041590470484597</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023396737381571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9967924150908724</v>
+        <v>0.9970818422252085</v>
       </c>
       <c r="D8">
-        <v>1.033725473041111</v>
+        <v>1.031454699974076</v>
       </c>
       <c r="E8">
-        <v>1.003601468641701</v>
+        <v>1.003851609923585</v>
       </c>
       <c r="F8">
-        <v>1.024782062851785</v>
+        <v>1.024765692907141</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045593352229824</v>
+        <v>1.044943350036666</v>
       </c>
       <c r="J8">
-        <v>1.018494073488587</v>
+        <v>1.018775034012809</v>
       </c>
       <c r="K8">
-        <v>1.044467196836736</v>
+        <v>1.042224809113935</v>
       </c>
       <c r="L8">
-        <v>1.014732875748892</v>
+        <v>1.014979660250749</v>
       </c>
       <c r="M8">
-        <v>1.035636491073644</v>
+        <v>1.035620329675063</v>
       </c>
       <c r="N8">
-        <v>1.010123570965396</v>
+        <v>1.012285805233762</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036776272987249</v>
+        <v>1.036763482257218</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042535226457791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040960703154646</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02328785518034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9885901049216532</v>
+        <v>0.9890032539024705</v>
       </c>
       <c r="D9">
-        <v>1.029848245761536</v>
+        <v>1.027892406144481</v>
       </c>
       <c r="E9">
-        <v>0.9972762643070293</v>
+        <v>0.9976328746731657</v>
       </c>
       <c r="F9">
-        <v>1.018703393243098</v>
+        <v>1.018751486511923</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044143809937409</v>
+        <v>1.043618992374638</v>
       </c>
       <c r="J9">
-        <v>1.014552311160095</v>
+        <v>1.014950402618967</v>
       </c>
       <c r="K9">
-        <v>1.042474931130231</v>
+        <v>1.04054859580979</v>
       </c>
       <c r="L9">
-        <v>1.010413687338785</v>
+        <v>1.010764473937758</v>
       </c>
       <c r="M9">
-        <v>1.031500138016817</v>
+        <v>1.03154748722128</v>
       </c>
       <c r="N9">
-        <v>1.008785645209746</v>
+        <v>1.011261636196903</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033502602283616</v>
+        <v>1.033540076371759</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041123431122489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039772076062547</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02306136313987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9829599931191594</v>
+        <v>0.9834959301060341</v>
       </c>
       <c r="D10">
-        <v>1.027229646553676</v>
+        <v>1.02549554125168</v>
       </c>
       <c r="E10">
-        <v>0.9929755775459765</v>
+        <v>0.9934385946589189</v>
       </c>
       <c r="F10">
-        <v>1.014746778554571</v>
+        <v>1.014855552892414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043138473568715</v>
+        <v>1.042710307903931</v>
       </c>
       <c r="J10">
-        <v>1.011866382898418</v>
+        <v>1.012380010557802</v>
       </c>
       <c r="K10">
-        <v>1.041124070559115</v>
+        <v>1.039419234438444</v>
       </c>
       <c r="L10">
-        <v>1.007472829006947</v>
+        <v>1.007927336566346</v>
       </c>
       <c r="M10">
-        <v>1.028854784023185</v>
+        <v>1.028961667863233</v>
       </c>
       <c r="N10">
-        <v>1.007876995238978</v>
+        <v>1.010686592851726</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03146083839841</v>
+        <v>1.031545425500997</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040185016470013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038991953511467</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022901483204709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9809178795616991</v>
+        <v>0.9815537407200681</v>
       </c>
       <c r="D11">
-        <v>1.026284571592542</v>
+        <v>1.024630287935653</v>
       </c>
       <c r="E11">
-        <v>0.9914801434928258</v>
+        <v>0.9920306017730467</v>
       </c>
       <c r="F11">
-        <v>1.014704973862505</v>
+        <v>1.014860034699215</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042947193336209</v>
+        <v>1.042568850292104</v>
       </c>
       <c r="J11">
-        <v>1.011106622524648</v>
+        <v>1.011714562666508</v>
       </c>
       <c r="K11">
-        <v>1.040727258217686</v>
+        <v>1.039102195611036</v>
       </c>
       <c r="L11">
-        <v>1.006564540489883</v>
+        <v>1.007104390624419</v>
       </c>
       <c r="M11">
-        <v>1.029354803712957</v>
+        <v>1.029507050103024</v>
       </c>
       <c r="N11">
-        <v>1.007649156999593</v>
+        <v>1.010758683042298</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032295893520536</v>
+        <v>1.032416318644948</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039937088089533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038803665375442</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022878124759932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9803043761526845</v>
+        <v>0.9809785496042551</v>
       </c>
       <c r="D12">
-        <v>1.025980498973609</v>
+        <v>1.024347537126892</v>
       </c>
       <c r="E12">
-        <v>0.991056806202107</v>
+        <v>0.991640496792347</v>
       </c>
       <c r="F12">
-        <v>1.015268151444225</v>
+        <v>1.015440752265714</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042957385822041</v>
+        <v>1.042595581810056</v>
       </c>
       <c r="J12">
-        <v>1.01096633018707</v>
+        <v>1.011610332541381</v>
       </c>
       <c r="K12">
-        <v>1.040626324651196</v>
+        <v>1.039022684247619</v>
       </c>
       <c r="L12">
-        <v>1.006357373065209</v>
+        <v>1.00692962344347</v>
       </c>
       <c r="M12">
-        <v>1.030108569354721</v>
+        <v>1.030277992440338</v>
       </c>
       <c r="N12">
-        <v>1.007625734517658</v>
+        <v>1.01085077524167</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033220395826093</v>
+        <v>1.033354361619751</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039865725678682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038747449973723</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022879450528781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.980750758087924</v>
+        <v>0.9814064349662116</v>
       </c>
       <c r="D13">
-        <v>1.026168687955003</v>
+        <v>1.024509939116704</v>
       </c>
       <c r="E13">
-        <v>0.9914293838363023</v>
+        <v>0.9919963334207208</v>
       </c>
       <c r="F13">
-        <v>1.016355481523354</v>
+        <v>1.016519516066967</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043133458427411</v>
+        <v>1.042759707021306</v>
       </c>
       <c r="J13">
-        <v>1.011297035472076</v>
+        <v>1.01192351421561</v>
       </c>
       <c r="K13">
-        <v>1.040768731505401</v>
+        <v>1.039139654588858</v>
       </c>
       <c r="L13">
-        <v>1.006678053413075</v>
+        <v>1.007233939020189</v>
       </c>
       <c r="M13">
-        <v>1.031132898931756</v>
+        <v>1.031293931903345</v>
       </c>
       <c r="N13">
-        <v>1.007759849167603</v>
+        <v>1.010929169502277</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034308278282094</v>
+        <v>1.034435577602629</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039963934450618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038827428579356</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022906278449192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9815389437163013</v>
+        <v>0.9821565691921101</v>
       </c>
       <c r="D14">
-        <v>1.026525742597137</v>
+        <v>1.024827878672435</v>
       </c>
       <c r="E14">
-        <v>0.9920469516639093</v>
+        <v>0.9925802144488786</v>
       </c>
       <c r="F14">
-        <v>1.017340639048421</v>
+        <v>1.01748725717911</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043329892263123</v>
+        <v>1.042935258191619</v>
       </c>
       <c r="J14">
-        <v>1.011737198994245</v>
+        <v>1.012327713608224</v>
       </c>
       <c r="K14">
-        <v>1.040980516011506</v>
+        <v>1.03931266535457</v>
       </c>
       <c r="L14">
-        <v>1.007137593729819</v>
+        <v>1.007660581385128</v>
       </c>
       <c r="M14">
-        <v>1.031959331762747</v>
+        <v>1.03210330309818</v>
       </c>
       <c r="N14">
-        <v>1.007923574845426</v>
+        <v>1.010977868819844</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035135524110841</v>
+        <v>1.0352493204728</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040115086391495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038951304107293</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022937151662179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9819665506204215</v>
+        <v>0.9825632880169077</v>
       </c>
       <c r="D15">
-        <v>1.026727616688484</v>
+        <v>1.025009545977174</v>
       </c>
       <c r="E15">
-        <v>0.9923755427109778</v>
+        <v>0.9928904456002724</v>
       </c>
       <c r="F15">
-        <v>1.017726320864817</v>
+        <v>1.0178633711547</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043419410224989</v>
+        <v>1.043013631147208</v>
       </c>
       <c r="J15">
-        <v>1.011953512537057</v>
+        <v>1.012524284176705</v>
       </c>
       <c r="K15">
-        <v>1.041093268605657</v>
+        <v>1.039405346814622</v>
       </c>
       <c r="L15">
-        <v>1.007369955666623</v>
+        <v>1.00787501375781</v>
       </c>
       <c r="M15">
-        <v>1.03225139692499</v>
+        <v>1.032385992427428</v>
       </c>
       <c r="N15">
-        <v>1.008000100419748</v>
+        <v>1.010991533299907</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035404029276912</v>
+        <v>1.03551041207793</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040200638481691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039023240131338</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022952377373379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9842534943748134</v>
+        <v>0.984747451710081</v>
       </c>
       <c r="D16">
-        <v>1.027797828850524</v>
+        <v>1.025980273848326</v>
       </c>
       <c r="E16">
-        <v>0.9941095109850542</v>
+        <v>0.9945346413254976</v>
       </c>
       <c r="F16">
-        <v>1.019237810563562</v>
+        <v>1.019327426742743</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043822419086464</v>
+        <v>1.043361396284703</v>
       </c>
       <c r="J16">
-        <v>1.013027262992809</v>
+        <v>1.013500799865294</v>
       </c>
       <c r="K16">
-        <v>1.041647431316494</v>
+        <v>1.039860424068925</v>
       </c>
       <c r="L16">
-        <v>1.008548947615199</v>
+        <v>1.008966310453272</v>
       </c>
       <c r="M16">
-        <v>1.03323251162891</v>
+        <v>1.033320592436001</v>
       </c>
       <c r="N16">
-        <v>1.008359127233333</v>
+        <v>1.011044244240829</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036140652369723</v>
+        <v>1.036210272456055</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040595598390055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039348450579414</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023018144589716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9856000551913943</v>
+        <v>0.9860441959681325</v>
       </c>
       <c r="D17">
-        <v>1.02843630016925</v>
+        <v>1.026564256244336</v>
       </c>
       <c r="E17">
-        <v>0.9951218943311978</v>
+        <v>0.9955037191376562</v>
       </c>
       <c r="F17">
-        <v>1.019879607378785</v>
+        <v>1.019945808328342</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044028549284364</v>
+        <v>1.043538601337438</v>
       </c>
       <c r="J17">
-        <v>1.013623074702416</v>
+        <v>1.014049444349358</v>
       </c>
       <c r="K17">
-        <v>1.041963455275624</v>
+        <v>1.040122015402778</v>
       </c>
       <c r="L17">
-        <v>1.009215998455622</v>
+        <v>1.009591046424813</v>
       </c>
       <c r="M17">
-        <v>1.033547827740967</v>
+        <v>1.033612925601929</v>
       </c>
       <c r="N17">
-        <v>1.008549557692739</v>
+        <v>1.011089154058183</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036260380698149</v>
+        <v>1.036311839946358</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04082161261065</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039536231451622</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023052515866072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9862483232212904</v>
+        <v>0.986672238903424</v>
       </c>
       <c r="D18">
-        <v>1.028742465428245</v>
+        <v>1.026849207570898</v>
       </c>
       <c r="E18">
-        <v>0.9955906681931698</v>
+        <v>0.9959550822235247</v>
       </c>
       <c r="F18">
-        <v>1.019724851741035</v>
+        <v>1.019781180337902</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044068324429279</v>
+        <v>1.04356640885513</v>
       </c>
       <c r="J18">
-        <v>1.013841111549339</v>
+        <v>1.014248383770322</v>
       </c>
       <c r="K18">
-        <v>1.042082848183893</v>
+        <v>1.040220041814236</v>
       </c>
       <c r="L18">
-        <v>1.009485948994764</v>
+        <v>1.009844003413958</v>
       </c>
       <c r="M18">
-        <v>1.033211578351083</v>
+        <v>1.033266982480649</v>
       </c>
       <c r="N18">
-        <v>1.008604565229104</v>
+        <v>1.011087259249686</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035755838469122</v>
+        <v>1.035799644108185</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040894461164942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039592829390943</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023057528261142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9862456115287952</v>
+        <v>0.9866701425307893</v>
       </c>
       <c r="D19">
-        <v>1.02876564551042</v>
+        <v>1.02687920497626</v>
       </c>
       <c r="E19">
-        <v>0.995551139168989</v>
+        <v>0.9959163116936016</v>
       </c>
       <c r="F19">
-        <v>1.018790313495135</v>
+        <v>1.018846560186252</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043956256700787</v>
+        <v>1.043455751611505</v>
       </c>
       <c r="J19">
-        <v>1.013700774218987</v>
+        <v>1.014108735334688</v>
       </c>
       <c r="K19">
-        <v>1.04204367268608</v>
+        <v>1.040187410381976</v>
       </c>
       <c r="L19">
-        <v>1.009382151755202</v>
+        <v>1.00974098504794</v>
       </c>
       <c r="M19">
-        <v>1.032229549114601</v>
+        <v>1.03228487544401</v>
       </c>
       <c r="N19">
-        <v>1.008534160067452</v>
+        <v>1.011020395597718</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034652049462943</v>
+        <v>1.034695808032631</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040873118907522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039576742850716</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023040944316263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9844241359485334</v>
+        <v>0.9849047371970804</v>
       </c>
       <c r="D20">
-        <v>1.027949993686512</v>
+        <v>1.026150775006009</v>
       </c>
       <c r="E20">
-        <v>0.9940927409793585</v>
+        <v>0.9945071969248837</v>
       </c>
       <c r="F20">
-        <v>1.015780313856501</v>
+        <v>1.015862966079697</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04341618097031</v>
+        <v>1.042954585842295</v>
       </c>
       <c r="J20">
-        <v>1.012568972072756</v>
+        <v>1.013030218758339</v>
       </c>
       <c r="K20">
-        <v>1.041518557503312</v>
+        <v>1.039748869060321</v>
       </c>
       <c r="L20">
-        <v>1.00824026385917</v>
+        <v>1.008647323207343</v>
       </c>
       <c r="M20">
-        <v>1.029551247006951</v>
+        <v>1.029632503711604</v>
       </c>
       <c r="N20">
-        <v>1.008116225397643</v>
+        <v>1.010764320581115</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032001381052381</v>
+        <v>1.032065687812864</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040505735586539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039270957509788</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022954083825539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9801152823372957</v>
+        <v>0.9808025785114306</v>
       </c>
       <c r="D21">
-        <v>1.025953865349632</v>
+        <v>1.024349717499079</v>
       </c>
       <c r="E21">
-        <v>0.9908029335172129</v>
+        <v>0.991399562125312</v>
       </c>
       <c r="F21">
-        <v>1.012495542841664</v>
+        <v>1.012674565601549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042597670695308</v>
+        <v>1.042246876637961</v>
       </c>
       <c r="J21">
-        <v>1.010468560621479</v>
+        <v>1.011125456448215</v>
       </c>
       <c r="K21">
-        <v>1.040459669908609</v>
+        <v>1.038884008942083</v>
       </c>
       <c r="L21">
-        <v>1.005960667469996</v>
+        <v>1.00654572513209</v>
       </c>
       <c r="M21">
-        <v>1.027243988293281</v>
+        <v>1.02741972831994</v>
       </c>
       <c r="N21">
-        <v>1.007400183334804</v>
+        <v>1.010665441844659</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030134103913038</v>
+        <v>1.030273192385837</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039760263993234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038662990450179</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022825114197039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9773810835484869</v>
+        <v>0.9781989485939883</v>
       </c>
       <c r="D22">
-        <v>1.02467879214936</v>
+        <v>1.023198945351553</v>
       </c>
       <c r="E22">
-        <v>0.9887262759782974</v>
+        <v>0.9894381365648995</v>
       </c>
       <c r="F22">
-        <v>1.010508662379245</v>
+        <v>1.010749148768935</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042077765073812</v>
+        <v>1.041797636177809</v>
       </c>
       <c r="J22">
-        <v>1.009147176633174</v>
+        <v>1.009926756391779</v>
       </c>
       <c r="K22">
-        <v>1.039776713954503</v>
+        <v>1.038324422276968</v>
       </c>
       <c r="L22">
-        <v>1.004524425351139</v>
+        <v>1.005221770398299</v>
       </c>
       <c r="M22">
-        <v>1.025874776083335</v>
+        <v>1.026110628731031</v>
       </c>
       <c r="N22">
-        <v>1.006950684120947</v>
+        <v>1.010599244256634</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029050447521123</v>
+        <v>1.029237112081199</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039263968311991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038252604088007</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022738513024688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9788337269518106</v>
+        <v>0.979569061994371</v>
       </c>
       <c r="D23">
-        <v>1.025340232700596</v>
+        <v>1.023792623184063</v>
       </c>
       <c r="E23">
-        <v>0.9898284272837719</v>
+        <v>0.9904672509409302</v>
       </c>
       <c r="F23">
-        <v>1.011563608725266</v>
+        <v>1.011765524428153</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042350096589662</v>
+        <v>1.042028376919557</v>
       </c>
       <c r="J23">
-        <v>1.009848465750605</v>
+        <v>1.010550390164177</v>
       </c>
       <c r="K23">
-        <v>1.040124283342092</v>
+        <v>1.038604782358274</v>
       </c>
       <c r="L23">
-        <v>1.005286560364358</v>
+        <v>1.005912696759646</v>
       </c>
       <c r="M23">
-        <v>1.026601828516142</v>
+        <v>1.026799953745664</v>
       </c>
       <c r="N23">
-        <v>1.007188730979999</v>
+        <v>1.0105911317342</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02962586986942</v>
+        <v>1.029782675100224</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039500143346754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038440312618759</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022780024295146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9844474791555616</v>
+        <v>0.9849274304346531</v>
       </c>
       <c r="D24">
-        <v>1.027938684228683</v>
+        <v>1.026141037200313</v>
       </c>
       <c r="E24">
-        <v>0.9941045333960847</v>
+        <v>0.9945184641102228</v>
       </c>
       <c r="F24">
-        <v>1.015659777101063</v>
+        <v>1.015742147924449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043395858908975</v>
+        <v>1.04293451713462</v>
       </c>
       <c r="J24">
-        <v>1.012557640041728</v>
+        <v>1.013018291476399</v>
       </c>
       <c r="K24">
-        <v>1.041492308344712</v>
+        <v>1.039724128789676</v>
       </c>
       <c r="L24">
-        <v>1.008235977121612</v>
+        <v>1.008642530375881</v>
       </c>
       <c r="M24">
-        <v>1.029417359381067</v>
+        <v>1.029498340796352</v>
       </c>
       <c r="N24">
-        <v>1.008109054505214</v>
+        <v>1.010754581336262</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031854204493343</v>
+        <v>1.031918296632001</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040459940592336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039223534816896</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022945363264394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9907512473287182</v>
+        <v>0.9911212638838316</v>
       </c>
       <c r="D25">
-        <v>1.030889781109937</v>
+        <v>1.028847314815222</v>
       </c>
       <c r="E25">
-        <v>0.9989376822752276</v>
+        <v>0.9992568962613828</v>
       </c>
       <c r="F25">
-        <v>1.020297675247174</v>
+        <v>1.020324188540297</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044540097073275</v>
+        <v>1.043978623802835</v>
       </c>
       <c r="J25">
-        <v>1.015593928766142</v>
+        <v>1.015951172537294</v>
       </c>
       <c r="K25">
-        <v>1.043026777150498</v>
+        <v>1.041013729900631</v>
       </c>
       <c r="L25">
-        <v>1.011552511772526</v>
+        <v>1.011866758921508</v>
       </c>
       <c r="M25">
-        <v>1.032588860324721</v>
+        <v>1.03261498258832</v>
       </c>
       <c r="N25">
-        <v>1.009140096610299</v>
+        <v>1.011499814748415</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034364260938467</v>
+        <v>1.034384935136329</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041542035557208</v>
+        <v>1.040132203146108</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023129743332025</v>
       </c>
     </row>
   </sheetData>
